--- a/GATEWAY/A1#111APINFORMATICASRLXX/APINFORMATICA/ENERGYOMEGAPLUS-RSA/3.0.0000/report-checklist.xlsx
+++ b/GATEWAY/A1#111APINFORMATICASRLXX/APINFORMATICA/ENERGYOMEGAPLUS-RSA/3.0.0000/report-checklist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Myr\Omega\Fse2\Accreditamento\5-Pdf e Xml da Inviare\1-Ricevuti da Moschella\RSA\_Fatti\OutputDaInviare\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Myr\Omega\Fse2\Accreditamento\5-Pdf e Xml da Inviare\3-Preparati da Ugo\NuovaCartella\it-fse-accreditamento\GATEWAY\A1#111APINFORMATICASRLXX\APINFORMATICA\ENERGYOMEGAPLUS-RSA\3.0.0000\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB9C422B-7561-4AA6-9BA9-C576A57BE877}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BA1E03D-9892-43C2-8CDD-6387560B7974}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="1065" windowWidth="29040" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="41745" yWindow="1230" windowWidth="15855" windowHeight="16050" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="176">
   <si>
     <t>NOME FORNITORE:</t>
   </si>
@@ -408,35 +408,17 @@
     <t>L’applicativo risponde con un codice di errore e il messaggio “Campo token JWT non valido” seguito dal motivo dell’errore. Il referto non viene prodotto e viene aggiunto in una coda di errori di validazione dalla quale è possibile dedurre il tipo di errore e apportare le dovute correzioni, al termine delle quali il documento viene nuovamente inviato per la validazione.</t>
   </si>
   <si>
-    <t>a39f0275684e788c</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.6598c65ae5399303a9369ad5fcab265ce9941f9abb9213a2f5ee3cafa81df0e8.80ec362db9^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>CASO NON APPLICABILE. IL CAMPO DA TESTARE E’ DI DEFAULT IMPOSTATO A “N”  NELL’APPLICATIVO CHE GENERA IL CDA2</t>
   </si>
   <si>
     <t>CASO NON APPLICABILE. IL CAMPO DA TESTARE E’ SALVATO IN DB IN UPPERCASE</t>
   </si>
   <si>
-    <t>282cf555ae0f8ac7</t>
-  </si>
-  <si>
     <t>[ERRORE-6| L'elemento ClinicalDocument/confidentialityCode DEVE avere l'attributo @code valorizzato con 'N' o 'V', e il @codeSystem='2.16.840.1.113883.5.25']</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.39130ca3437833d5dd019ba5139c1a33de1e4301a3d556ec9e363a719b1679bd.1c34ba3985^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>ALERT: L'elemento 'confidentialityCode' di ClinicalDocument DEVE avere l'attributo @code  valorizzato con 'N' o 'V', e il suo @codeSystem  con ‘2.16.840.1.113883.5.25']
 Il confidentialityCode viene scelto, all’interno della maschera di inserimento, tra un elenco di valori predefiniti e codificati secondo normativa. Nell’ipotetico caso in cui sia presente un codice errato, può essere effettuata una richiesta di supporto attraverso la quale un operatore provvederà a correggere i codici opportuni.</t>
-  </si>
-  <si>
-    <t>e5c86855ee83bfc4</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.a4735dfd2e92b43f0259d7398b719e7f1ebd7d43eea45f545aa1cb0c5a4f1b3a.ee2df11a9a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>[ERRORE-11| L'elemento ClinicalDocument/recordTarget/patientRole/addr DEVE riportare i sotto-elementi 'country', 'city' e 'streetAddressLine' ]</t>
@@ -458,19 +440,7 @@
     <t>CASO NON APPLICABILE. LA SCELTA DEL VALORE AVVIENE DA UN ELENCO DI VALORI PREDEFINITI E CODIFICATI SECONDO NORMATIVA.</t>
   </si>
   <si>
-    <t>d2aaf007c28ce8ec</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.d10dfc181b8dcdc6e50fadc5b971086ec46edef53513061d3b85b2361c9bba90.8364dfd750^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>[ERRORE-b6| Sezione Quesito Diagnostico: la sezione DEVE contenere un elemento 'text']</t>
-  </si>
-  <si>
-    <t>b83d905083133e0e</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.d345899a66c8255ff0e4d7276d074caaf5ad636b7bdc4e0277c51932b88a274a.917fdf1b23^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">    "title": "Errore semantico.",
@@ -481,12 +451,6 @@
 Il cliente invia una richiesta di supporto attraverso la quale un operatore provvederà ad inserire i dati opportuni</t>
   </si>
   <si>
-    <t>da64887a289cf655</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.178c634913bbde9618f194d4a8bc098d6d84690ca2b3590dda510866190604be.a2e3548d7f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>[ERRORE-b26| Sezione Storia Clinica: l'elemento entry/observation/effectiveTime deve essere presente e deve avere l'elemento 'low' valorizzato],[ERRORE-b27| Sezione Storia Clinica: l'elemento entry/observation/effectiveTime deve essere presente e deve avere l'elemento 'high' valorizzato nel caso in cui il problema non sia più presente]</t>
   </si>
   <si>
@@ -494,23 +458,11 @@
 Il cliente invia una richiesta di supporto attraverso la quale un operatore provvederà ad inserire i dati opportuni</t>
   </si>
   <si>
-    <t>b25f79bc13fc9fc8</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.95bda3f94fda0d0ccec04033810cb57debb6ee2396c357af5394c5ad6fcfb7e4.12d7475c8d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>[ERRORE-b36| Sezione Storia Clinica: l'elemento entry/organizer/subject/relatedSubject deve avere l'attributo @classCode='PRS' e deve contenere l'elemento 'code']</t>
   </si>
   <si>
     <t>ALERT: Grado parentela non specificato.
 Il grado di parentela viene scelto, all’interno della maschera di inserimento, tra un elenco di valori predefiniti e codificati secondo normativa. Nell’ipotetico caso in cui sia presente un codice errato, può essere effettuata una richiesta di supporto attraverso la quale un operatore provvederà a correggere i codici opportuni.</t>
-  </si>
-  <si>
-    <t>a64dedff788c3f0d</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.95bda3f94fda0d0ccec04033810cb57debb6ee2396c357af5394c5ad6fcfb7e4.53e89763fe^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>[ERRORE-b48| Sotto-sezione  Allergie: l'elemento entry/act/effectiveTime deve essere presente e deve avere l'elemento 'low' valorizzato]</t>
@@ -524,23 +476,11 @@
 Il cliente invia una richiesta di supporto attraverso la quale un operatore provvederà ad inserire i dati opportuni</t>
   </si>
   <si>
-    <t>45c025f9d8c49850</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.c17dd9b908427d55bd92736784ff0f6b562e0a9eee2226104b56d7dcb3e30554.9172bfba55^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>[ERRORE-b61| Sotto-sezione Allergie (descrizione agente codificato): l'elemento entry/act/entryRelationship/observation/participant/participantRole/playingEntity deve avere l'attributo code/@codeSystem valorizzato come segue:\n\t\t\t- 2.16.840.1.113883.6.73\t\tcodifica \"WHO ATC\"\n\t\t\t- 2.16.840.1.113883.2.9.6.1.5 \t\tcodifica \"AIC\"\n\t\t\t- 2.16.840.1.113883.2.9.77.22.11.2 \tvalue set \"AllergenNoDrugs\" (- per le allergie non a farmaci –)\n\t\t\t]</t>
   </si>
   <si>
     <t>ALERT:  agente che ha scatenato l'allergia o intolleranza non presente.
 Il cliente invia una richiesta di supporto attraverso la quale un operatore provvederà ad inserire i dati opportuni</t>
-  </si>
-  <si>
-    <t>3e44e8132f59eafa</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.400e357e0f38620c7825d36f2b5a8f3600a9e3d603f9ed26feea5f4c44524eff.e9d44dd425^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>Almeno uno dei seguenti vocaboli non è censito: [CodeSystem: 2.16.840.1.113883.6.103, Codes: 441.01rr]</t>
@@ -637,30 +577,9 @@
     </r>
   </si>
   <si>
-    <t>aede51b36eb38d5f</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.02c3bdc11dfc5445b5729316d3bfbd485801bf2197315029c82492a6999e0f9f.2c9f985bed^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>b2ad924b86769ea1</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.9223fe24ea0502fbc621cc126935582805911d89870a26986b41c5933f68fc96.334a301fca^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>ERRORE:    "title": "Campo token JWT non valido.",
     "detail": "Il codice fiscale nel campo person_id non è corretto",
     "status": 403,</t>
-  </si>
-  <si>
-    <t>ce111cc2fca559ec</t>
-  </si>
-  <si>
-    <t>5b115215a5e21ef8</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.ec7b7a855915fadb7e3e783a228162dc1b83b318fb8ec8a18fb44f2b20cb9973.1fa23faad0^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>AP INFORMATICA</t>
@@ -674,6 +593,129 @@
   <si>
     <t>subject_application_version: 3.0.0000</t>
   </si>
+  <si>
+    <t>09404c69abc54858</t>
+  </si>
+  <si>
+    <t>08.34</t>
+  </si>
+  <si>
+    <t>5bd1aa1fb6d16461</t>
+  </si>
+  <si>
+    <t>08:36</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.360cc943e70448136115e759963deb4bbb899dfe040af3fe672107163ebf9e6d.95dc833a25^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>08.39</t>
+  </si>
+  <si>
+    <t>c8dcac343387b67f</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.0c617dc5d919c07f31540bc889491b655d336612111a3beea438cccea29d54c1.7b9d691247^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>08:41</t>
+  </si>
+  <si>
+    <t>2901ab6ef01c4623</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.b59d57e67d280f3357edd680f949d8b5cdb2a8d06b4bec8bdb17a52452d7cc65.1d9c00f923^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>08:42</t>
+  </si>
+  <si>
+    <t>08:52</t>
+  </si>
+  <si>
+    <t>6a01b57a751f8d9a</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.b7bcb35e22df2ffac9944cb7c1d428d8076b847d9533129149657df8bb89321d.20b7502150^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>08:44</t>
+  </si>
+  <si>
+    <t>c121800c88e834cb</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.98a9565c5832a6b8900b2143f8661d349ed23f87eae08a938663e15faf287dff.49a25ac500^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>08:45</t>
+  </si>
+  <si>
+    <t>a2e98e526d12a265</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.6ac8c280d76bd3343124b3f5751ff74c96f577965cc1fc7368f87ceb0a4bfedc.f096468848^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>08:46</t>
+  </si>
+  <si>
+    <t>fb166582168dfd86</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.39eae3c73c47b928fb0b8fe0109177405c3e3835d761bb47d04bdef2a674f27b.e3fb7eb2b7^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>08:47</t>
+  </si>
+  <si>
+    <t>08:48</t>
+  </si>
+  <si>
+    <t>08:49</t>
+  </si>
+  <si>
+    <t>8fb064dc53e507e7</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.52092988240fe58c23a1e7f130145a6275b10731bbe4063879cf87e63caa69c4.eb1f863c76^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>fa9e9482d9c56725</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.4239022ef91722c27923ea7e2116c7ceee8a66cbb3f8110b057782af12eff35a.43fe3fcadc^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>d66a4c5762e41560</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.df8966d9234838525ac6cb4d411cc6ebf1164b2ae8ba17813223f37173779fae.38cec616cd^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>08:50</t>
+  </si>
+  <si>
+    <t>66e69e3a6c308e06</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.df8966d9234838525ac6cb4d411cc6ebf1164b2ae8ba17813223f37173779fae.3bbe35db3a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>08:51</t>
+  </si>
+  <si>
+    <t>2deabc05da606ce0</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.63c2b00f02c1b522d2ba64380c565ced60a060cab72c80ab17aa27731ce368d8.3ea422e217^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>b4b6a2c642ac3ba0</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.5f7e2b946e0103c46181192b917a46e62dd4a13e11bd00027d66e6492678430a.e4ee3dec8b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
 </sst>
 </file>
 
@@ -682,7 +724,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -725,18 +767,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF0451A5"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF0451A5"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -955,7 +985,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1041,30 +1071,9 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="22" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1074,15 +1083,6 @@
     </xf>
     <xf numFmtId="14" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1100,24 +1100,6 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="2" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1127,6 +1109,63 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1449,8 +1488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T707"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1459,10 +1498,10 @@
     <col min="2" max="2" width="15.140625" style="26" customWidth="1"/>
     <col min="3" max="3" width="23.28515625" style="26" customWidth="1"/>
     <col min="4" max="4" width="44.140625" style="26" customWidth="1"/>
-    <col min="5" max="5" width="104.7109375" style="26" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" style="26" customWidth="1"/>
     <col min="6" max="6" width="25.5703125" style="26" customWidth="1"/>
-    <col min="7" max="7" width="18.42578125" style="26" customWidth="1"/>
-    <col min="8" max="8" width="20" style="35" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" style="59" customWidth="1"/>
+    <col min="8" max="8" width="22.7109375" style="35" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="31.85546875" style="35" customWidth="1"/>
     <col min="10" max="10" width="21.85546875" style="26" customWidth="1"/>
     <col min="11" max="11" width="37.7109375" style="26" customWidth="1"/>
@@ -1485,7 +1524,7 @@
       <c r="D1" s="19"/>
       <c r="E1" s="19"/>
       <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
+      <c r="G1" s="55"/>
       <c r="H1" s="21"/>
       <c r="I1" s="21"/>
       <c r="J1" s="22"/>
@@ -1501,17 +1540,17 @@
       <c r="T1" s="22"/>
     </row>
     <row r="2" spans="1:20" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="42" t="s">
-        <v>158</v>
-      </c>
-      <c r="D2" s="42"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="52" t="s">
+        <v>131</v>
+      </c>
+      <c r="D2" s="52"/>
       <c r="E2" s="19"/>
       <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
+      <c r="G2" s="55"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
       <c r="J2" s="22"/>
@@ -1527,17 +1566,17 @@
       <c r="T2" s="22"/>
     </row>
     <row r="3" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="44" t="s">
-        <v>159</v>
-      </c>
-      <c r="D3" s="44"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="54" t="s">
+        <v>132</v>
+      </c>
+      <c r="D3" s="54"/>
       <c r="E3" s="19"/>
       <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
+      <c r="G3" s="55"/>
       <c r="H3" s="21"/>
       <c r="I3" s="21"/>
       <c r="J3" s="22"/>
@@ -1553,15 +1592,15 @@
       <c r="T3" s="22"/>
     </row>
     <row r="4" spans="1:20" ht="15.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="43"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="44" t="s">
-        <v>160</v>
-      </c>
-      <c r="D4" s="44"/>
+      <c r="A4" s="53"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="54" t="s">
+        <v>133</v>
+      </c>
+      <c r="D4" s="54"/>
       <c r="E4" s="28"/>
       <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
+      <c r="G4" s="55"/>
       <c r="H4" s="21"/>
       <c r="I4" s="21"/>
       <c r="J4" s="22"/>
@@ -1577,15 +1616,15 @@
       <c r="T4" s="22"/>
     </row>
     <row r="5" spans="1:20" ht="15.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="43"/>
-      <c r="B5" s="43"/>
-      <c r="C5" s="44" t="s">
-        <v>161</v>
-      </c>
-      <c r="D5" s="44"/>
+      <c r="A5" s="53"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="54" t="s">
+        <v>134</v>
+      </c>
+      <c r="D5" s="54"/>
       <c r="E5" s="19"/>
       <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
+      <c r="G5" s="55"/>
       <c r="H5" s="21"/>
       <c r="I5" s="21"/>
       <c r="J5" s="22"/>
@@ -1601,13 +1640,13 @@
       <c r="T5" s="22"/>
     </row>
     <row r="6" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="40"/>
-      <c r="B6" s="40"/>
+      <c r="A6" s="50"/>
+      <c r="B6" s="50"/>
       <c r="C6" s="29"/>
       <c r="D6" s="19"/>
       <c r="E6" s="19"/>
       <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
+      <c r="G6" s="55"/>
       <c r="H6" s="21"/>
       <c r="I6" s="21"/>
       <c r="J6" s="22"/>
@@ -1629,7 +1668,7 @@
       <c r="D7" s="19"/>
       <c r="E7" s="19"/>
       <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
+      <c r="G7" s="55"/>
       <c r="H7" s="21"/>
       <c r="I7" s="21"/>
       <c r="J7" s="22"/>
@@ -1651,7 +1690,7 @@
       <c r="D8" s="19"/>
       <c r="E8" s="19"/>
       <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
+      <c r="G8" s="55"/>
       <c r="H8" s="21"/>
       <c r="I8" s="21"/>
       <c r="J8" s="22"/>
@@ -1688,10 +1727,10 @@
       <c r="G9" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="27" t="s">
+      <c r="H9" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="27" t="s">
+      <c r="I9" s="61" t="s">
         <v>10</v>
       </c>
       <c r="J9" s="27" t="s">
@@ -1728,7 +1767,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="150" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="30">
         <v>32</v>
       </c>
@@ -1742,10 +1781,10 @@
         <v>49</v>
       </c>
       <c r="E10" s="31" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
+      <c r="G10" s="56"/>
       <c r="H10" s="32"/>
       <c r="I10" s="32"/>
       <c r="J10" s="33" t="s">
@@ -1766,61 +1805,61 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:20" s="55" customFormat="1" ht="240" x14ac:dyDescent="0.25">
-      <c r="A11" s="45">
+    <row r="11" spans="1:20" s="45" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="38">
         <v>40</v>
       </c>
-      <c r="B11" s="45" t="s">
+      <c r="B11" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="45" t="s">
+      <c r="C11" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="45" t="s">
+      <c r="D11" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="E11" s="46" t="s">
-        <v>149</v>
-      </c>
-      <c r="F11" s="47">
-        <v>45265</v>
-      </c>
-      <c r="G11" s="48">
-        <v>45219.425000000003</v>
-      </c>
-      <c r="H11" s="49" t="s">
-        <v>155</v>
-      </c>
-      <c r="I11" s="50" t="s">
+      <c r="E11" s="39" t="s">
+        <v>129</v>
+      </c>
+      <c r="F11" s="40">
+        <v>45266</v>
+      </c>
+      <c r="G11" s="57" t="s">
+        <v>136</v>
+      </c>
+      <c r="H11" s="62" t="s">
+        <v>135</v>
+      </c>
+      <c r="I11" s="63" t="s">
         <v>101</v>
       </c>
-      <c r="J11" s="51" t="s">
+      <c r="J11" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="K11" s="51"/>
-      <c r="L11" s="51" t="s">
+      <c r="K11" s="41"/>
+      <c r="L11" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="M11" s="51" t="s">
+      <c r="M11" s="41" t="s">
         <v>98</v>
       </c>
-      <c r="N11" s="52" t="s">
-        <v>154</v>
-      </c>
-      <c r="O11" s="51" t="s">
+      <c r="N11" s="42" t="s">
+        <v>130</v>
+      </c>
+      <c r="O11" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="P11" s="51" t="s">
+      <c r="P11" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="Q11" s="51"/>
-      <c r="R11" s="53"/>
-      <c r="S11" s="54"/>
-      <c r="T11" s="51" t="s">
+      <c r="Q11" s="41"/>
+      <c r="R11" s="43"/>
+      <c r="S11" s="44"/>
+      <c r="T11" s="41" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="135" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="30">
         <v>48</v>
       </c>
@@ -1837,13 +1876,8 @@
         <v>27</v>
       </c>
       <c r="F12" s="36">
-        <v>45265</v>
-      </c>
-      <c r="G12" s="37">
-        <v>45215.4375</v>
-      </c>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32"/>
+        <v>45266</v>
+      </c>
       <c r="J12" s="33"/>
       <c r="K12" s="33"/>
       <c r="L12" s="33"/>
@@ -1862,183 +1896,183 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:20" s="55" customFormat="1" ht="165" x14ac:dyDescent="0.25">
-      <c r="A13" s="45">
+    <row r="13" spans="1:20" s="45" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="38">
         <v>147</v>
       </c>
-      <c r="B13" s="45" t="s">
+      <c r="B13" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="45" t="s">
+      <c r="C13" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="D13" s="45" t="s">
+      <c r="D13" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="E13" s="46" t="s">
+      <c r="E13" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="F13" s="47">
-        <v>45265</v>
-      </c>
-      <c r="G13" s="48">
-        <v>45215.432638888888</v>
-      </c>
-      <c r="H13" s="56" t="s">
-        <v>103</v>
-      </c>
-      <c r="I13" s="56" t="s">
-        <v>104</v>
-      </c>
-      <c r="J13" s="51" t="s">
+      <c r="F13" s="40">
+        <v>45266</v>
+      </c>
+      <c r="G13" s="57" t="s">
+        <v>138</v>
+      </c>
+      <c r="H13" s="60" t="s">
+        <v>137</v>
+      </c>
+      <c r="I13" s="60" t="s">
+        <v>139</v>
+      </c>
+      <c r="J13" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="K13" s="51"/>
-      <c r="L13" s="51"/>
-      <c r="M13" s="51"/>
-      <c r="N13" s="51"/>
-      <c r="O13" s="51"/>
-      <c r="P13" s="51"/>
-      <c r="Q13" s="51"/>
-      <c r="R13" s="53"/>
-      <c r="S13" s="54"/>
-      <c r="T13" s="51" t="s">
+      <c r="K13" s="41"/>
+      <c r="L13" s="41"/>
+      <c r="M13" s="41"/>
+      <c r="N13" s="41"/>
+      <c r="O13" s="41"/>
+      <c r="P13" s="41"/>
+      <c r="Q13" s="41"/>
+      <c r="R13" s="43"/>
+      <c r="S13" s="44"/>
+      <c r="T13" s="41" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:20" s="55" customFormat="1" ht="165" x14ac:dyDescent="0.25">
-      <c r="A14" s="45">
+    <row r="14" spans="1:20" s="45" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="38">
         <v>148</v>
       </c>
-      <c r="B14" s="45" t="s">
+      <c r="B14" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="45" t="s">
+      <c r="C14" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="45" t="s">
+      <c r="D14" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="E14" s="46" t="s">
+      <c r="E14" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="F14" s="57">
-        <v>45265</v>
-      </c>
-      <c r="G14" s="58">
-        <v>45220.561805555553</v>
-      </c>
-      <c r="H14" s="59" t="s">
-        <v>156</v>
-      </c>
-      <c r="I14" s="60" t="s">
-        <v>157</v>
-      </c>
-      <c r="J14" s="51" t="s">
+      <c r="F14" s="40">
+        <v>45266</v>
+      </c>
+      <c r="G14" s="57" t="s">
+        <v>140</v>
+      </c>
+      <c r="H14" s="64" t="s">
+        <v>141</v>
+      </c>
+      <c r="I14" s="64" t="s">
+        <v>142</v>
+      </c>
+      <c r="J14" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="K14" s="51"/>
-      <c r="L14" s="51"/>
-      <c r="M14" s="51"/>
-      <c r="N14" s="51"/>
-      <c r="O14" s="51"/>
-      <c r="P14" s="51"/>
-      <c r="Q14" s="51"/>
-      <c r="R14" s="53"/>
-      <c r="S14" s="54"/>
-      <c r="T14" s="51" t="s">
+      <c r="K14" s="41"/>
+      <c r="L14" s="41"/>
+      <c r="M14" s="41"/>
+      <c r="N14" s="41"/>
+      <c r="O14" s="41"/>
+      <c r="P14" s="41"/>
+      <c r="Q14" s="41"/>
+      <c r="R14" s="43"/>
+      <c r="S14" s="44"/>
+      <c r="T14" s="41" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:20" s="55" customFormat="1" ht="165" x14ac:dyDescent="0.25">
-      <c r="A15" s="45">
+    <row r="15" spans="1:20" s="45" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="38">
         <v>149</v>
       </c>
-      <c r="B15" s="45" t="s">
+      <c r="B15" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="45" t="s">
+      <c r="C15" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="D15" s="45" t="s">
+      <c r="D15" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="E15" s="46" t="s">
+      <c r="E15" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="F15" s="47">
-        <v>45265</v>
-      </c>
-      <c r="G15" s="61">
-        <v>45219.400694444441</v>
-      </c>
-      <c r="H15" s="62" t="s">
+      <c r="F15" s="40">
+        <v>45266</v>
+      </c>
+      <c r="G15" s="58" t="s">
+        <v>143</v>
+      </c>
+      <c r="H15" s="65" t="s">
+        <v>144</v>
+      </c>
+      <c r="I15" s="66" t="s">
+        <v>145</v>
+      </c>
+      <c r="J15" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="K15" s="41"/>
+      <c r="L15" s="41"/>
+      <c r="M15" s="41"/>
+      <c r="N15" s="41"/>
+      <c r="O15" s="41"/>
+      <c r="P15" s="41"/>
+      <c r="Q15" s="41"/>
+      <c r="R15" s="43"/>
+      <c r="S15" s="44"/>
+      <c r="T15" s="41" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" s="45" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="38">
         <v>150</v>
       </c>
-      <c r="I15" s="52" t="s">
-        <v>151</v>
-      </c>
-      <c r="J15" s="63" t="s">
+      <c r="B16" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" s="40">
+        <v>45266</v>
+      </c>
+      <c r="G16" s="57" t="s">
+        <v>146</v>
+      </c>
+      <c r="H16" s="63" t="s">
+        <v>148</v>
+      </c>
+      <c r="I16" s="64" t="s">
+        <v>149</v>
+      </c>
+      <c r="J16" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="K15" s="51"/>
-      <c r="L15" s="51"/>
-      <c r="M15" s="51"/>
-      <c r="N15" s="51"/>
-      <c r="O15" s="51"/>
-      <c r="P15" s="51"/>
-      <c r="Q15" s="51"/>
-      <c r="R15" s="53"/>
-      <c r="S15" s="54"/>
-      <c r="T15" s="51" t="s">
+      <c r="K16" s="41"/>
+      <c r="L16" s="41"/>
+      <c r="M16" s="41"/>
+      <c r="N16" s="41"/>
+      <c r="O16" s="41"/>
+      <c r="P16" s="41"/>
+      <c r="Q16" s="41"/>
+      <c r="R16" s="43"/>
+      <c r="S16" s="44"/>
+      <c r="T16" s="41" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:20" s="55" customFormat="1" ht="165" x14ac:dyDescent="0.25">
-      <c r="A16" s="45">
-        <v>150</v>
-      </c>
-      <c r="B16" s="45" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="45" t="s">
-        <v>48</v>
-      </c>
-      <c r="D16" s="45" t="s">
-        <v>58</v>
-      </c>
-      <c r="E16" s="46" t="s">
-        <v>59</v>
-      </c>
-      <c r="F16" s="47">
-        <v>45265</v>
-      </c>
-      <c r="G16" s="48">
-        <v>45219.40902777778</v>
-      </c>
-      <c r="H16" s="50" t="s">
-        <v>152</v>
-      </c>
-      <c r="I16" s="56" t="s">
-        <v>153</v>
-      </c>
-      <c r="J16" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="K16" s="51"/>
-      <c r="L16" s="51"/>
-      <c r="M16" s="51"/>
-      <c r="N16" s="51"/>
-      <c r="O16" s="51"/>
-      <c r="P16" s="51"/>
-      <c r="Q16" s="51"/>
-      <c r="R16" s="53"/>
-      <c r="S16" s="54"/>
-      <c r="T16" s="51" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" ht="120" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="30">
         <v>151</v>
       </c>
@@ -2055,14 +2089,14 @@
         <v>61</v>
       </c>
       <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
+      <c r="G17" s="56"/>
       <c r="H17" s="32"/>
-      <c r="I17" s="38"/>
+      <c r="I17" s="67"/>
       <c r="J17" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="K17" s="39" t="s">
-        <v>105</v>
+      <c r="K17" s="37" t="s">
+        <v>103</v>
       </c>
       <c r="L17" s="33"/>
       <c r="M17" s="33"/>
@@ -2076,7 +2110,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="135" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="30">
         <v>152</v>
       </c>
@@ -2093,14 +2127,14 @@
         <v>63</v>
       </c>
       <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
+      <c r="G18" s="56"/>
       <c r="H18" s="32"/>
-      <c r="I18" s="38"/>
+      <c r="I18" s="67"/>
       <c r="J18" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="K18" s="39" t="s">
-        <v>106</v>
+      <c r="K18" s="37" t="s">
+        <v>104</v>
       </c>
       <c r="L18" s="33"/>
       <c r="M18" s="33"/>
@@ -2114,115 +2148,115 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:20" s="55" customFormat="1" ht="345" x14ac:dyDescent="0.25">
-      <c r="A19" s="45">
+    <row r="19" spans="1:20" s="45" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="38">
         <v>153</v>
       </c>
-      <c r="B19" s="45" t="s">
+      <c r="B19" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="45" t="s">
+      <c r="C19" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="45" t="s">
+      <c r="D19" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="E19" s="46" t="s">
+      <c r="E19" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="F19" s="47">
-        <v>45265</v>
-      </c>
-      <c r="G19" s="48">
-        <v>45215.718055555553</v>
-      </c>
-      <c r="H19" s="50" t="s">
+      <c r="F19" s="40">
+        <v>45266</v>
+      </c>
+      <c r="G19" s="57" t="s">
+        <v>150</v>
+      </c>
+      <c r="H19" s="63" t="s">
+        <v>151</v>
+      </c>
+      <c r="I19" s="64" t="s">
+        <v>152</v>
+      </c>
+      <c r="J19" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="K19" s="41"/>
+      <c r="L19" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="M19" s="41" t="s">
+        <v>98</v>
+      </c>
+      <c r="N19" s="48" t="s">
+        <v>105</v>
+      </c>
+      <c r="O19" s="41" t="s">
+        <v>98</v>
+      </c>
+      <c r="P19" s="49" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q19" s="41"/>
+      <c r="R19" s="43"/>
+      <c r="S19" s="44"/>
+      <c r="T19" s="41" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" s="45" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="38">
+        <v>154</v>
+      </c>
+      <c r="B20" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="E20" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="F20" s="40">
+        <v>45266</v>
+      </c>
+      <c r="G20" s="57" t="s">
+        <v>153</v>
+      </c>
+      <c r="H20" s="63" t="s">
+        <v>154</v>
+      </c>
+      <c r="I20" s="64" t="s">
+        <v>155</v>
+      </c>
+      <c r="J20" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="K20" s="41"/>
+      <c r="L20" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="M20" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="N20" s="46" t="s">
         <v>107</v>
       </c>
-      <c r="I19" s="56" t="s">
-        <v>109</v>
-      </c>
-      <c r="J19" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="K19" s="51"/>
-      <c r="L19" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="M19" s="51" t="s">
+      <c r="O20" s="41" t="s">
         <v>98</v>
       </c>
-      <c r="N19" s="64" t="s">
+      <c r="P20" s="48" t="s">
         <v>108</v>
       </c>
-      <c r="O19" s="51" t="s">
-        <v>98</v>
-      </c>
-      <c r="P19" s="65" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q19" s="51"/>
-      <c r="R19" s="53"/>
-      <c r="S19" s="54"/>
-      <c r="T19" s="51" t="s">
+      <c r="Q20" s="41"/>
+      <c r="R20" s="43"/>
+      <c r="S20" s="44"/>
+      <c r="T20" s="41" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:20" s="55" customFormat="1" ht="225" x14ac:dyDescent="0.25">
-      <c r="A20" s="45">
-        <v>154</v>
-      </c>
-      <c r="B20" s="45" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="45" t="s">
-        <v>48</v>
-      </c>
-      <c r="D20" s="45" t="s">
-        <v>66</v>
-      </c>
-      <c r="E20" s="46" t="s">
-        <v>67</v>
-      </c>
-      <c r="F20" s="47">
-        <v>45265</v>
-      </c>
-      <c r="G20" s="48">
-        <v>45216.679166666669</v>
-      </c>
-      <c r="H20" s="50" t="s">
-        <v>111</v>
-      </c>
-      <c r="I20" s="56" t="s">
-        <v>112</v>
-      </c>
-      <c r="J20" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="K20" s="51"/>
-      <c r="L20" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="M20" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="N20" s="56" t="s">
-        <v>113</v>
-      </c>
-      <c r="O20" s="51" t="s">
-        <v>98</v>
-      </c>
-      <c r="P20" s="64" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q20" s="51"/>
-      <c r="R20" s="53"/>
-      <c r="S20" s="54"/>
-      <c r="T20" s="51" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" ht="135" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="30">
         <v>155</v>
       </c>
@@ -2239,14 +2273,14 @@
         <v>69</v>
       </c>
       <c r="F21" s="32"/>
-      <c r="G21" s="32"/>
+      <c r="G21" s="56"/>
       <c r="H21" s="32"/>
-      <c r="I21" s="38"/>
-      <c r="J21" s="39" t="s">
+      <c r="I21" s="67"/>
+      <c r="J21" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="K21" s="39" t="s">
-        <v>115</v>
+      <c r="K21" s="37" t="s">
+        <v>109</v>
       </c>
       <c r="L21" s="33"/>
       <c r="M21" s="33"/>
@@ -2260,7 +2294,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="135" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="30">
         <v>156</v>
       </c>
@@ -2277,14 +2311,14 @@
         <v>71</v>
       </c>
       <c r="F22" s="32"/>
-      <c r="G22" s="32"/>
+      <c r="G22" s="56"/>
       <c r="H22" s="32"/>
-      <c r="I22" s="38"/>
-      <c r="J22" s="39" t="s">
+      <c r="I22" s="67"/>
+      <c r="J22" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="K22" s="39" t="s">
-        <v>115</v>
+      <c r="K22" s="37" t="s">
+        <v>109</v>
       </c>
       <c r="L22" s="33"/>
       <c r="M22" s="33"/>
@@ -2298,7 +2332,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="135" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="30">
         <v>157</v>
       </c>
@@ -2315,14 +2349,14 @@
         <v>73</v>
       </c>
       <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
+      <c r="G23" s="56"/>
       <c r="H23" s="32"/>
-      <c r="I23" s="38"/>
-      <c r="J23" s="39" t="s">
+      <c r="I23" s="67"/>
+      <c r="J23" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="K23" s="39" t="s">
-        <v>118</v>
+      <c r="K23" s="37" t="s">
+        <v>112</v>
       </c>
       <c r="L23" s="33"/>
       <c r="M23" s="33"/>
@@ -2336,7 +2370,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="135" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="30">
         <v>158</v>
       </c>
@@ -2353,14 +2387,14 @@
         <v>75</v>
       </c>
       <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
+      <c r="G24" s="56"/>
       <c r="H24" s="32"/>
-      <c r="I24" s="38"/>
-      <c r="J24" s="39" t="s">
+      <c r="I24" s="67"/>
+      <c r="J24" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="K24" s="39" t="s">
-        <v>116</v>
+      <c r="K24" s="37" t="s">
+        <v>110</v>
       </c>
       <c r="L24" s="33"/>
       <c r="M24" s="33"/>
@@ -2374,7 +2408,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="120" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="30">
         <v>159</v>
       </c>
@@ -2391,14 +2425,14 @@
         <v>77</v>
       </c>
       <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
+      <c r="G25" s="56"/>
       <c r="H25" s="32"/>
-      <c r="I25" s="38"/>
-      <c r="J25" s="39" t="s">
+      <c r="I25" s="67"/>
+      <c r="J25" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="K25" s="39" t="s">
-        <v>115</v>
+      <c r="K25" s="37" t="s">
+        <v>109</v>
       </c>
       <c r="L25" s="33"/>
       <c r="M25" s="33"/>
@@ -2412,7 +2446,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="120" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="30">
         <v>160</v>
       </c>
@@ -2429,14 +2463,14 @@
         <v>79</v>
       </c>
       <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
+      <c r="G26" s="56"/>
       <c r="H26" s="32"/>
-      <c r="I26" s="38"/>
-      <c r="J26" s="39" t="s">
+      <c r="I26" s="67"/>
+      <c r="J26" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="K26" s="39" t="s">
-        <v>115</v>
+      <c r="K26" s="37" t="s">
+        <v>109</v>
       </c>
       <c r="L26" s="33"/>
       <c r="M26" s="33"/>
@@ -2450,7 +2484,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="135" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="30">
         <v>161</v>
       </c>
@@ -2467,14 +2501,14 @@
         <v>81</v>
       </c>
       <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
+      <c r="G27" s="56"/>
       <c r="H27" s="32"/>
-      <c r="I27" s="38"/>
-      <c r="J27" s="39" t="s">
+      <c r="I27" s="67"/>
+      <c r="J27" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="K27" s="39" t="s">
-        <v>117</v>
+      <c r="K27" s="37" t="s">
+        <v>111</v>
       </c>
       <c r="L27" s="33"/>
       <c r="M27" s="33"/>
@@ -2488,385 +2522,385 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:20" s="55" customFormat="1" ht="135" x14ac:dyDescent="0.25">
-      <c r="A28" s="45">
+    <row r="28" spans="1:20" s="45" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="38">
         <v>162</v>
       </c>
-      <c r="B28" s="45" t="s">
+      <c r="B28" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="C28" s="45" t="s">
+      <c r="C28" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="D28" s="45" t="s">
+      <c r="D28" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="E28" s="46" t="s">
+      <c r="E28" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="F28" s="47">
-        <v>45265</v>
-      </c>
-      <c r="G28" s="48">
-        <v>45216.737500000003</v>
-      </c>
-      <c r="H28" s="50" t="s">
+      <c r="F28" s="40">
+        <v>45266</v>
+      </c>
+      <c r="G28" s="57" t="s">
+        <v>156</v>
+      </c>
+      <c r="H28" s="63" t="s">
+        <v>157</v>
+      </c>
+      <c r="I28" s="64" t="s">
+        <v>158</v>
+      </c>
+      <c r="J28" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="K28" s="41"/>
+      <c r="L28" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="M28" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="N28" s="46" t="s">
+        <v>113</v>
+      </c>
+      <c r="O28" s="41" t="s">
+        <v>98</v>
+      </c>
+      <c r="P28" s="48" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q28" s="41"/>
+      <c r="R28" s="43"/>
+      <c r="S28" s="44"/>
+      <c r="T28" s="41" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" s="45" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="38">
+        <v>163</v>
+      </c>
+      <c r="B29" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="D29" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="E29" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="F29" s="40">
+        <v>45266</v>
+      </c>
+      <c r="G29" s="57" t="s">
+        <v>159</v>
+      </c>
+      <c r="H29" s="63" t="s">
+        <v>162</v>
+      </c>
+      <c r="I29" s="64" t="s">
+        <v>163</v>
+      </c>
+      <c r="J29" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="K29" s="41"/>
+      <c r="L29" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="M29" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="N29" s="46" t="s">
+        <v>114</v>
+      </c>
+      <c r="O29" s="41" t="s">
+        <v>98</v>
+      </c>
+      <c r="P29" s="48" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q29" s="41"/>
+      <c r="R29" s="43"/>
+      <c r="S29" s="44"/>
+      <c r="T29" s="41" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" s="45" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="38">
+        <v>164</v>
+      </c>
+      <c r="B30" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="D30" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="E30" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="F30" s="40">
+        <v>45266</v>
+      </c>
+      <c r="G30" s="57" t="s">
+        <v>160</v>
+      </c>
+      <c r="H30" s="63" t="s">
+        <v>164</v>
+      </c>
+      <c r="I30" s="64" t="s">
+        <v>165</v>
+      </c>
+      <c r="J30" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="K30" s="41"/>
+      <c r="L30" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="M30" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="N30" s="46" t="s">
+        <v>116</v>
+      </c>
+      <c r="O30" s="41" t="s">
+        <v>98</v>
+      </c>
+      <c r="P30" s="48" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q30" s="41"/>
+      <c r="R30" s="43"/>
+      <c r="S30" s="44"/>
+      <c r="T30" s="41" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" s="45" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="38">
+        <v>165</v>
+      </c>
+      <c r="B31" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="D31" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="E31" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="F31" s="40">
+        <v>45266</v>
+      </c>
+      <c r="G31" s="57" t="s">
+        <v>161</v>
+      </c>
+      <c r="H31" s="63" t="s">
+        <v>166</v>
+      </c>
+      <c r="I31" s="68" t="s">
+        <v>167</v>
+      </c>
+      <c r="J31" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="K31" s="41"/>
+      <c r="L31" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="M31" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="N31" s="46" t="s">
+        <v>118</v>
+      </c>
+      <c r="O31" s="41" t="s">
+        <v>98</v>
+      </c>
+      <c r="P31" s="48" t="s">
         <v>119</v>
       </c>
-      <c r="I28" s="56" t="s">
+      <c r="Q31" s="41"/>
+      <c r="R31" s="43"/>
+      <c r="S31" s="44"/>
+      <c r="T31" s="41" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" s="45" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="38">
+        <v>166</v>
+      </c>
+      <c r="B32" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="D32" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E32" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="F32" s="40">
+        <v>45266</v>
+      </c>
+      <c r="G32" s="57" t="s">
+        <v>168</v>
+      </c>
+      <c r="H32" s="63" t="s">
+        <v>169</v>
+      </c>
+      <c r="I32" s="64" t="s">
+        <v>170</v>
+      </c>
+      <c r="J32" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="K32" s="41"/>
+      <c r="L32" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="M32" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="N32" s="46" t="s">
         <v>120</v>
       </c>
-      <c r="J28" s="51" t="s">
+      <c r="O32" s="41" t="s">
+        <v>98</v>
+      </c>
+      <c r="P32" s="48" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q32" s="41"/>
+      <c r="R32" s="43"/>
+      <c r="S32" s="44"/>
+      <c r="T32" s="41" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" s="45" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="38">
+        <v>167</v>
+      </c>
+      <c r="B33" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="D33" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="E33" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="F33" s="40">
+        <v>45266</v>
+      </c>
+      <c r="G33" s="57" t="s">
+        <v>171</v>
+      </c>
+      <c r="H33" s="63" t="s">
+        <v>172</v>
+      </c>
+      <c r="I33" s="64" t="s">
+        <v>173</v>
+      </c>
+      <c r="J33" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="K28" s="51"/>
-      <c r="L28" s="51" t="s">
+      <c r="K33" s="41"/>
+      <c r="L33" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="M28" s="51" t="s">
+      <c r="M33" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="N28" s="56" t="s">
-        <v>121</v>
-      </c>
-      <c r="O28" s="51" t="s">
+      <c r="N33" s="46" t="s">
+        <v>123</v>
+      </c>
+      <c r="O33" s="41" t="s">
         <v>98</v>
       </c>
-      <c r="P28" s="64" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q28" s="51"/>
-      <c r="R28" s="53"/>
-      <c r="S28" s="54"/>
-      <c r="T28" s="51" t="s">
+      <c r="P33" s="48" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q33" s="41"/>
+      <c r="R33" s="43"/>
+      <c r="S33" s="44"/>
+      <c r="T33" s="41" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:20" s="55" customFormat="1" ht="135" x14ac:dyDescent="0.25">
-      <c r="A29" s="45">
-        <v>163</v>
-      </c>
-      <c r="B29" s="45" t="s">
+    <row r="34" spans="1:20" s="45" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="38">
+        <v>168</v>
+      </c>
+      <c r="B34" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="C29" s="45" t="s">
+      <c r="C34" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="D29" s="45" t="s">
-        <v>84</v>
-      </c>
-      <c r="E29" s="46" t="s">
-        <v>85</v>
-      </c>
-      <c r="F29" s="47">
-        <v>45265</v>
-      </c>
-      <c r="G29" s="48">
-        <v>45217.377083333333</v>
-      </c>
-      <c r="H29" s="50" t="s">
-        <v>122</v>
-      </c>
-      <c r="I29" s="56" t="s">
-        <v>123</v>
-      </c>
-      <c r="J29" s="51" t="s">
+      <c r="D34" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="E34" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="F34" s="40">
+        <v>45266</v>
+      </c>
+      <c r="G34" s="57" t="s">
+        <v>147</v>
+      </c>
+      <c r="H34" s="63" t="s">
+        <v>174</v>
+      </c>
+      <c r="I34" s="64" t="s">
+        <v>175</v>
+      </c>
+      <c r="J34" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="K29" s="51"/>
-      <c r="L29" s="51" t="s">
+      <c r="K34" s="41"/>
+      <c r="L34" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="M29" s="51" t="s">
+      <c r="M34" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="N29" s="56" t="s">
-        <v>124</v>
-      </c>
-      <c r="O29" s="51" t="s">
+      <c r="N34" s="46" t="s">
+        <v>125</v>
+      </c>
+      <c r="O34" s="41" t="s">
         <v>98</v>
       </c>
-      <c r="P29" s="64" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q29" s="51"/>
-      <c r="R29" s="53"/>
-      <c r="S29" s="54"/>
-      <c r="T29" s="51" t="s">
+      <c r="P34" s="48" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q34" s="41"/>
+      <c r="R34" s="43"/>
+      <c r="S34" s="44"/>
+      <c r="T34" s="41" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:20" s="55" customFormat="1" ht="135" x14ac:dyDescent="0.25">
-      <c r="A30" s="45">
-        <v>164</v>
-      </c>
-      <c r="B30" s="45" t="s">
-        <v>22</v>
-      </c>
-      <c r="C30" s="45" t="s">
-        <v>48</v>
-      </c>
-      <c r="D30" s="45" t="s">
-        <v>86</v>
-      </c>
-      <c r="E30" s="46" t="s">
-        <v>87</v>
-      </c>
-      <c r="F30" s="47">
-        <v>45265</v>
-      </c>
-      <c r="G30" s="48">
-        <v>45217.393055555556</v>
-      </c>
-      <c r="H30" s="50" t="s">
-        <v>126</v>
-      </c>
-      <c r="I30" s="56" t="s">
-        <v>127</v>
-      </c>
-      <c r="J30" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="K30" s="51"/>
-      <c r="L30" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="M30" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="N30" s="56" t="s">
-        <v>128</v>
-      </c>
-      <c r="O30" s="51" t="s">
-        <v>98</v>
-      </c>
-      <c r="P30" s="64" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q30" s="51"/>
-      <c r="R30" s="53"/>
-      <c r="S30" s="54"/>
-      <c r="T30" s="51" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" s="55" customFormat="1" ht="255" x14ac:dyDescent="0.25">
-      <c r="A31" s="45">
-        <v>165</v>
-      </c>
-      <c r="B31" s="45" t="s">
-        <v>22</v>
-      </c>
-      <c r="C31" s="45" t="s">
-        <v>48</v>
-      </c>
-      <c r="D31" s="45" t="s">
-        <v>88</v>
-      </c>
-      <c r="E31" s="46" t="s">
-        <v>89</v>
-      </c>
-      <c r="F31" s="47">
-        <v>45265</v>
-      </c>
-      <c r="G31" s="48">
-        <v>45218.370138888888</v>
-      </c>
-      <c r="H31" s="50" t="s">
-        <v>130</v>
-      </c>
-      <c r="I31" s="56" t="s">
-        <v>131</v>
-      </c>
-      <c r="J31" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="K31" s="51"/>
-      <c r="L31" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="M31" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="N31" s="56" t="s">
-        <v>132</v>
-      </c>
-      <c r="O31" s="51" t="s">
-        <v>98</v>
-      </c>
-      <c r="P31" s="64" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q31" s="51"/>
-      <c r="R31" s="53"/>
-      <c r="S31" s="54"/>
-      <c r="T31" s="51" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" s="55" customFormat="1" ht="135" x14ac:dyDescent="0.25">
-      <c r="A32" s="45">
-        <v>166</v>
-      </c>
-      <c r="B32" s="45" t="s">
-        <v>22</v>
-      </c>
-      <c r="C32" s="45" t="s">
-        <v>48</v>
-      </c>
-      <c r="D32" s="45" t="s">
-        <v>90</v>
-      </c>
-      <c r="E32" s="46" t="s">
-        <v>91</v>
-      </c>
-      <c r="F32" s="47">
-        <v>45265</v>
-      </c>
-      <c r="G32" s="48">
-        <v>45218.375694444447</v>
-      </c>
-      <c r="H32" s="50" t="s">
-        <v>134</v>
-      </c>
-      <c r="I32" s="56" t="s">
-        <v>135</v>
-      </c>
-      <c r="J32" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="K32" s="51"/>
-      <c r="L32" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="M32" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="N32" s="56" t="s">
-        <v>136</v>
-      </c>
-      <c r="O32" s="51" t="s">
-        <v>98</v>
-      </c>
-      <c r="P32" s="64" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q32" s="51"/>
-      <c r="R32" s="53"/>
-      <c r="S32" s="54"/>
-      <c r="T32" s="51" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20" s="55" customFormat="1" ht="156" x14ac:dyDescent="0.25">
-      <c r="A33" s="45">
-        <v>167</v>
-      </c>
-      <c r="B33" s="45" t="s">
-        <v>22</v>
-      </c>
-      <c r="C33" s="45" t="s">
-        <v>48</v>
-      </c>
-      <c r="D33" s="45" t="s">
-        <v>92</v>
-      </c>
-      <c r="E33" s="46" t="s">
-        <v>93</v>
-      </c>
-      <c r="F33" s="47">
-        <v>45265</v>
-      </c>
-      <c r="G33" s="48">
-        <v>45218.384027777778</v>
-      </c>
-      <c r="H33" s="50" t="s">
-        <v>139</v>
-      </c>
-      <c r="I33" s="56" t="s">
-        <v>140</v>
-      </c>
-      <c r="J33" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="K33" s="51"/>
-      <c r="L33" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="M33" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="N33" s="56" t="s">
-        <v>141</v>
-      </c>
-      <c r="O33" s="51" t="s">
-        <v>98</v>
-      </c>
-      <c r="P33" s="64" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q33" s="51"/>
-      <c r="R33" s="53"/>
-      <c r="S33" s="54"/>
-      <c r="T33" s="51" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20" s="55" customFormat="1" ht="270" x14ac:dyDescent="0.25">
-      <c r="A34" s="45">
-        <v>168</v>
-      </c>
-      <c r="B34" s="45" t="s">
-        <v>22</v>
-      </c>
-      <c r="C34" s="45" t="s">
-        <v>48</v>
-      </c>
-      <c r="D34" s="45" t="s">
-        <v>94</v>
-      </c>
-      <c r="E34" s="46" t="s">
-        <v>95</v>
-      </c>
-      <c r="F34" s="47">
-        <v>45265</v>
-      </c>
-      <c r="G34" s="48">
-        <v>45218.393750000003</v>
-      </c>
-      <c r="H34" s="50" t="s">
-        <v>143</v>
-      </c>
-      <c r="I34" s="56" t="s">
-        <v>144</v>
-      </c>
-      <c r="J34" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="K34" s="51"/>
-      <c r="L34" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="M34" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="N34" s="56" t="s">
-        <v>145</v>
-      </c>
-      <c r="O34" s="51" t="s">
-        <v>98</v>
-      </c>
-      <c r="P34" s="64" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q34" s="51"/>
-      <c r="R34" s="53"/>
-      <c r="S34" s="54"/>
-      <c r="T34" s="51" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20" ht="135" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="30">
         <v>169</v>
       </c>
@@ -2883,14 +2917,14 @@
         <v>97</v>
       </c>
       <c r="F35" s="32"/>
-      <c r="G35" s="32"/>
+      <c r="G35" s="56"/>
       <c r="H35" s="32"/>
       <c r="I35" s="32"/>
       <c r="J35" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="K35" s="39" t="s">
-        <v>147</v>
+      <c r="K35" s="37" t="s">
+        <v>127</v>
       </c>
       <c r="L35" s="33"/>
       <c r="M35" s="33"/>
@@ -2911,7 +2945,7 @@
       <c r="D36" s="19"/>
       <c r="E36" s="19"/>
       <c r="F36" s="20"/>
-      <c r="G36" s="20"/>
+      <c r="G36" s="55"/>
       <c r="H36" s="21"/>
       <c r="I36" s="21"/>
       <c r="J36" s="22"/>
@@ -2933,7 +2967,7 @@
       <c r="D37" s="19"/>
       <c r="E37" s="19"/>
       <c r="F37" s="20"/>
-      <c r="G37" s="20"/>
+      <c r="G37" s="55"/>
       <c r="H37" s="21"/>
       <c r="I37" s="21"/>
       <c r="J37" s="22"/>
@@ -2955,7 +2989,7 @@
       <c r="D38" s="19"/>
       <c r="E38" s="19"/>
       <c r="F38" s="20"/>
-      <c r="G38" s="20"/>
+      <c r="G38" s="55"/>
       <c r="H38" s="21"/>
       <c r="I38" s="21"/>
       <c r="J38" s="22"/>
@@ -2977,7 +3011,7 @@
       <c r="D39" s="19"/>
       <c r="E39" s="19"/>
       <c r="F39" s="20"/>
-      <c r="G39" s="20"/>
+      <c r="G39" s="55"/>
       <c r="H39" s="21"/>
       <c r="I39" s="21"/>
       <c r="J39" s="22"/>
@@ -2999,7 +3033,7 @@
       <c r="D40" s="19"/>
       <c r="E40" s="19"/>
       <c r="F40" s="20"/>
-      <c r="G40" s="20"/>
+      <c r="G40" s="55"/>
       <c r="H40" s="21"/>
       <c r="I40" s="21"/>
       <c r="J40" s="22"/>
@@ -3021,7 +3055,7 @@
       <c r="D41" s="19"/>
       <c r="E41" s="19"/>
       <c r="F41" s="20"/>
-      <c r="G41" s="20"/>
+      <c r="G41" s="55"/>
       <c r="H41" s="21"/>
       <c r="I41" s="21"/>
       <c r="J41" s="22"/>
@@ -3043,7 +3077,7 @@
       <c r="D42" s="19"/>
       <c r="E42" s="19"/>
       <c r="F42" s="20"/>
-      <c r="G42" s="20"/>
+      <c r="G42" s="55"/>
       <c r="H42" s="21"/>
       <c r="I42" s="21"/>
       <c r="J42" s="22"/>
@@ -3065,7 +3099,7 @@
       <c r="D43" s="19"/>
       <c r="E43" s="19"/>
       <c r="F43" s="20"/>
-      <c r="G43" s="20"/>
+      <c r="G43" s="55"/>
       <c r="H43" s="21"/>
       <c r="I43" s="21"/>
       <c r="J43" s="22"/>
@@ -3087,7 +3121,7 @@
       <c r="D44" s="19"/>
       <c r="E44" s="19"/>
       <c r="F44" s="20"/>
-      <c r="G44" s="20"/>
+      <c r="G44" s="55"/>
       <c r="H44" s="21"/>
       <c r="I44" s="21"/>
       <c r="J44" s="22"/>
@@ -3109,7 +3143,7 @@
       <c r="D45" s="19"/>
       <c r="E45" s="19"/>
       <c r="F45" s="20"/>
-      <c r="G45" s="20"/>
+      <c r="G45" s="55"/>
       <c r="H45" s="21"/>
       <c r="I45" s="21"/>
       <c r="J45" s="22"/>
@@ -3131,7 +3165,7 @@
       <c r="D46" s="19"/>
       <c r="E46" s="19"/>
       <c r="F46" s="20"/>
-      <c r="G46" s="20"/>
+      <c r="G46" s="55"/>
       <c r="H46" s="21"/>
       <c r="I46" s="21"/>
       <c r="J46" s="22"/>
@@ -3153,7 +3187,7 @@
       <c r="D47" s="19"/>
       <c r="E47" s="19"/>
       <c r="F47" s="20"/>
-      <c r="G47" s="20"/>
+      <c r="G47" s="55"/>
       <c r="H47" s="21"/>
       <c r="I47" s="21"/>
       <c r="J47" s="22"/>
@@ -3175,7 +3209,7 @@
       <c r="D48" s="19"/>
       <c r="E48" s="19"/>
       <c r="F48" s="20"/>
-      <c r="G48" s="20"/>
+      <c r="G48" s="55"/>
       <c r="H48" s="21"/>
       <c r="I48" s="21"/>
       <c r="J48" s="22"/>
@@ -3197,7 +3231,7 @@
       <c r="D49" s="19"/>
       <c r="E49" s="19"/>
       <c r="F49" s="20"/>
-      <c r="G49" s="20"/>
+      <c r="G49" s="55"/>
       <c r="H49" s="21"/>
       <c r="I49" s="21"/>
       <c r="J49" s="22"/>
@@ -3219,7 +3253,7 @@
       <c r="D50" s="19"/>
       <c r="E50" s="19"/>
       <c r="F50" s="20"/>
-      <c r="G50" s="20"/>
+      <c r="G50" s="55"/>
       <c r="H50" s="21"/>
       <c r="I50" s="21"/>
       <c r="J50" s="22"/>
@@ -3241,7 +3275,7 @@
       <c r="D51" s="19"/>
       <c r="E51" s="19"/>
       <c r="F51" s="20"/>
-      <c r="G51" s="20"/>
+      <c r="G51" s="55"/>
       <c r="H51" s="21"/>
       <c r="I51" s="21"/>
       <c r="J51" s="22"/>
@@ -3263,7 +3297,7 @@
       <c r="D52" s="19"/>
       <c r="E52" s="19"/>
       <c r="F52" s="20"/>
-      <c r="G52" s="20"/>
+      <c r="G52" s="55"/>
       <c r="H52" s="21"/>
       <c r="I52" s="21"/>
       <c r="J52" s="22"/>
@@ -3285,7 +3319,7 @@
       <c r="D53" s="19"/>
       <c r="E53" s="19"/>
       <c r="F53" s="20"/>
-      <c r="G53" s="20"/>
+      <c r="G53" s="55"/>
       <c r="H53" s="21"/>
       <c r="I53" s="21"/>
       <c r="J53" s="22"/>
@@ -3307,7 +3341,7 @@
       <c r="D54" s="19"/>
       <c r="E54" s="19"/>
       <c r="F54" s="20"/>
-      <c r="G54" s="20"/>
+      <c r="G54" s="55"/>
       <c r="H54" s="21"/>
       <c r="I54" s="21"/>
       <c r="J54" s="22"/>
@@ -3329,7 +3363,7 @@
       <c r="D55" s="19"/>
       <c r="E55" s="19"/>
       <c r="F55" s="20"/>
-      <c r="G55" s="20"/>
+      <c r="G55" s="55"/>
       <c r="H55" s="21"/>
       <c r="I55" s="21"/>
       <c r="J55" s="22"/>
@@ -3351,7 +3385,7 @@
       <c r="D56" s="19"/>
       <c r="E56" s="19"/>
       <c r="F56" s="20"/>
-      <c r="G56" s="20"/>
+      <c r="G56" s="55"/>
       <c r="H56" s="21"/>
       <c r="I56" s="21"/>
       <c r="J56" s="22"/>
@@ -3373,7 +3407,7 @@
       <c r="D57" s="19"/>
       <c r="E57" s="19"/>
       <c r="F57" s="20"/>
-      <c r="G57" s="20"/>
+      <c r="G57" s="55"/>
       <c r="H57" s="21"/>
       <c r="I57" s="21"/>
       <c r="J57" s="22"/>
@@ -3395,7 +3429,7 @@
       <c r="D58" s="19"/>
       <c r="E58" s="19"/>
       <c r="F58" s="20"/>
-      <c r="G58" s="20"/>
+      <c r="G58" s="55"/>
       <c r="H58" s="21"/>
       <c r="I58" s="21"/>
       <c r="J58" s="22"/>
@@ -3417,7 +3451,7 @@
       <c r="D59" s="19"/>
       <c r="E59" s="19"/>
       <c r="F59" s="20"/>
-      <c r="G59" s="20"/>
+      <c r="G59" s="55"/>
       <c r="H59" s="21"/>
       <c r="I59" s="21"/>
       <c r="J59" s="22"/>
@@ -3439,7 +3473,7 @@
       <c r="D60" s="19"/>
       <c r="E60" s="19"/>
       <c r="F60" s="20"/>
-      <c r="G60" s="20"/>
+      <c r="G60" s="55"/>
       <c r="H60" s="21"/>
       <c r="I60" s="21"/>
       <c r="J60" s="22"/>
@@ -3461,7 +3495,7 @@
       <c r="D61" s="19"/>
       <c r="E61" s="19"/>
       <c r="F61" s="20"/>
-      <c r="G61" s="20"/>
+      <c r="G61" s="55"/>
       <c r="H61" s="21"/>
       <c r="I61" s="21"/>
       <c r="J61" s="22"/>
@@ -3483,7 +3517,7 @@
       <c r="D62" s="19"/>
       <c r="E62" s="19"/>
       <c r="F62" s="20"/>
-      <c r="G62" s="20"/>
+      <c r="G62" s="55"/>
       <c r="H62" s="21"/>
       <c r="I62" s="21"/>
       <c r="J62" s="22"/>
@@ -3505,7 +3539,7 @@
       <c r="D63" s="19"/>
       <c r="E63" s="19"/>
       <c r="F63" s="20"/>
-      <c r="G63" s="20"/>
+      <c r="G63" s="55"/>
       <c r="H63" s="21"/>
       <c r="I63" s="21"/>
       <c r="J63" s="22"/>
@@ -3527,7 +3561,7 @@
       <c r="D64" s="19"/>
       <c r="E64" s="19"/>
       <c r="F64" s="20"/>
-      <c r="G64" s="20"/>
+      <c r="G64" s="55"/>
       <c r="H64" s="21"/>
       <c r="I64" s="21"/>
       <c r="J64" s="22"/>
@@ -3549,7 +3583,7 @@
       <c r="D65" s="19"/>
       <c r="E65" s="19"/>
       <c r="F65" s="20"/>
-      <c r="G65" s="20"/>
+      <c r="G65" s="55"/>
       <c r="H65" s="21"/>
       <c r="I65" s="21"/>
       <c r="J65" s="22"/>
@@ -3571,7 +3605,7 @@
       <c r="D66" s="19"/>
       <c r="E66" s="19"/>
       <c r="F66" s="20"/>
-      <c r="G66" s="20"/>
+      <c r="G66" s="55"/>
       <c r="H66" s="21"/>
       <c r="I66" s="21"/>
       <c r="J66" s="22"/>
@@ -3593,7 +3627,7 @@
       <c r="D67" s="19"/>
       <c r="E67" s="19"/>
       <c r="F67" s="20"/>
-      <c r="G67" s="20"/>
+      <c r="G67" s="55"/>
       <c r="H67" s="21"/>
       <c r="I67" s="21"/>
       <c r="J67" s="22"/>
@@ -3615,7 +3649,7 @@
       <c r="D68" s="19"/>
       <c r="E68" s="19"/>
       <c r="F68" s="20"/>
-      <c r="G68" s="20"/>
+      <c r="G68" s="55"/>
       <c r="H68" s="21"/>
       <c r="I68" s="21"/>
       <c r="J68" s="22"/>
@@ -3637,7 +3671,7 @@
       <c r="D69" s="19"/>
       <c r="E69" s="19"/>
       <c r="F69" s="20"/>
-      <c r="G69" s="20"/>
+      <c r="G69" s="55"/>
       <c r="H69" s="21"/>
       <c r="I69" s="21"/>
       <c r="J69" s="22"/>
@@ -3659,7 +3693,7 @@
       <c r="D70" s="19"/>
       <c r="E70" s="19"/>
       <c r="F70" s="20"/>
-      <c r="G70" s="20"/>
+      <c r="G70" s="55"/>
       <c r="H70" s="21"/>
       <c r="I70" s="21"/>
       <c r="J70" s="22"/>
@@ -3681,7 +3715,7 @@
       <c r="D71" s="19"/>
       <c r="E71" s="19"/>
       <c r="F71" s="20"/>
-      <c r="G71" s="20"/>
+      <c r="G71" s="55"/>
       <c r="H71" s="21"/>
       <c r="I71" s="21"/>
       <c r="J71" s="22"/>
@@ -3703,7 +3737,7 @@
       <c r="D72" s="19"/>
       <c r="E72" s="19"/>
       <c r="F72" s="20"/>
-      <c r="G72" s="20"/>
+      <c r="G72" s="55"/>
       <c r="H72" s="21"/>
       <c r="I72" s="21"/>
       <c r="J72" s="22"/>
@@ -3725,7 +3759,7 @@
       <c r="D73" s="19"/>
       <c r="E73" s="19"/>
       <c r="F73" s="20"/>
-      <c r="G73" s="20"/>
+      <c r="G73" s="55"/>
       <c r="H73" s="21"/>
       <c r="I73" s="21"/>
       <c r="J73" s="22"/>
@@ -3747,7 +3781,7 @@
       <c r="D74" s="19"/>
       <c r="E74" s="19"/>
       <c r="F74" s="20"/>
-      <c r="G74" s="20"/>
+      <c r="G74" s="55"/>
       <c r="H74" s="21"/>
       <c r="I74" s="21"/>
       <c r="J74" s="22"/>
@@ -3769,7 +3803,7 @@
       <c r="D75" s="19"/>
       <c r="E75" s="19"/>
       <c r="F75" s="20"/>
-      <c r="G75" s="20"/>
+      <c r="G75" s="55"/>
       <c r="H75" s="21"/>
       <c r="I75" s="21"/>
       <c r="J75" s="22"/>
@@ -3791,7 +3825,7 @@
       <c r="D76" s="19"/>
       <c r="E76" s="19"/>
       <c r="F76" s="20"/>
-      <c r="G76" s="20"/>
+      <c r="G76" s="55"/>
       <c r="H76" s="21"/>
       <c r="I76" s="21"/>
       <c r="J76" s="22"/>
@@ -3813,7 +3847,7 @@
       <c r="D77" s="19"/>
       <c r="E77" s="19"/>
       <c r="F77" s="20"/>
-      <c r="G77" s="20"/>
+      <c r="G77" s="55"/>
       <c r="H77" s="21"/>
       <c r="I77" s="21"/>
       <c r="J77" s="22"/>
@@ -3835,7 +3869,7 @@
       <c r="D78" s="19"/>
       <c r="E78" s="19"/>
       <c r="F78" s="20"/>
-      <c r="G78" s="20"/>
+      <c r="G78" s="55"/>
       <c r="H78" s="21"/>
       <c r="I78" s="21"/>
       <c r="J78" s="22"/>
@@ -3857,7 +3891,7 @@
       <c r="D79" s="19"/>
       <c r="E79" s="19"/>
       <c r="F79" s="20"/>
-      <c r="G79" s="20"/>
+      <c r="G79" s="55"/>
       <c r="H79" s="21"/>
       <c r="I79" s="21"/>
       <c r="J79" s="22"/>
@@ -3879,7 +3913,7 @@
       <c r="D80" s="19"/>
       <c r="E80" s="19"/>
       <c r="F80" s="20"/>
-      <c r="G80" s="20"/>
+      <c r="G80" s="55"/>
       <c r="H80" s="21"/>
       <c r="I80" s="21"/>
       <c r="J80" s="22"/>
@@ -3901,7 +3935,7 @@
       <c r="D81" s="19"/>
       <c r="E81" s="19"/>
       <c r="F81" s="20"/>
-      <c r="G81" s="20"/>
+      <c r="G81" s="55"/>
       <c r="H81" s="21"/>
       <c r="I81" s="21"/>
       <c r="J81" s="22"/>
@@ -3923,7 +3957,7 @@
       <c r="D82" s="19"/>
       <c r="E82" s="19"/>
       <c r="F82" s="20"/>
-      <c r="G82" s="20"/>
+      <c r="G82" s="55"/>
       <c r="H82" s="21"/>
       <c r="I82" s="21"/>
       <c r="J82" s="22"/>
@@ -3945,7 +3979,7 @@
       <c r="D83" s="19"/>
       <c r="E83" s="19"/>
       <c r="F83" s="20"/>
-      <c r="G83" s="20"/>
+      <c r="G83" s="55"/>
       <c r="H83" s="21"/>
       <c r="I83" s="21"/>
       <c r="J83" s="22"/>
@@ -3967,7 +4001,7 @@
       <c r="D84" s="19"/>
       <c r="E84" s="19"/>
       <c r="F84" s="20"/>
-      <c r="G84" s="20"/>
+      <c r="G84" s="55"/>
       <c r="H84" s="21"/>
       <c r="I84" s="21"/>
       <c r="J84" s="22"/>
@@ -3989,7 +4023,7 @@
       <c r="D85" s="19"/>
       <c r="E85" s="19"/>
       <c r="F85" s="20"/>
-      <c r="G85" s="20"/>
+      <c r="G85" s="55"/>
       <c r="H85" s="21"/>
       <c r="I85" s="21"/>
       <c r="J85" s="22"/>
@@ -4011,7 +4045,7 @@
       <c r="D86" s="19"/>
       <c r="E86" s="19"/>
       <c r="F86" s="20"/>
-      <c r="G86" s="20"/>
+      <c r="G86" s="55"/>
       <c r="H86" s="21"/>
       <c r="I86" s="21"/>
       <c r="J86" s="22"/>
@@ -4033,7 +4067,7 @@
       <c r="D87" s="19"/>
       <c r="E87" s="19"/>
       <c r="F87" s="20"/>
-      <c r="G87" s="20"/>
+      <c r="G87" s="55"/>
       <c r="H87" s="21"/>
       <c r="I87" s="21"/>
       <c r="J87" s="22"/>
@@ -4055,7 +4089,7 @@
       <c r="D88" s="19"/>
       <c r="E88" s="19"/>
       <c r="F88" s="20"/>
-      <c r="G88" s="20"/>
+      <c r="G88" s="55"/>
       <c r="H88" s="21"/>
       <c r="I88" s="21"/>
       <c r="J88" s="22"/>
@@ -4077,7 +4111,7 @@
       <c r="D89" s="19"/>
       <c r="E89" s="19"/>
       <c r="F89" s="20"/>
-      <c r="G89" s="20"/>
+      <c r="G89" s="55"/>
       <c r="H89" s="21"/>
       <c r="I89" s="21"/>
       <c r="J89" s="22"/>
@@ -4099,7 +4133,7 @@
       <c r="D90" s="19"/>
       <c r="E90" s="19"/>
       <c r="F90" s="20"/>
-      <c r="G90" s="20"/>
+      <c r="G90" s="55"/>
       <c r="H90" s="21"/>
       <c r="I90" s="21"/>
       <c r="J90" s="22"/>
@@ -4121,7 +4155,7 @@
       <c r="D91" s="19"/>
       <c r="E91" s="19"/>
       <c r="F91" s="20"/>
-      <c r="G91" s="20"/>
+      <c r="G91" s="55"/>
       <c r="H91" s="21"/>
       <c r="I91" s="21"/>
       <c r="J91" s="22"/>
@@ -4143,7 +4177,7 @@
       <c r="D92" s="19"/>
       <c r="E92" s="19"/>
       <c r="F92" s="20"/>
-      <c r="G92" s="20"/>
+      <c r="G92" s="55"/>
       <c r="H92" s="21"/>
       <c r="I92" s="21"/>
       <c r="J92" s="22"/>
@@ -4165,7 +4199,7 @@
       <c r="D93" s="19"/>
       <c r="E93" s="19"/>
       <c r="F93" s="20"/>
-      <c r="G93" s="20"/>
+      <c r="G93" s="55"/>
       <c r="H93" s="21"/>
       <c r="I93" s="21"/>
       <c r="J93" s="22"/>
@@ -4187,7 +4221,7 @@
       <c r="D94" s="19"/>
       <c r="E94" s="19"/>
       <c r="F94" s="20"/>
-      <c r="G94" s="20"/>
+      <c r="G94" s="55"/>
       <c r="H94" s="21"/>
       <c r="I94" s="21"/>
       <c r="J94" s="22"/>
@@ -4209,7 +4243,7 @@
       <c r="D95" s="19"/>
       <c r="E95" s="19"/>
       <c r="F95" s="20"/>
-      <c r="G95" s="20"/>
+      <c r="G95" s="55"/>
       <c r="H95" s="21"/>
       <c r="I95" s="21"/>
       <c r="J95" s="22"/>
@@ -4231,7 +4265,7 @@
       <c r="D96" s="19"/>
       <c r="E96" s="19"/>
       <c r="F96" s="20"/>
-      <c r="G96" s="20"/>
+      <c r="G96" s="55"/>
       <c r="H96" s="21"/>
       <c r="I96" s="21"/>
       <c r="J96" s="22"/>
@@ -4253,7 +4287,7 @@
       <c r="D97" s="19"/>
       <c r="E97" s="19"/>
       <c r="F97" s="20"/>
-      <c r="G97" s="20"/>
+      <c r="G97" s="55"/>
       <c r="H97" s="21"/>
       <c r="I97" s="21"/>
       <c r="J97" s="22"/>
@@ -4275,7 +4309,7 @@
       <c r="D98" s="19"/>
       <c r="E98" s="19"/>
       <c r="F98" s="20"/>
-      <c r="G98" s="20"/>
+      <c r="G98" s="55"/>
       <c r="H98" s="21"/>
       <c r="I98" s="21"/>
       <c r="J98" s="22"/>
@@ -4297,7 +4331,7 @@
       <c r="D99" s="19"/>
       <c r="E99" s="19"/>
       <c r="F99" s="20"/>
-      <c r="G99" s="20"/>
+      <c r="G99" s="55"/>
       <c r="H99" s="21"/>
       <c r="I99" s="21"/>
       <c r="J99" s="22"/>
@@ -4319,7 +4353,7 @@
       <c r="D100" s="19"/>
       <c r="E100" s="19"/>
       <c r="F100" s="20"/>
-      <c r="G100" s="20"/>
+      <c r="G100" s="55"/>
       <c r="H100" s="21"/>
       <c r="I100" s="21"/>
       <c r="J100" s="22"/>
@@ -4341,7 +4375,7 @@
       <c r="D101" s="19"/>
       <c r="E101" s="19"/>
       <c r="F101" s="20"/>
-      <c r="G101" s="20"/>
+      <c r="G101" s="55"/>
       <c r="H101" s="21"/>
       <c r="I101" s="21"/>
       <c r="J101" s="22"/>
@@ -4363,7 +4397,7 @@
       <c r="D102" s="19"/>
       <c r="E102" s="19"/>
       <c r="F102" s="20"/>
-      <c r="G102" s="20"/>
+      <c r="G102" s="55"/>
       <c r="H102" s="21"/>
       <c r="I102" s="21"/>
       <c r="J102" s="22"/>
@@ -4385,7 +4419,7 @@
       <c r="D103" s="19"/>
       <c r="E103" s="19"/>
       <c r="F103" s="20"/>
-      <c r="G103" s="20"/>
+      <c r="G103" s="55"/>
       <c r="H103" s="21"/>
       <c r="I103" s="21"/>
       <c r="J103" s="22"/>
@@ -4407,7 +4441,7 @@
       <c r="D104" s="19"/>
       <c r="E104" s="19"/>
       <c r="F104" s="20"/>
-      <c r="G104" s="20"/>
+      <c r="G104" s="55"/>
       <c r="H104" s="21"/>
       <c r="I104" s="21"/>
       <c r="J104" s="22"/>
@@ -4429,7 +4463,7 @@
       <c r="D105" s="19"/>
       <c r="E105" s="19"/>
       <c r="F105" s="20"/>
-      <c r="G105" s="20"/>
+      <c r="G105" s="55"/>
       <c r="H105" s="21"/>
       <c r="I105" s="21"/>
       <c r="J105" s="22"/>
@@ -4451,7 +4485,7 @@
       <c r="D106" s="19"/>
       <c r="E106" s="19"/>
       <c r="F106" s="20"/>
-      <c r="G106" s="20"/>
+      <c r="G106" s="55"/>
       <c r="H106" s="21"/>
       <c r="I106" s="21"/>
       <c r="J106" s="22"/>
@@ -4473,7 +4507,7 @@
       <c r="D107" s="19"/>
       <c r="E107" s="19"/>
       <c r="F107" s="20"/>
-      <c r="G107" s="20"/>
+      <c r="G107" s="55"/>
       <c r="H107" s="21"/>
       <c r="I107" s="21"/>
       <c r="J107" s="22"/>
@@ -4495,7 +4529,7 @@
       <c r="D108" s="19"/>
       <c r="E108" s="19"/>
       <c r="F108" s="20"/>
-      <c r="G108" s="20"/>
+      <c r="G108" s="55"/>
       <c r="H108" s="21"/>
       <c r="I108" s="21"/>
       <c r="J108" s="22"/>
@@ -4517,7 +4551,7 @@
       <c r="D109" s="19"/>
       <c r="E109" s="19"/>
       <c r="F109" s="20"/>
-      <c r="G109" s="20"/>
+      <c r="G109" s="55"/>
       <c r="H109" s="21"/>
       <c r="I109" s="21"/>
       <c r="J109" s="22"/>
@@ -4539,7 +4573,7 @@
       <c r="D110" s="19"/>
       <c r="E110" s="19"/>
       <c r="F110" s="20"/>
-      <c r="G110" s="20"/>
+      <c r="G110" s="55"/>
       <c r="H110" s="21"/>
       <c r="I110" s="21"/>
       <c r="J110" s="22"/>
@@ -4561,7 +4595,7 @@
       <c r="D111" s="19"/>
       <c r="E111" s="19"/>
       <c r="F111" s="20"/>
-      <c r="G111" s="20"/>
+      <c r="G111" s="55"/>
       <c r="H111" s="21"/>
       <c r="I111" s="21"/>
       <c r="J111" s="22"/>
@@ -4583,7 +4617,7 @@
       <c r="D112" s="19"/>
       <c r="E112" s="19"/>
       <c r="F112" s="20"/>
-      <c r="G112" s="20"/>
+      <c r="G112" s="55"/>
       <c r="H112" s="21"/>
       <c r="I112" s="21"/>
       <c r="J112" s="22"/>
@@ -4605,7 +4639,7 @@
       <c r="D113" s="19"/>
       <c r="E113" s="19"/>
       <c r="F113" s="20"/>
-      <c r="G113" s="20"/>
+      <c r="G113" s="55"/>
       <c r="H113" s="21"/>
       <c r="I113" s="21"/>
       <c r="J113" s="22"/>
@@ -4627,7 +4661,7 @@
       <c r="D114" s="19"/>
       <c r="E114" s="19"/>
       <c r="F114" s="20"/>
-      <c r="G114" s="20"/>
+      <c r="G114" s="55"/>
       <c r="H114" s="21"/>
       <c r="I114" s="21"/>
       <c r="J114" s="22"/>
@@ -4649,7 +4683,7 @@
       <c r="D115" s="19"/>
       <c r="E115" s="19"/>
       <c r="F115" s="20"/>
-      <c r="G115" s="20"/>
+      <c r="G115" s="55"/>
       <c r="H115" s="21"/>
       <c r="I115" s="21"/>
       <c r="J115" s="22"/>
@@ -4671,7 +4705,7 @@
       <c r="D116" s="19"/>
       <c r="E116" s="19"/>
       <c r="F116" s="20"/>
-      <c r="G116" s="20"/>
+      <c r="G116" s="55"/>
       <c r="H116" s="21"/>
       <c r="I116" s="21"/>
       <c r="J116" s="22"/>
@@ -4693,7 +4727,7 @@
       <c r="D117" s="19"/>
       <c r="E117" s="19"/>
       <c r="F117" s="20"/>
-      <c r="G117" s="20"/>
+      <c r="G117" s="55"/>
       <c r="H117" s="21"/>
       <c r="I117" s="21"/>
       <c r="J117" s="22"/>
@@ -4715,7 +4749,7 @@
       <c r="D118" s="19"/>
       <c r="E118" s="19"/>
       <c r="F118" s="20"/>
-      <c r="G118" s="20"/>
+      <c r="G118" s="55"/>
       <c r="H118" s="21"/>
       <c r="I118" s="21"/>
       <c r="J118" s="22"/>
@@ -4737,7 +4771,7 @@
       <c r="D119" s="19"/>
       <c r="E119" s="19"/>
       <c r="F119" s="20"/>
-      <c r="G119" s="20"/>
+      <c r="G119" s="55"/>
       <c r="H119" s="21"/>
       <c r="I119" s="21"/>
       <c r="J119" s="22"/>
@@ -4759,7 +4793,7 @@
       <c r="D120" s="19"/>
       <c r="E120" s="19"/>
       <c r="F120" s="20"/>
-      <c r="G120" s="20"/>
+      <c r="G120" s="55"/>
       <c r="H120" s="21"/>
       <c r="I120" s="21"/>
       <c r="J120" s="22"/>
@@ -4781,7 +4815,7 @@
       <c r="D121" s="19"/>
       <c r="E121" s="19"/>
       <c r="F121" s="20"/>
-      <c r="G121" s="20"/>
+      <c r="G121" s="55"/>
       <c r="H121" s="21"/>
       <c r="I121" s="21"/>
       <c r="J121" s="22"/>
@@ -4803,7 +4837,7 @@
       <c r="D122" s="19"/>
       <c r="E122" s="19"/>
       <c r="F122" s="20"/>
-      <c r="G122" s="20"/>
+      <c r="G122" s="55"/>
       <c r="H122" s="21"/>
       <c r="I122" s="21"/>
       <c r="J122" s="22"/>
@@ -4825,7 +4859,7 @@
       <c r="D123" s="19"/>
       <c r="E123" s="19"/>
       <c r="F123" s="20"/>
-      <c r="G123" s="20"/>
+      <c r="G123" s="55"/>
       <c r="H123" s="21"/>
       <c r="I123" s="21"/>
       <c r="J123" s="22"/>
@@ -4847,7 +4881,7 @@
       <c r="D124" s="19"/>
       <c r="E124" s="19"/>
       <c r="F124" s="20"/>
-      <c r="G124" s="20"/>
+      <c r="G124" s="55"/>
       <c r="H124" s="21"/>
       <c r="I124" s="21"/>
       <c r="J124" s="22"/>
@@ -4869,7 +4903,7 @@
       <c r="D125" s="19"/>
       <c r="E125" s="19"/>
       <c r="F125" s="20"/>
-      <c r="G125" s="20"/>
+      <c r="G125" s="55"/>
       <c r="H125" s="21"/>
       <c r="I125" s="21"/>
       <c r="J125" s="22"/>
@@ -4891,7 +4925,7 @@
       <c r="D126" s="19"/>
       <c r="E126" s="19"/>
       <c r="F126" s="20"/>
-      <c r="G126" s="20"/>
+      <c r="G126" s="55"/>
       <c r="H126" s="21"/>
       <c r="I126" s="21"/>
       <c r="J126" s="22"/>
@@ -4913,7 +4947,7 @@
       <c r="D127" s="19"/>
       <c r="E127" s="19"/>
       <c r="F127" s="20"/>
-      <c r="G127" s="20"/>
+      <c r="G127" s="55"/>
       <c r="H127" s="21"/>
       <c r="I127" s="21"/>
       <c r="J127" s="22"/>
@@ -4935,7 +4969,7 @@
       <c r="D128" s="19"/>
       <c r="E128" s="19"/>
       <c r="F128" s="20"/>
-      <c r="G128" s="20"/>
+      <c r="G128" s="55"/>
       <c r="H128" s="21"/>
       <c r="I128" s="21"/>
       <c r="J128" s="22"/>
@@ -4957,7 +4991,7 @@
       <c r="D129" s="19"/>
       <c r="E129" s="19"/>
       <c r="F129" s="20"/>
-      <c r="G129" s="20"/>
+      <c r="G129" s="55"/>
       <c r="H129" s="21"/>
       <c r="I129" s="21"/>
       <c r="J129" s="22"/>
@@ -4979,7 +5013,7 @@
       <c r="D130" s="19"/>
       <c r="E130" s="19"/>
       <c r="F130" s="20"/>
-      <c r="G130" s="20"/>
+      <c r="G130" s="55"/>
       <c r="H130" s="21"/>
       <c r="I130" s="21"/>
       <c r="J130" s="22"/>
@@ -5001,7 +5035,7 @@
       <c r="D131" s="19"/>
       <c r="E131" s="19"/>
       <c r="F131" s="20"/>
-      <c r="G131" s="20"/>
+      <c r="G131" s="55"/>
       <c r="H131" s="21"/>
       <c r="I131" s="21"/>
       <c r="J131" s="22"/>
@@ -5023,7 +5057,7 @@
       <c r="D132" s="19"/>
       <c r="E132" s="19"/>
       <c r="F132" s="20"/>
-      <c r="G132" s="20"/>
+      <c r="G132" s="55"/>
       <c r="H132" s="21"/>
       <c r="I132" s="21"/>
       <c r="J132" s="22"/>
@@ -5045,7 +5079,7 @@
       <c r="D133" s="19"/>
       <c r="E133" s="19"/>
       <c r="F133" s="20"/>
-      <c r="G133" s="20"/>
+      <c r="G133" s="55"/>
       <c r="H133" s="21"/>
       <c r="I133" s="21"/>
       <c r="J133" s="22"/>
@@ -5067,7 +5101,7 @@
       <c r="D134" s="19"/>
       <c r="E134" s="19"/>
       <c r="F134" s="20"/>
-      <c r="G134" s="20"/>
+      <c r="G134" s="55"/>
       <c r="H134" s="21"/>
       <c r="I134" s="21"/>
       <c r="J134" s="22"/>
@@ -5089,7 +5123,7 @@
       <c r="D135" s="19"/>
       <c r="E135" s="19"/>
       <c r="F135" s="20"/>
-      <c r="G135" s="20"/>
+      <c r="G135" s="55"/>
       <c r="H135" s="21"/>
       <c r="I135" s="21"/>
       <c r="J135" s="22"/>
@@ -5111,7 +5145,7 @@
       <c r="D136" s="19"/>
       <c r="E136" s="19"/>
       <c r="F136" s="20"/>
-      <c r="G136" s="20"/>
+      <c r="G136" s="55"/>
       <c r="H136" s="21"/>
       <c r="I136" s="21"/>
       <c r="J136" s="22"/>
@@ -5133,7 +5167,7 @@
       <c r="D137" s="19"/>
       <c r="E137" s="19"/>
       <c r="F137" s="20"/>
-      <c r="G137" s="20"/>
+      <c r="G137" s="55"/>
       <c r="H137" s="21"/>
       <c r="I137" s="21"/>
       <c r="J137" s="22"/>
@@ -5155,7 +5189,7 @@
       <c r="D138" s="19"/>
       <c r="E138" s="19"/>
       <c r="F138" s="20"/>
-      <c r="G138" s="20"/>
+      <c r="G138" s="55"/>
       <c r="H138" s="21"/>
       <c r="I138" s="21"/>
       <c r="J138" s="22"/>
@@ -5177,7 +5211,7 @@
       <c r="D139" s="19"/>
       <c r="E139" s="19"/>
       <c r="F139" s="20"/>
-      <c r="G139" s="20"/>
+      <c r="G139" s="55"/>
       <c r="H139" s="21"/>
       <c r="I139" s="21"/>
       <c r="J139" s="22"/>
@@ -5199,7 +5233,7 @@
       <c r="D140" s="19"/>
       <c r="E140" s="19"/>
       <c r="F140" s="20"/>
-      <c r="G140" s="20"/>
+      <c r="G140" s="55"/>
       <c r="H140" s="21"/>
       <c r="I140" s="21"/>
       <c r="J140" s="22"/>
@@ -5221,7 +5255,7 @@
       <c r="D141" s="19"/>
       <c r="E141" s="19"/>
       <c r="F141" s="20"/>
-      <c r="G141" s="20"/>
+      <c r="G141" s="55"/>
       <c r="H141" s="21"/>
       <c r="I141" s="21"/>
       <c r="J141" s="22"/>
@@ -5243,7 +5277,7 @@
       <c r="D142" s="19"/>
       <c r="E142" s="19"/>
       <c r="F142" s="20"/>
-      <c r="G142" s="20"/>
+      <c r="G142" s="55"/>
       <c r="H142" s="21"/>
       <c r="I142" s="21"/>
       <c r="J142" s="22"/>
@@ -5265,7 +5299,7 @@
       <c r="D143" s="19"/>
       <c r="E143" s="19"/>
       <c r="F143" s="20"/>
-      <c r="G143" s="20"/>
+      <c r="G143" s="55"/>
       <c r="H143" s="21"/>
       <c r="I143" s="21"/>
       <c r="J143" s="22"/>
@@ -5287,7 +5321,7 @@
       <c r="D144" s="19"/>
       <c r="E144" s="19"/>
       <c r="F144" s="20"/>
-      <c r="G144" s="20"/>
+      <c r="G144" s="55"/>
       <c r="H144" s="21"/>
       <c r="I144" s="21"/>
       <c r="J144" s="22"/>
@@ -5309,7 +5343,7 @@
       <c r="D145" s="19"/>
       <c r="E145" s="19"/>
       <c r="F145" s="20"/>
-      <c r="G145" s="20"/>
+      <c r="G145" s="55"/>
       <c r="H145" s="21"/>
       <c r="I145" s="21"/>
       <c r="J145" s="22"/>
@@ -5331,7 +5365,7 @@
       <c r="D146" s="19"/>
       <c r="E146" s="19"/>
       <c r="F146" s="20"/>
-      <c r="G146" s="20"/>
+      <c r="G146" s="55"/>
       <c r="H146" s="21"/>
       <c r="I146" s="21"/>
       <c r="J146" s="22"/>
@@ -5353,7 +5387,7 @@
       <c r="D147" s="19"/>
       <c r="E147" s="19"/>
       <c r="F147" s="20"/>
-      <c r="G147" s="20"/>
+      <c r="G147" s="55"/>
       <c r="H147" s="21"/>
       <c r="I147" s="21"/>
       <c r="J147" s="22"/>
@@ -5375,7 +5409,7 @@
       <c r="D148" s="19"/>
       <c r="E148" s="19"/>
       <c r="F148" s="20"/>
-      <c r="G148" s="20"/>
+      <c r="G148" s="55"/>
       <c r="H148" s="21"/>
       <c r="I148" s="21"/>
       <c r="J148" s="22"/>
@@ -5397,7 +5431,7 @@
       <c r="D149" s="19"/>
       <c r="E149" s="19"/>
       <c r="F149" s="20"/>
-      <c r="G149" s="20"/>
+      <c r="G149" s="55"/>
       <c r="H149" s="21"/>
       <c r="I149" s="21"/>
       <c r="J149" s="22"/>
@@ -5419,7 +5453,7 @@
       <c r="D150" s="19"/>
       <c r="E150" s="19"/>
       <c r="F150" s="20"/>
-      <c r="G150" s="20"/>
+      <c r="G150" s="55"/>
       <c r="H150" s="21"/>
       <c r="I150" s="21"/>
       <c r="J150" s="22"/>
@@ -5441,7 +5475,7 @@
       <c r="D151" s="19"/>
       <c r="E151" s="19"/>
       <c r="F151" s="20"/>
-      <c r="G151" s="20"/>
+      <c r="G151" s="55"/>
       <c r="H151" s="21"/>
       <c r="I151" s="21"/>
       <c r="J151" s="22"/>
@@ -5463,7 +5497,7 @@
       <c r="D152" s="19"/>
       <c r="E152" s="19"/>
       <c r="F152" s="20"/>
-      <c r="G152" s="20"/>
+      <c r="G152" s="55"/>
       <c r="H152" s="21"/>
       <c r="I152" s="21"/>
       <c r="J152" s="22"/>
@@ -5485,7 +5519,7 @@
       <c r="D153" s="19"/>
       <c r="E153" s="19"/>
       <c r="F153" s="20"/>
-      <c r="G153" s="20"/>
+      <c r="G153" s="55"/>
       <c r="H153" s="21"/>
       <c r="I153" s="21"/>
       <c r="J153" s="22"/>
@@ -5507,7 +5541,7 @@
       <c r="D154" s="19"/>
       <c r="E154" s="19"/>
       <c r="F154" s="20"/>
-      <c r="G154" s="20"/>
+      <c r="G154" s="55"/>
       <c r="H154" s="21"/>
       <c r="I154" s="21"/>
       <c r="J154" s="22"/>
@@ -5529,7 +5563,7 @@
       <c r="D155" s="19"/>
       <c r="E155" s="19"/>
       <c r="F155" s="20"/>
-      <c r="G155" s="20"/>
+      <c r="G155" s="55"/>
       <c r="H155" s="21"/>
       <c r="I155" s="21"/>
       <c r="J155" s="22"/>
@@ -5551,7 +5585,7 @@
       <c r="D156" s="19"/>
       <c r="E156" s="19"/>
       <c r="F156" s="20"/>
-      <c r="G156" s="20"/>
+      <c r="G156" s="55"/>
       <c r="H156" s="21"/>
       <c r="I156" s="21"/>
       <c r="J156" s="22"/>
@@ -5573,7 +5607,7 @@
       <c r="D157" s="19"/>
       <c r="E157" s="19"/>
       <c r="F157" s="20"/>
-      <c r="G157" s="20"/>
+      <c r="G157" s="55"/>
       <c r="H157" s="21"/>
       <c r="I157" s="21"/>
       <c r="J157" s="22"/>
@@ -5595,7 +5629,7 @@
       <c r="D158" s="19"/>
       <c r="E158" s="19"/>
       <c r="F158" s="20"/>
-      <c r="G158" s="20"/>
+      <c r="G158" s="55"/>
       <c r="H158" s="21"/>
       <c r="I158" s="21"/>
       <c r="J158" s="22"/>
@@ -5617,7 +5651,7 @@
       <c r="D159" s="19"/>
       <c r="E159" s="19"/>
       <c r="F159" s="20"/>
-      <c r="G159" s="20"/>
+      <c r="G159" s="55"/>
       <c r="H159" s="21"/>
       <c r="I159" s="21"/>
       <c r="J159" s="22"/>
@@ -5639,7 +5673,7 @@
       <c r="D160" s="19"/>
       <c r="E160" s="19"/>
       <c r="F160" s="20"/>
-      <c r="G160" s="20"/>
+      <c r="G160" s="55"/>
       <c r="H160" s="21"/>
       <c r="I160" s="21"/>
       <c r="J160" s="22"/>
@@ -5661,7 +5695,7 @@
       <c r="D161" s="19"/>
       <c r="E161" s="19"/>
       <c r="F161" s="20"/>
-      <c r="G161" s="20"/>
+      <c r="G161" s="55"/>
       <c r="H161" s="21"/>
       <c r="I161" s="21"/>
       <c r="J161" s="22"/>
@@ -5683,7 +5717,7 @@
       <c r="D162" s="19"/>
       <c r="E162" s="19"/>
       <c r="F162" s="20"/>
-      <c r="G162" s="20"/>
+      <c r="G162" s="55"/>
       <c r="H162" s="21"/>
       <c r="I162" s="21"/>
       <c r="J162" s="22"/>
@@ -5705,7 +5739,7 @@
       <c r="D163" s="19"/>
       <c r="E163" s="19"/>
       <c r="F163" s="20"/>
-      <c r="G163" s="20"/>
+      <c r="G163" s="55"/>
       <c r="H163" s="21"/>
       <c r="I163" s="21"/>
       <c r="J163" s="22"/>
@@ -5727,7 +5761,7 @@
       <c r="D164" s="19"/>
       <c r="E164" s="19"/>
       <c r="F164" s="20"/>
-      <c r="G164" s="20"/>
+      <c r="G164" s="55"/>
       <c r="H164" s="21"/>
       <c r="I164" s="21"/>
       <c r="J164" s="22"/>
@@ -5749,7 +5783,7 @@
       <c r="D165" s="19"/>
       <c r="E165" s="19"/>
       <c r="F165" s="20"/>
-      <c r="G165" s="20"/>
+      <c r="G165" s="55"/>
       <c r="H165" s="21"/>
       <c r="I165" s="21"/>
       <c r="J165" s="22"/>
@@ -5771,7 +5805,7 @@
       <c r="D166" s="19"/>
       <c r="E166" s="19"/>
       <c r="F166" s="20"/>
-      <c r="G166" s="20"/>
+      <c r="G166" s="55"/>
       <c r="H166" s="21"/>
       <c r="I166" s="21"/>
       <c r="J166" s="22"/>
@@ -5793,7 +5827,7 @@
       <c r="D167" s="19"/>
       <c r="E167" s="19"/>
       <c r="F167" s="20"/>
-      <c r="G167" s="20"/>
+      <c r="G167" s="55"/>
       <c r="H167" s="21"/>
       <c r="I167" s="21"/>
       <c r="J167" s="22"/>
@@ -5815,7 +5849,7 @@
       <c r="D168" s="19"/>
       <c r="E168" s="19"/>
       <c r="F168" s="20"/>
-      <c r="G168" s="20"/>
+      <c r="G168" s="55"/>
       <c r="H168" s="21"/>
       <c r="I168" s="21"/>
       <c r="J168" s="22"/>
@@ -5837,7 +5871,7 @@
       <c r="D169" s="19"/>
       <c r="E169" s="19"/>
       <c r="F169" s="20"/>
-      <c r="G169" s="20"/>
+      <c r="G169" s="55"/>
       <c r="H169" s="21"/>
       <c r="I169" s="21"/>
       <c r="J169" s="22"/>
@@ -5859,7 +5893,7 @@
       <c r="D170" s="19"/>
       <c r="E170" s="19"/>
       <c r="F170" s="20"/>
-      <c r="G170" s="20"/>
+      <c r="G170" s="55"/>
       <c r="H170" s="21"/>
       <c r="I170" s="21"/>
       <c r="J170" s="22"/>
@@ -5881,7 +5915,7 @@
       <c r="D171" s="19"/>
       <c r="E171" s="19"/>
       <c r="F171" s="20"/>
-      <c r="G171" s="20"/>
+      <c r="G171" s="55"/>
       <c r="H171" s="21"/>
       <c r="I171" s="21"/>
       <c r="J171" s="22"/>
@@ -5903,7 +5937,7 @@
       <c r="D172" s="19"/>
       <c r="E172" s="19"/>
       <c r="F172" s="20"/>
-      <c r="G172" s="20"/>
+      <c r="G172" s="55"/>
       <c r="H172" s="21"/>
       <c r="I172" s="21"/>
       <c r="J172" s="22"/>
@@ -5925,7 +5959,7 @@
       <c r="D173" s="19"/>
       <c r="E173" s="19"/>
       <c r="F173" s="20"/>
-      <c r="G173" s="20"/>
+      <c r="G173" s="55"/>
       <c r="H173" s="21"/>
       <c r="I173" s="21"/>
       <c r="J173" s="22"/>
@@ -5947,7 +5981,7 @@
       <c r="D174" s="19"/>
       <c r="E174" s="19"/>
       <c r="F174" s="20"/>
-      <c r="G174" s="20"/>
+      <c r="G174" s="55"/>
       <c r="H174" s="21"/>
       <c r="I174" s="21"/>
       <c r="J174" s="22"/>
@@ -5969,7 +6003,7 @@
       <c r="D175" s="19"/>
       <c r="E175" s="19"/>
       <c r="F175" s="20"/>
-      <c r="G175" s="20"/>
+      <c r="G175" s="55"/>
       <c r="H175" s="21"/>
       <c r="I175" s="21"/>
       <c r="J175" s="22"/>
@@ -5991,7 +6025,7 @@
       <c r="D176" s="19"/>
       <c r="E176" s="19"/>
       <c r="F176" s="20"/>
-      <c r="G176" s="20"/>
+      <c r="G176" s="55"/>
       <c r="H176" s="21"/>
       <c r="I176" s="21"/>
       <c r="J176" s="22"/>
@@ -6013,7 +6047,7 @@
       <c r="D177" s="19"/>
       <c r="E177" s="19"/>
       <c r="F177" s="20"/>
-      <c r="G177" s="20"/>
+      <c r="G177" s="55"/>
       <c r="H177" s="21"/>
       <c r="I177" s="21"/>
       <c r="J177" s="22"/>
@@ -6035,7 +6069,7 @@
       <c r="D178" s="19"/>
       <c r="E178" s="19"/>
       <c r="F178" s="20"/>
-      <c r="G178" s="20"/>
+      <c r="G178" s="55"/>
       <c r="H178" s="21"/>
       <c r="I178" s="21"/>
       <c r="J178" s="22"/>
@@ -6057,7 +6091,7 @@
       <c r="D179" s="19"/>
       <c r="E179" s="19"/>
       <c r="F179" s="20"/>
-      <c r="G179" s="20"/>
+      <c r="G179" s="55"/>
       <c r="H179" s="21"/>
       <c r="I179" s="21"/>
       <c r="J179" s="22"/>
@@ -6079,7 +6113,7 @@
       <c r="D180" s="19"/>
       <c r="E180" s="19"/>
       <c r="F180" s="20"/>
-      <c r="G180" s="20"/>
+      <c r="G180" s="55"/>
       <c r="H180" s="21"/>
       <c r="I180" s="21"/>
       <c r="J180" s="22"/>
@@ -6101,7 +6135,7 @@
       <c r="D181" s="19"/>
       <c r="E181" s="19"/>
       <c r="F181" s="20"/>
-      <c r="G181" s="20"/>
+      <c r="G181" s="55"/>
       <c r="H181" s="21"/>
       <c r="I181" s="21"/>
       <c r="J181" s="22"/>
@@ -6123,7 +6157,7 @@
       <c r="D182" s="19"/>
       <c r="E182" s="19"/>
       <c r="F182" s="20"/>
-      <c r="G182" s="20"/>
+      <c r="G182" s="55"/>
       <c r="H182" s="21"/>
       <c r="I182" s="21"/>
       <c r="J182" s="22"/>
@@ -6145,7 +6179,7 @@
       <c r="D183" s="19"/>
       <c r="E183" s="19"/>
       <c r="F183" s="20"/>
-      <c r="G183" s="20"/>
+      <c r="G183" s="55"/>
       <c r="H183" s="21"/>
       <c r="I183" s="21"/>
       <c r="J183" s="22"/>
@@ -6167,7 +6201,7 @@
       <c r="D184" s="19"/>
       <c r="E184" s="19"/>
       <c r="F184" s="20"/>
-      <c r="G184" s="20"/>
+      <c r="G184" s="55"/>
       <c r="H184" s="21"/>
       <c r="I184" s="21"/>
       <c r="J184" s="22"/>
@@ -6189,7 +6223,7 @@
       <c r="D185" s="19"/>
       <c r="E185" s="19"/>
       <c r="F185" s="20"/>
-      <c r="G185" s="20"/>
+      <c r="G185" s="55"/>
       <c r="H185" s="21"/>
       <c r="I185" s="21"/>
       <c r="J185" s="22"/>
@@ -6211,7 +6245,7 @@
       <c r="D186" s="19"/>
       <c r="E186" s="19"/>
       <c r="F186" s="20"/>
-      <c r="G186" s="20"/>
+      <c r="G186" s="55"/>
       <c r="H186" s="21"/>
       <c r="I186" s="21"/>
       <c r="J186" s="22"/>
@@ -6233,7 +6267,7 @@
       <c r="D187" s="19"/>
       <c r="E187" s="19"/>
       <c r="F187" s="20"/>
-      <c r="G187" s="20"/>
+      <c r="G187" s="55"/>
       <c r="H187" s="21"/>
       <c r="I187" s="21"/>
       <c r="J187" s="22"/>
@@ -6255,7 +6289,7 @@
       <c r="D188" s="19"/>
       <c r="E188" s="19"/>
       <c r="F188" s="20"/>
-      <c r="G188" s="20"/>
+      <c r="G188" s="55"/>
       <c r="H188" s="21"/>
       <c r="I188" s="21"/>
       <c r="J188" s="22"/>
@@ -6277,7 +6311,7 @@
       <c r="D189" s="19"/>
       <c r="E189" s="19"/>
       <c r="F189" s="20"/>
-      <c r="G189" s="20"/>
+      <c r="G189" s="55"/>
       <c r="H189" s="21"/>
       <c r="I189" s="21"/>
       <c r="J189" s="22"/>
@@ -6299,7 +6333,7 @@
       <c r="D190" s="19"/>
       <c r="E190" s="19"/>
       <c r="F190" s="20"/>
-      <c r="G190" s="20"/>
+      <c r="G190" s="55"/>
       <c r="H190" s="21"/>
       <c r="I190" s="21"/>
       <c r="J190" s="22"/>
@@ -6321,7 +6355,7 @@
       <c r="D191" s="19"/>
       <c r="E191" s="19"/>
       <c r="F191" s="20"/>
-      <c r="G191" s="20"/>
+      <c r="G191" s="55"/>
       <c r="H191" s="21"/>
       <c r="I191" s="21"/>
       <c r="J191" s="22"/>
@@ -6343,7 +6377,7 @@
       <c r="D192" s="19"/>
       <c r="E192" s="19"/>
       <c r="F192" s="20"/>
-      <c r="G192" s="20"/>
+      <c r="G192" s="55"/>
       <c r="H192" s="21"/>
       <c r="I192" s="21"/>
       <c r="J192" s="22"/>
@@ -6365,7 +6399,7 @@
       <c r="D193" s="19"/>
       <c r="E193" s="19"/>
       <c r="F193" s="20"/>
-      <c r="G193" s="20"/>
+      <c r="G193" s="55"/>
       <c r="H193" s="21"/>
       <c r="I193" s="21"/>
       <c r="J193" s="22"/>
@@ -6387,7 +6421,7 @@
       <c r="D194" s="19"/>
       <c r="E194" s="19"/>
       <c r="F194" s="20"/>
-      <c r="G194" s="20"/>
+      <c r="G194" s="55"/>
       <c r="H194" s="21"/>
       <c r="I194" s="21"/>
       <c r="J194" s="22"/>
@@ -6409,7 +6443,7 @@
       <c r="D195" s="19"/>
       <c r="E195" s="19"/>
       <c r="F195" s="20"/>
-      <c r="G195" s="20"/>
+      <c r="G195" s="55"/>
       <c r="H195" s="21"/>
       <c r="I195" s="21"/>
       <c r="J195" s="22"/>
@@ -6431,7 +6465,7 @@
       <c r="D196" s="19"/>
       <c r="E196" s="19"/>
       <c r="F196" s="20"/>
-      <c r="G196" s="20"/>
+      <c r="G196" s="55"/>
       <c r="H196" s="21"/>
       <c r="I196" s="21"/>
       <c r="J196" s="22"/>
@@ -6453,7 +6487,7 @@
       <c r="D197" s="19"/>
       <c r="E197" s="19"/>
       <c r="F197" s="20"/>
-      <c r="G197" s="20"/>
+      <c r="G197" s="55"/>
       <c r="H197" s="21"/>
       <c r="I197" s="21"/>
       <c r="J197" s="22"/>
@@ -6475,7 +6509,7 @@
       <c r="D198" s="19"/>
       <c r="E198" s="19"/>
       <c r="F198" s="20"/>
-      <c r="G198" s="20"/>
+      <c r="G198" s="55"/>
       <c r="H198" s="21"/>
       <c r="I198" s="21"/>
       <c r="J198" s="22"/>
@@ -6497,7 +6531,7 @@
       <c r="D199" s="19"/>
       <c r="E199" s="19"/>
       <c r="F199" s="20"/>
-      <c r="G199" s="20"/>
+      <c r="G199" s="55"/>
       <c r="H199" s="21"/>
       <c r="I199" s="21"/>
       <c r="J199" s="22"/>
@@ -6519,7 +6553,7 @@
       <c r="D200" s="19"/>
       <c r="E200" s="19"/>
       <c r="F200" s="20"/>
-      <c r="G200" s="20"/>
+      <c r="G200" s="55"/>
       <c r="H200" s="21"/>
       <c r="I200" s="21"/>
       <c r="J200" s="22"/>
@@ -6541,7 +6575,7 @@
       <c r="D201" s="19"/>
       <c r="E201" s="19"/>
       <c r="F201" s="20"/>
-      <c r="G201" s="20"/>
+      <c r="G201" s="55"/>
       <c r="H201" s="21"/>
       <c r="I201" s="21"/>
       <c r="J201" s="22"/>
@@ -6563,7 +6597,7 @@
       <c r="D202" s="19"/>
       <c r="E202" s="19"/>
       <c r="F202" s="20"/>
-      <c r="G202" s="20"/>
+      <c r="G202" s="55"/>
       <c r="H202" s="21"/>
       <c r="I202" s="21"/>
       <c r="J202" s="22"/>
@@ -6585,7 +6619,7 @@
       <c r="D203" s="19"/>
       <c r="E203" s="19"/>
       <c r="F203" s="20"/>
-      <c r="G203" s="20"/>
+      <c r="G203" s="55"/>
       <c r="H203" s="21"/>
       <c r="I203" s="21"/>
       <c r="J203" s="22"/>
@@ -6607,7 +6641,7 @@
       <c r="D204" s="19"/>
       <c r="E204" s="19"/>
       <c r="F204" s="20"/>
-      <c r="G204" s="20"/>
+      <c r="G204" s="55"/>
       <c r="H204" s="21"/>
       <c r="I204" s="21"/>
       <c r="J204" s="22"/>
@@ -6629,7 +6663,7 @@
       <c r="D205" s="19"/>
       <c r="E205" s="19"/>
       <c r="F205" s="20"/>
-      <c r="G205" s="20"/>
+      <c r="G205" s="55"/>
       <c r="H205" s="21"/>
       <c r="I205" s="21"/>
       <c r="J205" s="22"/>
@@ -6651,7 +6685,7 @@
       <c r="D206" s="19"/>
       <c r="E206" s="19"/>
       <c r="F206" s="20"/>
-      <c r="G206" s="20"/>
+      <c r="G206" s="55"/>
       <c r="H206" s="21"/>
       <c r="I206" s="21"/>
       <c r="J206" s="22"/>
@@ -6673,7 +6707,7 @@
       <c r="D207" s="19"/>
       <c r="E207" s="19"/>
       <c r="F207" s="20"/>
-      <c r="G207" s="20"/>
+      <c r="G207" s="55"/>
       <c r="H207" s="21"/>
       <c r="I207" s="21"/>
       <c r="J207" s="22"/>
@@ -6695,7 +6729,7 @@
       <c r="D208" s="19"/>
       <c r="E208" s="19"/>
       <c r="F208" s="20"/>
-      <c r="G208" s="20"/>
+      <c r="G208" s="55"/>
       <c r="H208" s="21"/>
       <c r="I208" s="21"/>
       <c r="J208" s="22"/>
@@ -6717,7 +6751,7 @@
       <c r="D209" s="19"/>
       <c r="E209" s="19"/>
       <c r="F209" s="20"/>
-      <c r="G209" s="20"/>
+      <c r="G209" s="55"/>
       <c r="H209" s="21"/>
       <c r="I209" s="21"/>
       <c r="J209" s="22"/>
@@ -6739,7 +6773,7 @@
       <c r="D210" s="19"/>
       <c r="E210" s="19"/>
       <c r="F210" s="20"/>
-      <c r="G210" s="20"/>
+      <c r="G210" s="55"/>
       <c r="H210" s="21"/>
       <c r="I210" s="21"/>
       <c r="J210" s="22"/>
@@ -6761,7 +6795,7 @@
       <c r="D211" s="19"/>
       <c r="E211" s="19"/>
       <c r="F211" s="20"/>
-      <c r="G211" s="20"/>
+      <c r="G211" s="55"/>
       <c r="H211" s="21"/>
       <c r="I211" s="21"/>
       <c r="J211" s="22"/>
@@ -6783,7 +6817,7 @@
       <c r="D212" s="19"/>
       <c r="E212" s="19"/>
       <c r="F212" s="20"/>
-      <c r="G212" s="20"/>
+      <c r="G212" s="55"/>
       <c r="H212" s="21"/>
       <c r="I212" s="21"/>
       <c r="J212" s="22"/>
@@ -6805,7 +6839,7 @@
       <c r="D213" s="19"/>
       <c r="E213" s="19"/>
       <c r="F213" s="20"/>
-      <c r="G213" s="20"/>
+      <c r="G213" s="55"/>
       <c r="H213" s="21"/>
       <c r="I213" s="21"/>
       <c r="J213" s="22"/>
@@ -6827,7 +6861,7 @@
       <c r="D214" s="19"/>
       <c r="E214" s="19"/>
       <c r="F214" s="20"/>
-      <c r="G214" s="20"/>
+      <c r="G214" s="55"/>
       <c r="H214" s="21"/>
       <c r="I214" s="21"/>
       <c r="J214" s="22"/>
@@ -6849,7 +6883,7 @@
       <c r="D215" s="19"/>
       <c r="E215" s="19"/>
       <c r="F215" s="20"/>
-      <c r="G215" s="20"/>
+      <c r="G215" s="55"/>
       <c r="H215" s="21"/>
       <c r="I215" s="21"/>
       <c r="J215" s="22"/>
@@ -6871,7 +6905,7 @@
       <c r="D216" s="19"/>
       <c r="E216" s="19"/>
       <c r="F216" s="20"/>
-      <c r="G216" s="20"/>
+      <c r="G216" s="55"/>
       <c r="H216" s="21"/>
       <c r="I216" s="21"/>
       <c r="J216" s="22"/>
@@ -6893,7 +6927,7 @@
       <c r="D217" s="19"/>
       <c r="E217" s="19"/>
       <c r="F217" s="20"/>
-      <c r="G217" s="20"/>
+      <c r="G217" s="55"/>
       <c r="H217" s="21"/>
       <c r="I217" s="21"/>
       <c r="J217" s="22"/>
@@ -6915,7 +6949,7 @@
       <c r="D218" s="19"/>
       <c r="E218" s="19"/>
       <c r="F218" s="20"/>
-      <c r="G218" s="20"/>
+      <c r="G218" s="55"/>
       <c r="H218" s="21"/>
       <c r="I218" s="21"/>
       <c r="J218" s="22"/>
@@ -6937,7 +6971,7 @@
       <c r="D219" s="19"/>
       <c r="E219" s="19"/>
       <c r="F219" s="20"/>
-      <c r="G219" s="20"/>
+      <c r="G219" s="55"/>
       <c r="H219" s="21"/>
       <c r="I219" s="21"/>
       <c r="J219" s="22"/>
@@ -6959,7 +6993,7 @@
       <c r="D220" s="19"/>
       <c r="E220" s="19"/>
       <c r="F220" s="20"/>
-      <c r="G220" s="20"/>
+      <c r="G220" s="55"/>
       <c r="H220" s="21"/>
       <c r="I220" s="21"/>
       <c r="J220" s="22"/>
@@ -6981,7 +7015,7 @@
       <c r="D221" s="19"/>
       <c r="E221" s="19"/>
       <c r="F221" s="20"/>
-      <c r="G221" s="20"/>
+      <c r="G221" s="55"/>
       <c r="H221" s="21"/>
       <c r="I221" s="21"/>
       <c r="J221" s="22"/>
@@ -7003,7 +7037,7 @@
       <c r="D222" s="19"/>
       <c r="E222" s="19"/>
       <c r="F222" s="20"/>
-      <c r="G222" s="20"/>
+      <c r="G222" s="55"/>
       <c r="H222" s="21"/>
       <c r="I222" s="21"/>
       <c r="J222" s="22"/>
@@ -7025,7 +7059,7 @@
       <c r="D223" s="19"/>
       <c r="E223" s="19"/>
       <c r="F223" s="20"/>
-      <c r="G223" s="20"/>
+      <c r="G223" s="55"/>
       <c r="H223" s="21"/>
       <c r="I223" s="21"/>
       <c r="J223" s="22"/>
@@ -7047,7 +7081,7 @@
       <c r="D224" s="19"/>
       <c r="E224" s="19"/>
       <c r="F224" s="20"/>
-      <c r="G224" s="20"/>
+      <c r="G224" s="55"/>
       <c r="H224" s="21"/>
       <c r="I224" s="21"/>
       <c r="J224" s="22"/>
@@ -7069,7 +7103,7 @@
       <c r="D225" s="19"/>
       <c r="E225" s="19"/>
       <c r="F225" s="20"/>
-      <c r="G225" s="20"/>
+      <c r="G225" s="55"/>
       <c r="H225" s="21"/>
       <c r="I225" s="21"/>
       <c r="J225" s="22"/>
@@ -7091,7 +7125,7 @@
       <c r="D226" s="19"/>
       <c r="E226" s="19"/>
       <c r="F226" s="20"/>
-      <c r="G226" s="20"/>
+      <c r="G226" s="55"/>
       <c r="H226" s="21"/>
       <c r="I226" s="21"/>
       <c r="J226" s="22"/>
@@ -7113,7 +7147,7 @@
       <c r="D227" s="19"/>
       <c r="E227" s="19"/>
       <c r="F227" s="20"/>
-      <c r="G227" s="20"/>
+      <c r="G227" s="55"/>
       <c r="H227" s="21"/>
       <c r="I227" s="21"/>
       <c r="J227" s="22"/>
@@ -7135,7 +7169,7 @@
       <c r="D228" s="19"/>
       <c r="E228" s="19"/>
       <c r="F228" s="20"/>
-      <c r="G228" s="20"/>
+      <c r="G228" s="55"/>
       <c r="H228" s="21"/>
       <c r="I228" s="21"/>
       <c r="J228" s="22"/>
@@ -7157,7 +7191,7 @@
       <c r="D229" s="19"/>
       <c r="E229" s="19"/>
       <c r="F229" s="20"/>
-      <c r="G229" s="20"/>
+      <c r="G229" s="55"/>
       <c r="H229" s="21"/>
       <c r="I229" s="21"/>
       <c r="J229" s="22"/>
@@ -7179,7 +7213,7 @@
       <c r="D230" s="19"/>
       <c r="E230" s="19"/>
       <c r="F230" s="20"/>
-      <c r="G230" s="20"/>
+      <c r="G230" s="55"/>
       <c r="H230" s="21"/>
       <c r="I230" s="21"/>
       <c r="J230" s="22"/>
@@ -7201,7 +7235,7 @@
       <c r="D231" s="19"/>
       <c r="E231" s="19"/>
       <c r="F231" s="20"/>
-      <c r="G231" s="20"/>
+      <c r="G231" s="55"/>
       <c r="H231" s="21"/>
       <c r="I231" s="21"/>
       <c r="J231" s="22"/>
@@ -7223,7 +7257,7 @@
       <c r="D232" s="19"/>
       <c r="E232" s="19"/>
       <c r="F232" s="20"/>
-      <c r="G232" s="20"/>
+      <c r="G232" s="55"/>
       <c r="H232" s="21"/>
       <c r="I232" s="21"/>
       <c r="J232" s="22"/>
@@ -7245,7 +7279,7 @@
       <c r="D233" s="19"/>
       <c r="E233" s="19"/>
       <c r="F233" s="20"/>
-      <c r="G233" s="20"/>
+      <c r="G233" s="55"/>
       <c r="H233" s="21"/>
       <c r="I233" s="21"/>
       <c r="J233" s="22"/>
@@ -7267,7 +7301,7 @@
       <c r="D234" s="19"/>
       <c r="E234" s="19"/>
       <c r="F234" s="20"/>
-      <c r="G234" s="20"/>
+      <c r="G234" s="55"/>
       <c r="H234" s="21"/>
       <c r="I234" s="21"/>
       <c r="J234" s="22"/>
@@ -7289,7 +7323,7 @@
       <c r="D235" s="19"/>
       <c r="E235" s="19"/>
       <c r="F235" s="20"/>
-      <c r="G235" s="20"/>
+      <c r="G235" s="55"/>
       <c r="H235" s="21"/>
       <c r="I235" s="21"/>
       <c r="J235" s="22"/>
@@ -7311,7 +7345,7 @@
       <c r="D236" s="19"/>
       <c r="E236" s="19"/>
       <c r="F236" s="20"/>
-      <c r="G236" s="20"/>
+      <c r="G236" s="55"/>
       <c r="H236" s="21"/>
       <c r="I236" s="21"/>
       <c r="J236" s="22"/>
@@ -7333,7 +7367,7 @@
       <c r="D237" s="19"/>
       <c r="E237" s="19"/>
       <c r="F237" s="20"/>
-      <c r="G237" s="20"/>
+      <c r="G237" s="55"/>
       <c r="H237" s="21"/>
       <c r="I237" s="21"/>
       <c r="J237" s="22"/>
@@ -7355,7 +7389,7 @@
       <c r="D238" s="19"/>
       <c r="E238" s="19"/>
       <c r="F238" s="20"/>
-      <c r="G238" s="20"/>
+      <c r="G238" s="55"/>
       <c r="H238" s="21"/>
       <c r="I238" s="21"/>
       <c r="J238" s="22"/>
@@ -7377,7 +7411,7 @@
       <c r="D239" s="19"/>
       <c r="E239" s="19"/>
       <c r="F239" s="20"/>
-      <c r="G239" s="20"/>
+      <c r="G239" s="55"/>
       <c r="H239" s="21"/>
       <c r="I239" s="21"/>
       <c r="J239" s="22"/>
@@ -7399,7 +7433,7 @@
       <c r="D240" s="19"/>
       <c r="E240" s="19"/>
       <c r="F240" s="20"/>
-      <c r="G240" s="20"/>
+      <c r="G240" s="55"/>
       <c r="H240" s="21"/>
       <c r="I240" s="21"/>
       <c r="J240" s="22"/>
@@ -7421,7 +7455,7 @@
       <c r="D241" s="19"/>
       <c r="E241" s="19"/>
       <c r="F241" s="20"/>
-      <c r="G241" s="20"/>
+      <c r="G241" s="55"/>
       <c r="H241" s="21"/>
       <c r="I241" s="21"/>
       <c r="J241" s="22"/>
@@ -7443,7 +7477,7 @@
       <c r="D242" s="19"/>
       <c r="E242" s="19"/>
       <c r="F242" s="20"/>
-      <c r="G242" s="20"/>
+      <c r="G242" s="55"/>
       <c r="H242" s="21"/>
       <c r="I242" s="21"/>
       <c r="J242" s="22"/>
@@ -7465,7 +7499,7 @@
       <c r="D243" s="19"/>
       <c r="E243" s="19"/>
       <c r="F243" s="20"/>
-      <c r="G243" s="20"/>
+      <c r="G243" s="55"/>
       <c r="H243" s="21"/>
       <c r="I243" s="21"/>
       <c r="J243" s="22"/>
@@ -7487,7 +7521,7 @@
       <c r="D244" s="19"/>
       <c r="E244" s="19"/>
       <c r="F244" s="20"/>
-      <c r="G244" s="20"/>
+      <c r="G244" s="55"/>
       <c r="H244" s="21"/>
       <c r="I244" s="21"/>
       <c r="J244" s="22"/>
@@ -7509,7 +7543,7 @@
       <c r="D245" s="19"/>
       <c r="E245" s="19"/>
       <c r="F245" s="20"/>
-      <c r="G245" s="20"/>
+      <c r="G245" s="55"/>
       <c r="H245" s="21"/>
       <c r="I245" s="21"/>
       <c r="J245" s="22"/>
@@ -7531,7 +7565,7 @@
       <c r="D246" s="19"/>
       <c r="E246" s="19"/>
       <c r="F246" s="20"/>
-      <c r="G246" s="20"/>
+      <c r="G246" s="55"/>
       <c r="H246" s="21"/>
       <c r="I246" s="21"/>
       <c r="J246" s="22"/>
@@ -7553,7 +7587,7 @@
       <c r="D247" s="19"/>
       <c r="E247" s="19"/>
       <c r="F247" s="20"/>
-      <c r="G247" s="20"/>
+      <c r="G247" s="55"/>
       <c r="H247" s="21"/>
       <c r="I247" s="21"/>
       <c r="J247" s="22"/>
@@ -7575,7 +7609,7 @@
       <c r="D248" s="19"/>
       <c r="E248" s="19"/>
       <c r="F248" s="20"/>
-      <c r="G248" s="20"/>
+      <c r="G248" s="55"/>
       <c r="H248" s="21"/>
       <c r="I248" s="21"/>
       <c r="J248" s="22"/>
@@ -7597,7 +7631,7 @@
       <c r="D249" s="19"/>
       <c r="E249" s="19"/>
       <c r="F249" s="20"/>
-      <c r="G249" s="20"/>
+      <c r="G249" s="55"/>
       <c r="H249" s="21"/>
       <c r="I249" s="21"/>
       <c r="J249" s="22"/>
@@ -7619,7 +7653,7 @@
       <c r="D250" s="19"/>
       <c r="E250" s="19"/>
       <c r="F250" s="20"/>
-      <c r="G250" s="20"/>
+      <c r="G250" s="55"/>
       <c r="H250" s="21"/>
       <c r="I250" s="21"/>
       <c r="J250" s="22"/>
@@ -7641,7 +7675,7 @@
       <c r="D251" s="19"/>
       <c r="E251" s="19"/>
       <c r="F251" s="20"/>
-      <c r="G251" s="20"/>
+      <c r="G251" s="55"/>
       <c r="H251" s="21"/>
       <c r="I251" s="21"/>
       <c r="J251" s="22"/>
@@ -7663,7 +7697,7 @@
       <c r="D252" s="19"/>
       <c r="E252" s="19"/>
       <c r="F252" s="20"/>
-      <c r="G252" s="20"/>
+      <c r="G252" s="55"/>
       <c r="H252" s="21"/>
       <c r="I252" s="21"/>
       <c r="J252" s="22"/>
@@ -7685,7 +7719,7 @@
       <c r="D253" s="19"/>
       <c r="E253" s="19"/>
       <c r="F253" s="20"/>
-      <c r="G253" s="20"/>
+      <c r="G253" s="55"/>
       <c r="H253" s="21"/>
       <c r="I253" s="21"/>
       <c r="J253" s="22"/>
@@ -7707,7 +7741,7 @@
       <c r="D254" s="19"/>
       <c r="E254" s="19"/>
       <c r="F254" s="20"/>
-      <c r="G254" s="20"/>
+      <c r="G254" s="55"/>
       <c r="H254" s="21"/>
       <c r="I254" s="21"/>
       <c r="J254" s="22"/>
@@ -7729,7 +7763,7 @@
       <c r="D255" s="19"/>
       <c r="E255" s="19"/>
       <c r="F255" s="20"/>
-      <c r="G255" s="20"/>
+      <c r="G255" s="55"/>
       <c r="H255" s="21"/>
       <c r="I255" s="21"/>
       <c r="J255" s="22"/>
@@ -7751,7 +7785,7 @@
       <c r="D256" s="19"/>
       <c r="E256" s="19"/>
       <c r="F256" s="20"/>
-      <c r="G256" s="20"/>
+      <c r="G256" s="55"/>
       <c r="H256" s="21"/>
       <c r="I256" s="21"/>
       <c r="J256" s="22"/>
@@ -7773,7 +7807,7 @@
       <c r="D257" s="19"/>
       <c r="E257" s="19"/>
       <c r="F257" s="20"/>
-      <c r="G257" s="20"/>
+      <c r="G257" s="55"/>
       <c r="H257" s="21"/>
       <c r="I257" s="21"/>
       <c r="J257" s="22"/>
@@ -7795,7 +7829,7 @@
       <c r="D258" s="19"/>
       <c r="E258" s="19"/>
       <c r="F258" s="20"/>
-      <c r="G258" s="20"/>
+      <c r="G258" s="55"/>
       <c r="H258" s="21"/>
       <c r="I258" s="21"/>
       <c r="J258" s="22"/>
@@ -7817,7 +7851,7 @@
       <c r="D259" s="19"/>
       <c r="E259" s="19"/>
       <c r="F259" s="20"/>
-      <c r="G259" s="20"/>
+      <c r="G259" s="55"/>
       <c r="H259" s="21"/>
       <c r="I259" s="21"/>
       <c r="J259" s="22"/>
@@ -7839,7 +7873,7 @@
       <c r="D260" s="19"/>
       <c r="E260" s="19"/>
       <c r="F260" s="20"/>
-      <c r="G260" s="20"/>
+      <c r="G260" s="55"/>
       <c r="H260" s="21"/>
       <c r="I260" s="21"/>
       <c r="J260" s="22"/>
@@ -7861,7 +7895,7 @@
       <c r="D261" s="19"/>
       <c r="E261" s="19"/>
       <c r="F261" s="20"/>
-      <c r="G261" s="20"/>
+      <c r="G261" s="55"/>
       <c r="H261" s="21"/>
       <c r="I261" s="21"/>
       <c r="J261" s="22"/>
@@ -7883,7 +7917,7 @@
       <c r="D262" s="19"/>
       <c r="E262" s="19"/>
       <c r="F262" s="20"/>
-      <c r="G262" s="20"/>
+      <c r="G262" s="55"/>
       <c r="H262" s="21"/>
       <c r="I262" s="21"/>
       <c r="J262" s="22"/>
@@ -7905,7 +7939,7 @@
       <c r="D263" s="19"/>
       <c r="E263" s="19"/>
       <c r="F263" s="20"/>
-      <c r="G263" s="20"/>
+      <c r="G263" s="55"/>
       <c r="H263" s="21"/>
       <c r="I263" s="21"/>
       <c r="J263" s="22"/>
@@ -7927,7 +7961,7 @@
       <c r="D264" s="19"/>
       <c r="E264" s="19"/>
       <c r="F264" s="20"/>
-      <c r="G264" s="20"/>
+      <c r="G264" s="55"/>
       <c r="H264" s="21"/>
       <c r="I264" s="21"/>
       <c r="J264" s="22"/>
@@ -7949,7 +7983,7 @@
       <c r="D265" s="19"/>
       <c r="E265" s="19"/>
       <c r="F265" s="20"/>
-      <c r="G265" s="20"/>
+      <c r="G265" s="55"/>
       <c r="H265" s="21"/>
       <c r="I265" s="21"/>
       <c r="J265" s="22"/>
@@ -7971,7 +8005,7 @@
       <c r="D266" s="19"/>
       <c r="E266" s="19"/>
       <c r="F266" s="20"/>
-      <c r="G266" s="20"/>
+      <c r="G266" s="55"/>
       <c r="H266" s="21"/>
       <c r="I266" s="21"/>
       <c r="J266" s="22"/>
@@ -7993,7 +8027,7 @@
       <c r="D267" s="19"/>
       <c r="E267" s="19"/>
       <c r="F267" s="20"/>
-      <c r="G267" s="20"/>
+      <c r="G267" s="55"/>
       <c r="H267" s="21"/>
       <c r="I267" s="21"/>
       <c r="J267" s="22"/>
@@ -8015,7 +8049,7 @@
       <c r="D268" s="19"/>
       <c r="E268" s="19"/>
       <c r="F268" s="20"/>
-      <c r="G268" s="20"/>
+      <c r="G268" s="55"/>
       <c r="H268" s="21"/>
       <c r="I268" s="21"/>
       <c r="J268" s="22"/>
@@ -8037,7 +8071,7 @@
       <c r="D269" s="19"/>
       <c r="E269" s="19"/>
       <c r="F269" s="20"/>
-      <c r="G269" s="20"/>
+      <c r="G269" s="55"/>
       <c r="H269" s="21"/>
       <c r="I269" s="21"/>
       <c r="J269" s="22"/>
@@ -8059,7 +8093,7 @@
       <c r="D270" s="19"/>
       <c r="E270" s="19"/>
       <c r="F270" s="20"/>
-      <c r="G270" s="20"/>
+      <c r="G270" s="55"/>
       <c r="H270" s="21"/>
       <c r="I270" s="21"/>
       <c r="J270" s="22"/>
@@ -8081,7 +8115,7 @@
       <c r="D271" s="19"/>
       <c r="E271" s="19"/>
       <c r="F271" s="20"/>
-      <c r="G271" s="20"/>
+      <c r="G271" s="55"/>
       <c r="H271" s="21"/>
       <c r="I271" s="21"/>
       <c r="J271" s="22"/>
@@ -8103,7 +8137,7 @@
       <c r="D272" s="19"/>
       <c r="E272" s="19"/>
       <c r="F272" s="20"/>
-      <c r="G272" s="20"/>
+      <c r="G272" s="55"/>
       <c r="H272" s="21"/>
       <c r="I272" s="21"/>
       <c r="J272" s="22"/>
@@ -8125,7 +8159,7 @@
       <c r="D273" s="19"/>
       <c r="E273" s="19"/>
       <c r="F273" s="20"/>
-      <c r="G273" s="20"/>
+      <c r="G273" s="55"/>
       <c r="H273" s="21"/>
       <c r="I273" s="21"/>
       <c r="J273" s="22"/>
@@ -8147,7 +8181,7 @@
       <c r="D274" s="19"/>
       <c r="E274" s="19"/>
       <c r="F274" s="20"/>
-      <c r="G274" s="20"/>
+      <c r="G274" s="55"/>
       <c r="H274" s="21"/>
       <c r="I274" s="21"/>
       <c r="J274" s="22"/>
@@ -8169,7 +8203,7 @@
       <c r="D275" s="19"/>
       <c r="E275" s="19"/>
       <c r="F275" s="20"/>
-      <c r="G275" s="20"/>
+      <c r="G275" s="55"/>
       <c r="H275" s="21"/>
       <c r="I275" s="21"/>
       <c r="J275" s="22"/>
@@ -8191,7 +8225,7 @@
       <c r="D276" s="19"/>
       <c r="E276" s="19"/>
       <c r="F276" s="20"/>
-      <c r="G276" s="20"/>
+      <c r="G276" s="55"/>
       <c r="H276" s="21"/>
       <c r="I276" s="21"/>
       <c r="J276" s="22"/>
@@ -8213,7 +8247,7 @@
       <c r="D277" s="19"/>
       <c r="E277" s="19"/>
       <c r="F277" s="20"/>
-      <c r="G277" s="20"/>
+      <c r="G277" s="55"/>
       <c r="H277" s="21"/>
       <c r="I277" s="21"/>
       <c r="J277" s="22"/>
@@ -8235,7 +8269,7 @@
       <c r="D278" s="19"/>
       <c r="E278" s="19"/>
       <c r="F278" s="20"/>
-      <c r="G278" s="20"/>
+      <c r="G278" s="55"/>
       <c r="H278" s="21"/>
       <c r="I278" s="21"/>
       <c r="J278" s="22"/>
@@ -8257,7 +8291,7 @@
       <c r="D279" s="19"/>
       <c r="E279" s="19"/>
       <c r="F279" s="20"/>
-      <c r="G279" s="20"/>
+      <c r="G279" s="55"/>
       <c r="H279" s="21"/>
       <c r="I279" s="21"/>
       <c r="J279" s="22"/>
@@ -8279,7 +8313,7 @@
       <c r="D280" s="19"/>
       <c r="E280" s="19"/>
       <c r="F280" s="20"/>
-      <c r="G280" s="20"/>
+      <c r="G280" s="55"/>
       <c r="H280" s="21"/>
       <c r="I280" s="21"/>
       <c r="J280" s="22"/>
@@ -8301,7 +8335,7 @@
       <c r="D281" s="19"/>
       <c r="E281" s="19"/>
       <c r="F281" s="20"/>
-      <c r="G281" s="20"/>
+      <c r="G281" s="55"/>
       <c r="H281" s="21"/>
       <c r="I281" s="21"/>
       <c r="J281" s="22"/>
@@ -8323,7 +8357,7 @@
       <c r="D282" s="19"/>
       <c r="E282" s="19"/>
       <c r="F282" s="20"/>
-      <c r="G282" s="20"/>
+      <c r="G282" s="55"/>
       <c r="H282" s="21"/>
       <c r="I282" s="21"/>
       <c r="J282" s="22"/>
@@ -8345,7 +8379,7 @@
       <c r="D283" s="19"/>
       <c r="E283" s="19"/>
       <c r="F283" s="20"/>
-      <c r="G283" s="20"/>
+      <c r="G283" s="55"/>
       <c r="H283" s="21"/>
       <c r="I283" s="21"/>
       <c r="J283" s="22"/>
@@ -8367,7 +8401,7 @@
       <c r="D284" s="19"/>
       <c r="E284" s="19"/>
       <c r="F284" s="20"/>
-      <c r="G284" s="20"/>
+      <c r="G284" s="55"/>
       <c r="H284" s="21"/>
       <c r="I284" s="21"/>
       <c r="J284" s="22"/>
@@ -8389,7 +8423,7 @@
       <c r="D285" s="19"/>
       <c r="E285" s="19"/>
       <c r="F285" s="20"/>
-      <c r="G285" s="20"/>
+      <c r="G285" s="55"/>
       <c r="H285" s="21"/>
       <c r="I285" s="21"/>
       <c r="J285" s="22"/>
@@ -8411,7 +8445,7 @@
       <c r="D286" s="19"/>
       <c r="E286" s="19"/>
       <c r="F286" s="20"/>
-      <c r="G286" s="20"/>
+      <c r="G286" s="55"/>
       <c r="H286" s="21"/>
       <c r="I286" s="21"/>
       <c r="J286" s="22"/>
@@ -8433,7 +8467,7 @@
       <c r="D287" s="19"/>
       <c r="E287" s="19"/>
       <c r="F287" s="20"/>
-      <c r="G287" s="20"/>
+      <c r="G287" s="55"/>
       <c r="H287" s="21"/>
       <c r="I287" s="21"/>
       <c r="J287" s="22"/>
@@ -8455,7 +8489,7 @@
       <c r="D288" s="19"/>
       <c r="E288" s="19"/>
       <c r="F288" s="20"/>
-      <c r="G288" s="20"/>
+      <c r="G288" s="55"/>
       <c r="H288" s="21"/>
       <c r="I288" s="21"/>
       <c r="J288" s="22"/>
@@ -8477,7 +8511,7 @@
       <c r="D289" s="19"/>
       <c r="E289" s="19"/>
       <c r="F289" s="20"/>
-      <c r="G289" s="20"/>
+      <c r="G289" s="55"/>
       <c r="H289" s="21"/>
       <c r="I289" s="21"/>
       <c r="J289" s="22"/>
@@ -8499,7 +8533,7 @@
       <c r="D290" s="19"/>
       <c r="E290" s="19"/>
       <c r="F290" s="20"/>
-      <c r="G290" s="20"/>
+      <c r="G290" s="55"/>
       <c r="H290" s="21"/>
       <c r="I290" s="21"/>
       <c r="J290" s="22"/>
@@ -8521,7 +8555,7 @@
       <c r="D291" s="19"/>
       <c r="E291" s="19"/>
       <c r="F291" s="20"/>
-      <c r="G291" s="20"/>
+      <c r="G291" s="55"/>
       <c r="H291" s="21"/>
       <c r="I291" s="21"/>
       <c r="J291" s="22"/>
@@ -8543,7 +8577,7 @@
       <c r="D292" s="19"/>
       <c r="E292" s="19"/>
       <c r="F292" s="20"/>
-      <c r="G292" s="20"/>
+      <c r="G292" s="55"/>
       <c r="H292" s="21"/>
       <c r="I292" s="21"/>
       <c r="J292" s="22"/>
@@ -8565,7 +8599,7 @@
       <c r="D293" s="19"/>
       <c r="E293" s="19"/>
       <c r="F293" s="20"/>
-      <c r="G293" s="20"/>
+      <c r="G293" s="55"/>
       <c r="H293" s="21"/>
       <c r="I293" s="21"/>
       <c r="J293" s="22"/>
@@ -8587,7 +8621,7 @@
       <c r="D294" s="19"/>
       <c r="E294" s="19"/>
       <c r="F294" s="20"/>
-      <c r="G294" s="20"/>
+      <c r="G294" s="55"/>
       <c r="H294" s="21"/>
       <c r="I294" s="21"/>
       <c r="J294" s="22"/>
@@ -8609,7 +8643,7 @@
       <c r="D295" s="19"/>
       <c r="E295" s="19"/>
       <c r="F295" s="20"/>
-      <c r="G295" s="20"/>
+      <c r="G295" s="55"/>
       <c r="H295" s="21"/>
       <c r="I295" s="21"/>
       <c r="J295" s="22"/>
@@ -8631,7 +8665,7 @@
       <c r="D296" s="19"/>
       <c r="E296" s="19"/>
       <c r="F296" s="20"/>
-      <c r="G296" s="20"/>
+      <c r="G296" s="55"/>
       <c r="H296" s="21"/>
       <c r="I296" s="21"/>
       <c r="J296" s="22"/>
@@ -8653,7 +8687,7 @@
       <c r="D297" s="19"/>
       <c r="E297" s="19"/>
       <c r="F297" s="20"/>
-      <c r="G297" s="20"/>
+      <c r="G297" s="55"/>
       <c r="H297" s="21"/>
       <c r="I297" s="21"/>
       <c r="J297" s="22"/>
@@ -8675,7 +8709,7 @@
       <c r="D298" s="19"/>
       <c r="E298" s="19"/>
       <c r="F298" s="20"/>
-      <c r="G298" s="20"/>
+      <c r="G298" s="55"/>
       <c r="H298" s="21"/>
       <c r="I298" s="21"/>
       <c r="J298" s="22"/>
@@ -8697,7 +8731,7 @@
       <c r="D299" s="19"/>
       <c r="E299" s="19"/>
       <c r="F299" s="20"/>
-      <c r="G299" s="20"/>
+      <c r="G299" s="55"/>
       <c r="H299" s="21"/>
       <c r="I299" s="21"/>
       <c r="J299" s="22"/>
@@ -8719,7 +8753,7 @@
       <c r="D300" s="19"/>
       <c r="E300" s="19"/>
       <c r="F300" s="20"/>
-      <c r="G300" s="20"/>
+      <c r="G300" s="55"/>
       <c r="H300" s="21"/>
       <c r="I300" s="21"/>
       <c r="J300" s="22"/>
@@ -8741,7 +8775,7 @@
       <c r="D301" s="19"/>
       <c r="E301" s="19"/>
       <c r="F301" s="20"/>
-      <c r="G301" s="20"/>
+      <c r="G301" s="55"/>
       <c r="H301" s="21"/>
       <c r="I301" s="21"/>
       <c r="J301" s="22"/>
@@ -8763,7 +8797,7 @@
       <c r="D302" s="19"/>
       <c r="E302" s="19"/>
       <c r="F302" s="20"/>
-      <c r="G302" s="20"/>
+      <c r="G302" s="55"/>
       <c r="H302" s="21"/>
       <c r="I302" s="21"/>
       <c r="J302" s="22"/>
@@ -8785,7 +8819,7 @@
       <c r="D303" s="19"/>
       <c r="E303" s="19"/>
       <c r="F303" s="20"/>
-      <c r="G303" s="20"/>
+      <c r="G303" s="55"/>
       <c r="H303" s="21"/>
       <c r="I303" s="21"/>
       <c r="J303" s="22"/>
@@ -8807,7 +8841,7 @@
       <c r="D304" s="19"/>
       <c r="E304" s="19"/>
       <c r="F304" s="20"/>
-      <c r="G304" s="20"/>
+      <c r="G304" s="55"/>
       <c r="H304" s="21"/>
       <c r="I304" s="21"/>
       <c r="J304" s="22"/>
@@ -8829,7 +8863,7 @@
       <c r="D305" s="19"/>
       <c r="E305" s="19"/>
       <c r="F305" s="20"/>
-      <c r="G305" s="20"/>
+      <c r="G305" s="55"/>
       <c r="H305" s="21"/>
       <c r="I305" s="21"/>
       <c r="J305" s="22"/>
@@ -8851,7 +8885,7 @@
       <c r="D306" s="19"/>
       <c r="E306" s="19"/>
       <c r="F306" s="20"/>
-      <c r="G306" s="20"/>
+      <c r="G306" s="55"/>
       <c r="H306" s="21"/>
       <c r="I306" s="21"/>
       <c r="J306" s="22"/>
@@ -8873,7 +8907,7 @@
       <c r="D307" s="19"/>
       <c r="E307" s="19"/>
       <c r="F307" s="20"/>
-      <c r="G307" s="20"/>
+      <c r="G307" s="55"/>
       <c r="H307" s="21"/>
       <c r="I307" s="21"/>
       <c r="J307" s="22"/>
@@ -8895,7 +8929,7 @@
       <c r="D308" s="19"/>
       <c r="E308" s="19"/>
       <c r="F308" s="20"/>
-      <c r="G308" s="20"/>
+      <c r="G308" s="55"/>
       <c r="H308" s="21"/>
       <c r="I308" s="21"/>
       <c r="J308" s="22"/>
@@ -8917,7 +8951,7 @@
       <c r="D309" s="19"/>
       <c r="E309" s="19"/>
       <c r="F309" s="20"/>
-      <c r="G309" s="20"/>
+      <c r="G309" s="55"/>
       <c r="H309" s="21"/>
       <c r="I309" s="21"/>
       <c r="J309" s="22"/>
@@ -8939,7 +8973,7 @@
       <c r="D310" s="19"/>
       <c r="E310" s="19"/>
       <c r="F310" s="20"/>
-      <c r="G310" s="20"/>
+      <c r="G310" s="55"/>
       <c r="H310" s="21"/>
       <c r="I310" s="21"/>
       <c r="J310" s="22"/>
@@ -8961,7 +8995,7 @@
       <c r="D311" s="19"/>
       <c r="E311" s="19"/>
       <c r="F311" s="20"/>
-      <c r="G311" s="20"/>
+      <c r="G311" s="55"/>
       <c r="H311" s="21"/>
       <c r="I311" s="21"/>
       <c r="J311" s="22"/>
@@ -8983,7 +9017,7 @@
       <c r="D312" s="19"/>
       <c r="E312" s="19"/>
       <c r="F312" s="20"/>
-      <c r="G312" s="20"/>
+      <c r="G312" s="55"/>
       <c r="H312" s="21"/>
       <c r="I312" s="21"/>
       <c r="J312" s="22"/>
@@ -9005,7 +9039,7 @@
       <c r="D313" s="19"/>
       <c r="E313" s="19"/>
       <c r="F313" s="20"/>
-      <c r="G313" s="20"/>
+      <c r="G313" s="55"/>
       <c r="H313" s="21"/>
       <c r="I313" s="21"/>
       <c r="J313" s="22"/>
@@ -9027,7 +9061,7 @@
       <c r="D314" s="19"/>
       <c r="E314" s="19"/>
       <c r="F314" s="20"/>
-      <c r="G314" s="20"/>
+      <c r="G314" s="55"/>
       <c r="H314" s="21"/>
       <c r="I314" s="21"/>
       <c r="J314" s="22"/>
@@ -9049,7 +9083,7 @@
       <c r="D315" s="19"/>
       <c r="E315" s="19"/>
       <c r="F315" s="20"/>
-      <c r="G315" s="20"/>
+      <c r="G315" s="55"/>
       <c r="H315" s="21"/>
       <c r="I315" s="21"/>
       <c r="J315" s="22"/>
@@ -9071,7 +9105,7 @@
       <c r="D316" s="19"/>
       <c r="E316" s="19"/>
       <c r="F316" s="20"/>
-      <c r="G316" s="20"/>
+      <c r="G316" s="55"/>
       <c r="H316" s="21"/>
       <c r="I316" s="21"/>
       <c r="J316" s="22"/>
@@ -9093,7 +9127,7 @@
       <c r="D317" s="19"/>
       <c r="E317" s="19"/>
       <c r="F317" s="20"/>
-      <c r="G317" s="20"/>
+      <c r="G317" s="55"/>
       <c r="H317" s="21"/>
       <c r="I317" s="21"/>
       <c r="J317" s="22"/>
@@ -9115,7 +9149,7 @@
       <c r="D318" s="19"/>
       <c r="E318" s="19"/>
       <c r="F318" s="20"/>
-      <c r="G318" s="20"/>
+      <c r="G318" s="55"/>
       <c r="H318" s="21"/>
       <c r="I318" s="21"/>
       <c r="J318" s="22"/>
@@ -9137,7 +9171,7 @@
       <c r="D319" s="19"/>
       <c r="E319" s="19"/>
       <c r="F319" s="20"/>
-      <c r="G319" s="20"/>
+      <c r="G319" s="55"/>
       <c r="H319" s="21"/>
       <c r="I319" s="21"/>
       <c r="J319" s="22"/>
@@ -9159,7 +9193,7 @@
       <c r="D320" s="19"/>
       <c r="E320" s="19"/>
       <c r="F320" s="20"/>
-      <c r="G320" s="20"/>
+      <c r="G320" s="55"/>
       <c r="H320" s="21"/>
       <c r="I320" s="21"/>
       <c r="J320" s="22"/>
@@ -9181,7 +9215,7 @@
       <c r="D321" s="19"/>
       <c r="E321" s="19"/>
       <c r="F321" s="20"/>
-      <c r="G321" s="20"/>
+      <c r="G321" s="55"/>
       <c r="H321" s="21"/>
       <c r="I321" s="21"/>
       <c r="J321" s="22"/>
@@ -9203,7 +9237,7 @@
       <c r="D322" s="19"/>
       <c r="E322" s="19"/>
       <c r="F322" s="20"/>
-      <c r="G322" s="20"/>
+      <c r="G322" s="55"/>
       <c r="H322" s="21"/>
       <c r="I322" s="21"/>
       <c r="J322" s="22"/>
@@ -9225,7 +9259,7 @@
       <c r="D323" s="19"/>
       <c r="E323" s="19"/>
       <c r="F323" s="20"/>
-      <c r="G323" s="20"/>
+      <c r="G323" s="55"/>
       <c r="H323" s="21"/>
       <c r="I323" s="21"/>
       <c r="J323" s="22"/>
@@ -9247,7 +9281,7 @@
       <c r="D324" s="19"/>
       <c r="E324" s="19"/>
       <c r="F324" s="20"/>
-      <c r="G324" s="20"/>
+      <c r="G324" s="55"/>
       <c r="H324" s="21"/>
       <c r="I324" s="21"/>
       <c r="J324" s="22"/>
@@ -9269,7 +9303,7 @@
       <c r="D325" s="19"/>
       <c r="E325" s="19"/>
       <c r="F325" s="20"/>
-      <c r="G325" s="20"/>
+      <c r="G325" s="55"/>
       <c r="H325" s="21"/>
       <c r="I325" s="21"/>
       <c r="J325" s="22"/>
@@ -9291,7 +9325,7 @@
       <c r="D326" s="19"/>
       <c r="E326" s="19"/>
       <c r="F326" s="20"/>
-      <c r="G326" s="20"/>
+      <c r="G326" s="55"/>
       <c r="H326" s="21"/>
       <c r="I326" s="21"/>
       <c r="J326" s="22"/>
@@ -9313,7 +9347,7 @@
       <c r="D327" s="19"/>
       <c r="E327" s="19"/>
       <c r="F327" s="20"/>
-      <c r="G327" s="20"/>
+      <c r="G327" s="55"/>
       <c r="H327" s="21"/>
       <c r="I327" s="21"/>
       <c r="J327" s="22"/>
@@ -9335,7 +9369,7 @@
       <c r="D328" s="19"/>
       <c r="E328" s="19"/>
       <c r="F328" s="20"/>
-      <c r="G328" s="20"/>
+      <c r="G328" s="55"/>
       <c r="H328" s="21"/>
       <c r="I328" s="21"/>
       <c r="J328" s="22"/>
@@ -9357,7 +9391,7 @@
       <c r="D329" s="19"/>
       <c r="E329" s="19"/>
       <c r="F329" s="20"/>
-      <c r="G329" s="20"/>
+      <c r="G329" s="55"/>
       <c r="H329" s="21"/>
       <c r="I329" s="21"/>
       <c r="J329" s="22"/>
@@ -9379,7 +9413,7 @@
       <c r="D330" s="19"/>
       <c r="E330" s="19"/>
       <c r="F330" s="20"/>
-      <c r="G330" s="20"/>
+      <c r="G330" s="55"/>
       <c r="H330" s="21"/>
       <c r="I330" s="21"/>
       <c r="J330" s="22"/>
@@ -9401,7 +9435,7 @@
       <c r="D331" s="19"/>
       <c r="E331" s="19"/>
       <c r="F331" s="20"/>
-      <c r="G331" s="20"/>
+      <c r="G331" s="55"/>
       <c r="H331" s="21"/>
       <c r="I331" s="21"/>
       <c r="J331" s="22"/>
@@ -9423,7 +9457,7 @@
       <c r="D332" s="19"/>
       <c r="E332" s="19"/>
       <c r="F332" s="20"/>
-      <c r="G332" s="20"/>
+      <c r="G332" s="55"/>
       <c r="H332" s="21"/>
       <c r="I332" s="21"/>
       <c r="J332" s="22"/>
@@ -9445,7 +9479,7 @@
       <c r="D333" s="19"/>
       <c r="E333" s="19"/>
       <c r="F333" s="20"/>
-      <c r="G333" s="20"/>
+      <c r="G333" s="55"/>
       <c r="H333" s="21"/>
       <c r="I333" s="21"/>
       <c r="J333" s="22"/>
@@ -9467,7 +9501,7 @@
       <c r="D334" s="19"/>
       <c r="E334" s="19"/>
       <c r="F334" s="20"/>
-      <c r="G334" s="20"/>
+      <c r="G334" s="55"/>
       <c r="H334" s="21"/>
       <c r="I334" s="21"/>
       <c r="J334" s="22"/>
@@ -9489,7 +9523,7 @@
       <c r="D335" s="19"/>
       <c r="E335" s="19"/>
       <c r="F335" s="20"/>
-      <c r="G335" s="20"/>
+      <c r="G335" s="55"/>
       <c r="H335" s="21"/>
       <c r="I335" s="21"/>
       <c r="J335" s="22"/>
@@ -9511,7 +9545,7 @@
       <c r="D336" s="19"/>
       <c r="E336" s="19"/>
       <c r="F336" s="20"/>
-      <c r="G336" s="20"/>
+      <c r="G336" s="55"/>
       <c r="H336" s="21"/>
       <c r="I336" s="21"/>
       <c r="J336" s="22"/>
@@ -9533,7 +9567,7 @@
       <c r="D337" s="19"/>
       <c r="E337" s="19"/>
       <c r="F337" s="20"/>
-      <c r="G337" s="20"/>
+      <c r="G337" s="55"/>
       <c r="H337" s="21"/>
       <c r="I337" s="21"/>
       <c r="J337" s="22"/>
@@ -9555,7 +9589,7 @@
       <c r="D338" s="19"/>
       <c r="E338" s="19"/>
       <c r="F338" s="20"/>
-      <c r="G338" s="20"/>
+      <c r="G338" s="55"/>
       <c r="H338" s="21"/>
       <c r="I338" s="21"/>
       <c r="J338" s="22"/>
@@ -9577,7 +9611,7 @@
       <c r="D339" s="19"/>
       <c r="E339" s="19"/>
       <c r="F339" s="20"/>
-      <c r="G339" s="20"/>
+      <c r="G339" s="55"/>
       <c r="H339" s="21"/>
       <c r="I339" s="21"/>
       <c r="J339" s="22"/>
@@ -9599,7 +9633,7 @@
       <c r="D340" s="19"/>
       <c r="E340" s="19"/>
       <c r="F340" s="20"/>
-      <c r="G340" s="20"/>
+      <c r="G340" s="55"/>
       <c r="H340" s="21"/>
       <c r="I340" s="21"/>
       <c r="J340" s="22"/>
@@ -9621,7 +9655,7 @@
       <c r="D341" s="19"/>
       <c r="E341" s="19"/>
       <c r="F341" s="20"/>
-      <c r="G341" s="20"/>
+      <c r="G341" s="55"/>
       <c r="H341" s="21"/>
       <c r="I341" s="21"/>
       <c r="J341" s="22"/>
@@ -9643,7 +9677,7 @@
       <c r="D342" s="19"/>
       <c r="E342" s="19"/>
       <c r="F342" s="20"/>
-      <c r="G342" s="20"/>
+      <c r="G342" s="55"/>
       <c r="H342" s="21"/>
       <c r="I342" s="21"/>
       <c r="J342" s="22"/>
@@ -9665,7 +9699,7 @@
       <c r="D343" s="19"/>
       <c r="E343" s="19"/>
       <c r="F343" s="20"/>
-      <c r="G343" s="20"/>
+      <c r="G343" s="55"/>
       <c r="H343" s="21"/>
       <c r="I343" s="21"/>
       <c r="J343" s="22"/>
@@ -9687,7 +9721,7 @@
       <c r="D344" s="19"/>
       <c r="E344" s="19"/>
       <c r="F344" s="20"/>
-      <c r="G344" s="20"/>
+      <c r="G344" s="55"/>
       <c r="H344" s="21"/>
       <c r="I344" s="21"/>
       <c r="J344" s="22"/>
@@ -9709,7 +9743,7 @@
       <c r="D345" s="19"/>
       <c r="E345" s="19"/>
       <c r="F345" s="20"/>
-      <c r="G345" s="20"/>
+      <c r="G345" s="55"/>
       <c r="H345" s="21"/>
       <c r="I345" s="21"/>
       <c r="J345" s="22"/>
@@ -9731,7 +9765,7 @@
       <c r="D346" s="19"/>
       <c r="E346" s="19"/>
       <c r="F346" s="20"/>
-      <c r="G346" s="20"/>
+      <c r="G346" s="55"/>
       <c r="H346" s="21"/>
       <c r="I346" s="21"/>
       <c r="J346" s="22"/>
@@ -9753,7 +9787,7 @@
       <c r="D347" s="19"/>
       <c r="E347" s="19"/>
       <c r="F347" s="20"/>
-      <c r="G347" s="20"/>
+      <c r="G347" s="55"/>
       <c r="H347" s="21"/>
       <c r="I347" s="21"/>
       <c r="J347" s="22"/>
@@ -9775,7 +9809,7 @@
       <c r="D348" s="19"/>
       <c r="E348" s="19"/>
       <c r="F348" s="20"/>
-      <c r="G348" s="20"/>
+      <c r="G348" s="55"/>
       <c r="H348" s="21"/>
       <c r="I348" s="21"/>
       <c r="J348" s="22"/>
@@ -9797,7 +9831,7 @@
       <c r="D349" s="19"/>
       <c r="E349" s="19"/>
       <c r="F349" s="20"/>
-      <c r="G349" s="20"/>
+      <c r="G349" s="55"/>
       <c r="H349" s="21"/>
       <c r="I349" s="21"/>
       <c r="J349" s="22"/>
@@ -9819,7 +9853,7 @@
       <c r="D350" s="19"/>
       <c r="E350" s="19"/>
       <c r="F350" s="20"/>
-      <c r="G350" s="20"/>
+      <c r="G350" s="55"/>
       <c r="H350" s="21"/>
       <c r="I350" s="21"/>
       <c r="J350" s="22"/>
@@ -9841,7 +9875,7 @@
       <c r="D351" s="19"/>
       <c r="E351" s="19"/>
       <c r="F351" s="20"/>
-      <c r="G351" s="20"/>
+      <c r="G351" s="55"/>
       <c r="H351" s="21"/>
       <c r="I351" s="21"/>
       <c r="J351" s="22"/>
@@ -9863,7 +9897,7 @@
       <c r="D352" s="19"/>
       <c r="E352" s="19"/>
       <c r="F352" s="20"/>
-      <c r="G352" s="20"/>
+      <c r="G352" s="55"/>
       <c r="H352" s="21"/>
       <c r="I352" s="21"/>
       <c r="J352" s="22"/>
@@ -9885,7 +9919,7 @@
       <c r="D353" s="19"/>
       <c r="E353" s="19"/>
       <c r="F353" s="20"/>
-      <c r="G353" s="20"/>
+      <c r="G353" s="55"/>
       <c r="H353" s="21"/>
       <c r="I353" s="21"/>
       <c r="J353" s="22"/>
@@ -9907,7 +9941,7 @@
       <c r="D354" s="19"/>
       <c r="E354" s="19"/>
       <c r="F354" s="20"/>
-      <c r="G354" s="20"/>
+      <c r="G354" s="55"/>
       <c r="H354" s="21"/>
       <c r="I354" s="21"/>
       <c r="J354" s="22"/>
@@ -9929,7 +9963,7 @@
       <c r="D355" s="19"/>
       <c r="E355" s="19"/>
       <c r="F355" s="20"/>
-      <c r="G355" s="20"/>
+      <c r="G355" s="55"/>
       <c r="H355" s="21"/>
       <c r="I355" s="21"/>
       <c r="J355" s="22"/>
@@ -9951,7 +9985,7 @@
       <c r="D356" s="19"/>
       <c r="E356" s="19"/>
       <c r="F356" s="20"/>
-      <c r="G356" s="20"/>
+      <c r="G356" s="55"/>
       <c r="H356" s="21"/>
       <c r="I356" s="21"/>
       <c r="J356" s="22"/>
@@ -9973,7 +10007,7 @@
       <c r="D357" s="19"/>
       <c r="E357" s="19"/>
       <c r="F357" s="20"/>
-      <c r="G357" s="20"/>
+      <c r="G357" s="55"/>
       <c r="H357" s="21"/>
       <c r="I357" s="21"/>
       <c r="J357" s="22"/>
@@ -9995,7 +10029,7 @@
       <c r="D358" s="19"/>
       <c r="E358" s="19"/>
       <c r="F358" s="20"/>
-      <c r="G358" s="20"/>
+      <c r="G358" s="55"/>
       <c r="H358" s="21"/>
       <c r="I358" s="21"/>
       <c r="J358" s="22"/>
@@ -10017,7 +10051,7 @@
       <c r="D359" s="19"/>
       <c r="E359" s="19"/>
       <c r="F359" s="20"/>
-      <c r="G359" s="20"/>
+      <c r="G359" s="55"/>
       <c r="H359" s="21"/>
       <c r="I359" s="21"/>
       <c r="J359" s="22"/>
@@ -10039,7 +10073,7 @@
       <c r="D360" s="19"/>
       <c r="E360" s="19"/>
       <c r="F360" s="20"/>
-      <c r="G360" s="20"/>
+      <c r="G360" s="55"/>
       <c r="H360" s="21"/>
       <c r="I360" s="21"/>
       <c r="J360" s="22"/>
@@ -10061,7 +10095,7 @@
       <c r="D361" s="19"/>
       <c r="E361" s="19"/>
       <c r="F361" s="20"/>
-      <c r="G361" s="20"/>
+      <c r="G361" s="55"/>
       <c r="H361" s="21"/>
       <c r="I361" s="21"/>
       <c r="J361" s="22"/>
@@ -10083,7 +10117,7 @@
       <c r="D362" s="19"/>
       <c r="E362" s="19"/>
       <c r="F362" s="20"/>
-      <c r="G362" s="20"/>
+      <c r="G362" s="55"/>
       <c r="H362" s="21"/>
       <c r="I362" s="21"/>
       <c r="J362" s="22"/>
@@ -10105,7 +10139,7 @@
       <c r="D363" s="19"/>
       <c r="E363" s="19"/>
       <c r="F363" s="20"/>
-      <c r="G363" s="20"/>
+      <c r="G363" s="55"/>
       <c r="H363" s="21"/>
       <c r="I363" s="21"/>
       <c r="J363" s="22"/>
@@ -10127,7 +10161,7 @@
       <c r="D364" s="19"/>
       <c r="E364" s="19"/>
       <c r="F364" s="20"/>
-      <c r="G364" s="20"/>
+      <c r="G364" s="55"/>
       <c r="H364" s="21"/>
       <c r="I364" s="21"/>
       <c r="J364" s="22"/>
@@ -10149,7 +10183,7 @@
       <c r="D365" s="19"/>
       <c r="E365" s="19"/>
       <c r="F365" s="20"/>
-      <c r="G365" s="20"/>
+      <c r="G365" s="55"/>
       <c r="H365" s="21"/>
       <c r="I365" s="21"/>
       <c r="J365" s="22"/>
@@ -10171,7 +10205,7 @@
       <c r="D366" s="19"/>
       <c r="E366" s="19"/>
       <c r="F366" s="20"/>
-      <c r="G366" s="20"/>
+      <c r="G366" s="55"/>
       <c r="H366" s="21"/>
       <c r="I366" s="21"/>
       <c r="J366" s="22"/>
@@ -10193,7 +10227,7 @@
       <c r="D367" s="19"/>
       <c r="E367" s="19"/>
       <c r="F367" s="20"/>
-      <c r="G367" s="20"/>
+      <c r="G367" s="55"/>
       <c r="H367" s="21"/>
       <c r="I367" s="21"/>
       <c r="J367" s="22"/>
@@ -10215,7 +10249,7 @@
       <c r="D368" s="19"/>
       <c r="E368" s="19"/>
       <c r="F368" s="20"/>
-      <c r="G368" s="20"/>
+      <c r="G368" s="55"/>
       <c r="H368" s="21"/>
       <c r="I368" s="21"/>
       <c r="J368" s="22"/>
@@ -10237,7 +10271,7 @@
       <c r="D369" s="19"/>
       <c r="E369" s="19"/>
       <c r="F369" s="20"/>
-      <c r="G369" s="20"/>
+      <c r="G369" s="55"/>
       <c r="H369" s="21"/>
       <c r="I369" s="21"/>
       <c r="J369" s="22"/>
@@ -10259,7 +10293,7 @@
       <c r="D370" s="19"/>
       <c r="E370" s="19"/>
       <c r="F370" s="20"/>
-      <c r="G370" s="20"/>
+      <c r="G370" s="55"/>
       <c r="H370" s="21"/>
       <c r="I370" s="21"/>
       <c r="J370" s="22"/>
@@ -10281,7 +10315,7 @@
       <c r="D371" s="19"/>
       <c r="E371" s="19"/>
       <c r="F371" s="20"/>
-      <c r="G371" s="20"/>
+      <c r="G371" s="55"/>
       <c r="H371" s="21"/>
       <c r="I371" s="21"/>
       <c r="J371" s="22"/>
@@ -10303,7 +10337,7 @@
       <c r="D372" s="19"/>
       <c r="E372" s="19"/>
       <c r="F372" s="20"/>
-      <c r="G372" s="20"/>
+      <c r="G372" s="55"/>
       <c r="H372" s="21"/>
       <c r="I372" s="21"/>
       <c r="J372" s="22"/>
@@ -10325,7 +10359,7 @@
       <c r="D373" s="19"/>
       <c r="E373" s="19"/>
       <c r="F373" s="20"/>
-      <c r="G373" s="20"/>
+      <c r="G373" s="55"/>
       <c r="H373" s="21"/>
       <c r="I373" s="21"/>
       <c r="J373" s="22"/>
@@ -10347,7 +10381,7 @@
       <c r="D374" s="19"/>
       <c r="E374" s="19"/>
       <c r="F374" s="20"/>
-      <c r="G374" s="20"/>
+      <c r="G374" s="55"/>
       <c r="H374" s="21"/>
       <c r="I374" s="21"/>
       <c r="J374" s="22"/>
@@ -10369,7 +10403,7 @@
       <c r="D375" s="19"/>
       <c r="E375" s="19"/>
       <c r="F375" s="20"/>
-      <c r="G375" s="20"/>
+      <c r="G375" s="55"/>
       <c r="H375" s="21"/>
       <c r="I375" s="21"/>
       <c r="J375" s="22"/>
@@ -10391,7 +10425,7 @@
       <c r="D376" s="19"/>
       <c r="E376" s="19"/>
       <c r="F376" s="20"/>
-      <c r="G376" s="20"/>
+      <c r="G376" s="55"/>
       <c r="H376" s="21"/>
       <c r="I376" s="21"/>
       <c r="J376" s="22"/>
@@ -10413,7 +10447,7 @@
       <c r="D377" s="19"/>
       <c r="E377" s="19"/>
       <c r="F377" s="20"/>
-      <c r="G377" s="20"/>
+      <c r="G377" s="55"/>
       <c r="H377" s="21"/>
       <c r="I377" s="21"/>
       <c r="J377" s="22"/>
@@ -10435,7 +10469,7 @@
       <c r="D378" s="19"/>
       <c r="E378" s="19"/>
       <c r="F378" s="20"/>
-      <c r="G378" s="20"/>
+      <c r="G378" s="55"/>
       <c r="H378" s="21"/>
       <c r="I378" s="21"/>
       <c r="J378" s="22"/>
@@ -10457,7 +10491,7 @@
       <c r="D379" s="19"/>
       <c r="E379" s="19"/>
       <c r="F379" s="20"/>
-      <c r="G379" s="20"/>
+      <c r="G379" s="55"/>
       <c r="H379" s="21"/>
       <c r="I379" s="21"/>
       <c r="J379" s="22"/>
@@ -10479,7 +10513,7 @@
       <c r="D380" s="19"/>
       <c r="E380" s="19"/>
       <c r="F380" s="20"/>
-      <c r="G380" s="20"/>
+      <c r="G380" s="55"/>
       <c r="H380" s="21"/>
       <c r="I380" s="21"/>
       <c r="J380" s="22"/>
@@ -10501,7 +10535,7 @@
       <c r="D381" s="19"/>
       <c r="E381" s="19"/>
       <c r="F381" s="20"/>
-      <c r="G381" s="20"/>
+      <c r="G381" s="55"/>
       <c r="H381" s="21"/>
       <c r="I381" s="21"/>
       <c r="J381" s="22"/>
@@ -10523,7 +10557,7 @@
       <c r="D382" s="19"/>
       <c r="E382" s="19"/>
       <c r="F382" s="20"/>
-      <c r="G382" s="20"/>
+      <c r="G382" s="55"/>
       <c r="H382" s="21"/>
       <c r="I382" s="21"/>
       <c r="J382" s="22"/>
@@ -10545,7 +10579,7 @@
       <c r="D383" s="19"/>
       <c r="E383" s="19"/>
       <c r="F383" s="20"/>
-      <c r="G383" s="20"/>
+      <c r="G383" s="55"/>
       <c r="H383" s="21"/>
       <c r="I383" s="21"/>
       <c r="J383" s="22"/>
@@ -10567,7 +10601,7 @@
       <c r="D384" s="19"/>
       <c r="E384" s="19"/>
       <c r="F384" s="20"/>
-      <c r="G384" s="20"/>
+      <c r="G384" s="55"/>
       <c r="H384" s="21"/>
       <c r="I384" s="21"/>
       <c r="J384" s="22"/>
@@ -10589,7 +10623,7 @@
       <c r="D385" s="19"/>
       <c r="E385" s="19"/>
       <c r="F385" s="20"/>
-      <c r="G385" s="20"/>
+      <c r="G385" s="55"/>
       <c r="H385" s="21"/>
       <c r="I385" s="21"/>
       <c r="J385" s="22"/>
@@ -10611,7 +10645,7 @@
       <c r="D386" s="19"/>
       <c r="E386" s="19"/>
       <c r="F386" s="20"/>
-      <c r="G386" s="20"/>
+      <c r="G386" s="55"/>
       <c r="H386" s="21"/>
       <c r="I386" s="21"/>
       <c r="J386" s="22"/>
@@ -10633,7 +10667,7 @@
       <c r="D387" s="19"/>
       <c r="E387" s="19"/>
       <c r="F387" s="20"/>
-      <c r="G387" s="20"/>
+      <c r="G387" s="55"/>
       <c r="H387" s="21"/>
       <c r="I387" s="21"/>
       <c r="J387" s="22"/>
@@ -10655,7 +10689,7 @@
       <c r="D388" s="19"/>
       <c r="E388" s="19"/>
       <c r="F388" s="20"/>
-      <c r="G388" s="20"/>
+      <c r="G388" s="55"/>
       <c r="H388" s="21"/>
       <c r="I388" s="21"/>
       <c r="J388" s="22"/>
@@ -10677,7 +10711,7 @@
       <c r="D389" s="19"/>
       <c r="E389" s="19"/>
       <c r="F389" s="20"/>
-      <c r="G389" s="20"/>
+      <c r="G389" s="55"/>
       <c r="H389" s="21"/>
       <c r="I389" s="21"/>
       <c r="J389" s="22"/>
@@ -10699,7 +10733,7 @@
       <c r="D390" s="19"/>
       <c r="E390" s="19"/>
       <c r="F390" s="20"/>
-      <c r="G390" s="20"/>
+      <c r="G390" s="55"/>
       <c r="H390" s="21"/>
       <c r="I390" s="21"/>
       <c r="J390" s="22"/>
@@ -10721,7 +10755,7 @@
       <c r="D391" s="19"/>
       <c r="E391" s="19"/>
       <c r="F391" s="20"/>
-      <c r="G391" s="20"/>
+      <c r="G391" s="55"/>
       <c r="H391" s="21"/>
       <c r="I391" s="21"/>
       <c r="J391" s="22"/>
@@ -10743,7 +10777,7 @@
       <c r="D392" s="19"/>
       <c r="E392" s="19"/>
       <c r="F392" s="20"/>
-      <c r="G392" s="20"/>
+      <c r="G392" s="55"/>
       <c r="H392" s="21"/>
       <c r="I392" s="21"/>
       <c r="J392" s="22"/>
@@ -10765,7 +10799,7 @@
       <c r="D393" s="19"/>
       <c r="E393" s="19"/>
       <c r="F393" s="20"/>
-      <c r="G393" s="20"/>
+      <c r="G393" s="55"/>
       <c r="H393" s="21"/>
       <c r="I393" s="21"/>
       <c r="J393" s="22"/>
@@ -10787,7 +10821,7 @@
       <c r="D394" s="19"/>
       <c r="E394" s="19"/>
       <c r="F394" s="20"/>
-      <c r="G394" s="20"/>
+      <c r="G394" s="55"/>
       <c r="H394" s="21"/>
       <c r="I394" s="21"/>
       <c r="J394" s="22"/>
@@ -10809,7 +10843,7 @@
       <c r="D395" s="19"/>
       <c r="E395" s="19"/>
       <c r="F395" s="20"/>
-      <c r="G395" s="20"/>
+      <c r="G395" s="55"/>
       <c r="H395" s="21"/>
       <c r="I395" s="21"/>
       <c r="J395" s="22"/>
@@ -10831,7 +10865,7 @@
       <c r="D396" s="19"/>
       <c r="E396" s="19"/>
       <c r="F396" s="20"/>
-      <c r="G396" s="20"/>
+      <c r="G396" s="55"/>
       <c r="H396" s="21"/>
       <c r="I396" s="21"/>
       <c r="J396" s="22"/>
@@ -10853,7 +10887,7 @@
       <c r="D397" s="19"/>
       <c r="E397" s="19"/>
       <c r="F397" s="20"/>
-      <c r="G397" s="20"/>
+      <c r="G397" s="55"/>
       <c r="H397" s="21"/>
       <c r="I397" s="21"/>
       <c r="J397" s="22"/>
@@ -10875,7 +10909,7 @@
       <c r="D398" s="19"/>
       <c r="E398" s="19"/>
       <c r="F398" s="20"/>
-      <c r="G398" s="20"/>
+      <c r="G398" s="55"/>
       <c r="H398" s="21"/>
       <c r="I398" s="21"/>
       <c r="J398" s="22"/>
@@ -10897,7 +10931,7 @@
       <c r="D399" s="19"/>
       <c r="E399" s="19"/>
       <c r="F399" s="20"/>
-      <c r="G399" s="20"/>
+      <c r="G399" s="55"/>
       <c r="H399" s="21"/>
       <c r="I399" s="21"/>
       <c r="J399" s="22"/>
@@ -10919,7 +10953,7 @@
       <c r="D400" s="19"/>
       <c r="E400" s="19"/>
       <c r="F400" s="20"/>
-      <c r="G400" s="20"/>
+      <c r="G400" s="55"/>
       <c r="H400" s="21"/>
       <c r="I400" s="21"/>
       <c r="J400" s="22"/>
@@ -10941,7 +10975,7 @@
       <c r="D401" s="19"/>
       <c r="E401" s="19"/>
       <c r="F401" s="20"/>
-      <c r="G401" s="20"/>
+      <c r="G401" s="55"/>
       <c r="H401" s="21"/>
       <c r="I401" s="21"/>
       <c r="J401" s="22"/>
@@ -10963,7 +10997,7 @@
       <c r="D402" s="19"/>
       <c r="E402" s="19"/>
       <c r="F402" s="20"/>
-      <c r="G402" s="20"/>
+      <c r="G402" s="55"/>
       <c r="H402" s="21"/>
       <c r="I402" s="21"/>
       <c r="J402" s="22"/>
@@ -10985,7 +11019,7 @@
       <c r="D403" s="19"/>
       <c r="E403" s="19"/>
       <c r="F403" s="20"/>
-      <c r="G403" s="20"/>
+      <c r="G403" s="55"/>
       <c r="H403" s="21"/>
       <c r="I403" s="21"/>
       <c r="J403" s="22"/>
@@ -11007,7 +11041,7 @@
       <c r="D404" s="19"/>
       <c r="E404" s="19"/>
       <c r="F404" s="20"/>
-      <c r="G404" s="20"/>
+      <c r="G404" s="55"/>
       <c r="H404" s="21"/>
       <c r="I404" s="21"/>
       <c r="J404" s="22"/>
@@ -11029,7 +11063,7 @@
       <c r="D405" s="19"/>
       <c r="E405" s="19"/>
       <c r="F405" s="20"/>
-      <c r="G405" s="20"/>
+      <c r="G405" s="55"/>
       <c r="H405" s="21"/>
       <c r="I405" s="21"/>
       <c r="J405" s="22"/>
@@ -11051,7 +11085,7 @@
       <c r="D406" s="19"/>
       <c r="E406" s="19"/>
       <c r="F406" s="20"/>
-      <c r="G406" s="20"/>
+      <c r="G406" s="55"/>
       <c r="H406" s="21"/>
       <c r="I406" s="21"/>
       <c r="J406" s="22"/>
@@ -11073,7 +11107,7 @@
       <c r="D407" s="19"/>
       <c r="E407" s="19"/>
       <c r="F407" s="20"/>
-      <c r="G407" s="20"/>
+      <c r="G407" s="55"/>
       <c r="H407" s="21"/>
       <c r="I407" s="21"/>
       <c r="J407" s="22"/>
@@ -11095,7 +11129,7 @@
       <c r="D408" s="19"/>
       <c r="E408" s="19"/>
       <c r="F408" s="20"/>
-      <c r="G408" s="20"/>
+      <c r="G408" s="55"/>
       <c r="H408" s="21"/>
       <c r="I408" s="21"/>
       <c r="J408" s="22"/>
@@ -11117,7 +11151,7 @@
       <c r="D409" s="19"/>
       <c r="E409" s="19"/>
       <c r="F409" s="20"/>
-      <c r="G409" s="20"/>
+      <c r="G409" s="55"/>
       <c r="H409" s="21"/>
       <c r="I409" s="21"/>
       <c r="J409" s="22"/>
@@ -11139,7 +11173,7 @@
       <c r="D410" s="19"/>
       <c r="E410" s="19"/>
       <c r="F410" s="20"/>
-      <c r="G410" s="20"/>
+      <c r="G410" s="55"/>
       <c r="H410" s="21"/>
       <c r="I410" s="21"/>
       <c r="J410" s="22"/>
@@ -11161,7 +11195,7 @@
       <c r="D411" s="19"/>
       <c r="E411" s="19"/>
       <c r="F411" s="20"/>
-      <c r="G411" s="20"/>
+      <c r="G411" s="55"/>
       <c r="H411" s="21"/>
       <c r="I411" s="21"/>
       <c r="J411" s="22"/>
@@ -11183,7 +11217,7 @@
       <c r="D412" s="19"/>
       <c r="E412" s="19"/>
       <c r="F412" s="20"/>
-      <c r="G412" s="20"/>
+      <c r="G412" s="55"/>
       <c r="H412" s="21"/>
       <c r="I412" s="21"/>
       <c r="J412" s="22"/>
@@ -11205,7 +11239,7 @@
       <c r="D413" s="19"/>
       <c r="E413" s="19"/>
       <c r="F413" s="20"/>
-      <c r="G413" s="20"/>
+      <c r="G413" s="55"/>
       <c r="H413" s="21"/>
       <c r="I413" s="21"/>
       <c r="J413" s="22"/>
@@ -11227,7 +11261,7 @@
       <c r="D414" s="19"/>
       <c r="E414" s="19"/>
       <c r="F414" s="20"/>
-      <c r="G414" s="20"/>
+      <c r="G414" s="55"/>
       <c r="H414" s="21"/>
       <c r="I414" s="21"/>
       <c r="J414" s="22"/>
@@ -11249,7 +11283,7 @@
       <c r="D415" s="19"/>
       <c r="E415" s="19"/>
       <c r="F415" s="20"/>
-      <c r="G415" s="20"/>
+      <c r="G415" s="55"/>
       <c r="H415" s="21"/>
       <c r="I415" s="21"/>
       <c r="J415" s="22"/>
@@ -11271,7 +11305,7 @@
       <c r="D416" s="19"/>
       <c r="E416" s="19"/>
       <c r="F416" s="20"/>
-      <c r="G416" s="20"/>
+      <c r="G416" s="55"/>
       <c r="H416" s="21"/>
       <c r="I416" s="21"/>
       <c r="J416" s="22"/>
@@ -11293,7 +11327,7 @@
       <c r="D417" s="19"/>
       <c r="E417" s="19"/>
       <c r="F417" s="20"/>
-      <c r="G417" s="20"/>
+      <c r="G417" s="55"/>
       <c r="H417" s="21"/>
       <c r="I417" s="21"/>
       <c r="J417" s="22"/>
@@ -11315,7 +11349,7 @@
       <c r="D418" s="19"/>
       <c r="E418" s="19"/>
       <c r="F418" s="20"/>
-      <c r="G418" s="20"/>
+      <c r="G418" s="55"/>
       <c r="H418" s="21"/>
       <c r="I418" s="21"/>
       <c r="J418" s="22"/>
@@ -11337,7 +11371,7 @@
       <c r="D419" s="19"/>
       <c r="E419" s="19"/>
       <c r="F419" s="20"/>
-      <c r="G419" s="20"/>
+      <c r="G419" s="55"/>
       <c r="H419" s="21"/>
       <c r="I419" s="21"/>
       <c r="J419" s="22"/>
@@ -11359,7 +11393,7 @@
       <c r="D420" s="19"/>
       <c r="E420" s="19"/>
       <c r="F420" s="20"/>
-      <c r="G420" s="20"/>
+      <c r="G420" s="55"/>
       <c r="H420" s="21"/>
       <c r="I420" s="21"/>
       <c r="J420" s="22"/>
@@ -11381,7 +11415,7 @@
       <c r="D421" s="19"/>
       <c r="E421" s="19"/>
       <c r="F421" s="20"/>
-      <c r="G421" s="20"/>
+      <c r="G421" s="55"/>
       <c r="H421" s="21"/>
       <c r="I421" s="21"/>
       <c r="J421" s="22"/>
@@ -11403,7 +11437,7 @@
       <c r="D422" s="19"/>
       <c r="E422" s="19"/>
       <c r="F422" s="20"/>
-      <c r="G422" s="20"/>
+      <c r="G422" s="55"/>
       <c r="H422" s="21"/>
       <c r="I422" s="21"/>
       <c r="J422" s="22"/>
@@ -11425,7 +11459,7 @@
       <c r="D423" s="19"/>
       <c r="E423" s="19"/>
       <c r="F423" s="20"/>
-      <c r="G423" s="20"/>
+      <c r="G423" s="55"/>
       <c r="H423" s="21"/>
       <c r="I423" s="21"/>
       <c r="J423" s="22"/>
@@ -11447,7 +11481,7 @@
       <c r="D424" s="19"/>
       <c r="E424" s="19"/>
       <c r="F424" s="20"/>
-      <c r="G424" s="20"/>
+      <c r="G424" s="55"/>
       <c r="H424" s="21"/>
       <c r="I424" s="21"/>
       <c r="J424" s="22"/>
@@ -11469,7 +11503,7 @@
       <c r="D425" s="19"/>
       <c r="E425" s="19"/>
       <c r="F425" s="20"/>
-      <c r="G425" s="20"/>
+      <c r="G425" s="55"/>
       <c r="H425" s="21"/>
       <c r="I425" s="21"/>
       <c r="J425" s="22"/>
@@ -11491,7 +11525,7 @@
       <c r="D426" s="19"/>
       <c r="E426" s="19"/>
       <c r="F426" s="20"/>
-      <c r="G426" s="20"/>
+      <c r="G426" s="55"/>
       <c r="H426" s="21"/>
       <c r="I426" s="21"/>
       <c r="J426" s="22"/>
@@ -11513,7 +11547,7 @@
       <c r="D427" s="19"/>
       <c r="E427" s="19"/>
       <c r="F427" s="20"/>
-      <c r="G427" s="20"/>
+      <c r="G427" s="55"/>
       <c r="H427" s="21"/>
       <c r="I427" s="21"/>
       <c r="J427" s="22"/>
@@ -11535,7 +11569,7 @@
       <c r="D428" s="19"/>
       <c r="E428" s="19"/>
       <c r="F428" s="20"/>
-      <c r="G428" s="20"/>
+      <c r="G428" s="55"/>
       <c r="H428" s="21"/>
       <c r="I428" s="21"/>
       <c r="J428" s="22"/>
@@ -11557,7 +11591,7 @@
       <c r="D429" s="19"/>
       <c r="E429" s="19"/>
       <c r="F429" s="20"/>
-      <c r="G429" s="20"/>
+      <c r="G429" s="55"/>
       <c r="H429" s="21"/>
       <c r="I429" s="21"/>
       <c r="J429" s="22"/>
@@ -11579,7 +11613,7 @@
       <c r="D430" s="19"/>
       <c r="E430" s="19"/>
       <c r="F430" s="20"/>
-      <c r="G430" s="20"/>
+      <c r="G430" s="55"/>
       <c r="H430" s="21"/>
       <c r="I430" s="21"/>
       <c r="J430" s="22"/>
@@ -11601,7 +11635,7 @@
       <c r="D431" s="19"/>
       <c r="E431" s="19"/>
       <c r="F431" s="20"/>
-      <c r="G431" s="20"/>
+      <c r="G431" s="55"/>
       <c r="H431" s="21"/>
       <c r="I431" s="21"/>
       <c r="J431" s="22"/>
@@ -11623,7 +11657,7 @@
       <c r="D432" s="19"/>
       <c r="E432" s="19"/>
       <c r="F432" s="20"/>
-      <c r="G432" s="20"/>
+      <c r="G432" s="55"/>
       <c r="H432" s="21"/>
       <c r="I432" s="21"/>
       <c r="J432" s="22"/>
@@ -11645,7 +11679,7 @@
       <c r="D433" s="19"/>
       <c r="E433" s="19"/>
       <c r="F433" s="20"/>
-      <c r="G433" s="20"/>
+      <c r="G433" s="55"/>
       <c r="H433" s="21"/>
       <c r="I433" s="21"/>
       <c r="J433" s="22"/>
@@ -11667,7 +11701,7 @@
       <c r="D434" s="19"/>
       <c r="E434" s="19"/>
       <c r="F434" s="20"/>
-      <c r="G434" s="20"/>
+      <c r="G434" s="55"/>
       <c r="H434" s="21"/>
       <c r="I434" s="21"/>
       <c r="J434" s="22"/>
@@ -11689,7 +11723,7 @@
       <c r="D435" s="19"/>
       <c r="E435" s="19"/>
       <c r="F435" s="20"/>
-      <c r="G435" s="20"/>
+      <c r="G435" s="55"/>
       <c r="H435" s="21"/>
       <c r="I435" s="21"/>
       <c r="J435" s="22"/>
@@ -11711,7 +11745,7 @@
       <c r="D436" s="19"/>
       <c r="E436" s="19"/>
       <c r="F436" s="20"/>
-      <c r="G436" s="20"/>
+      <c r="G436" s="55"/>
       <c r="H436" s="21"/>
       <c r="I436" s="21"/>
       <c r="J436" s="22"/>
@@ -11733,7 +11767,7 @@
       <c r="D437" s="19"/>
       <c r="E437" s="19"/>
       <c r="F437" s="20"/>
-      <c r="G437" s="20"/>
+      <c r="G437" s="55"/>
       <c r="H437" s="21"/>
       <c r="I437" s="21"/>
       <c r="J437" s="22"/>
@@ -11755,7 +11789,7 @@
       <c r="D438" s="19"/>
       <c r="E438" s="19"/>
       <c r="F438" s="20"/>
-      <c r="G438" s="20"/>
+      <c r="G438" s="55"/>
       <c r="H438" s="21"/>
       <c r="I438" s="21"/>
       <c r="J438" s="22"/>
@@ -11777,7 +11811,7 @@
       <c r="D439" s="19"/>
       <c r="E439" s="19"/>
       <c r="F439" s="20"/>
-      <c r="G439" s="20"/>
+      <c r="G439" s="55"/>
       <c r="H439" s="21"/>
       <c r="I439" s="21"/>
       <c r="J439" s="22"/>
@@ -11799,7 +11833,7 @@
       <c r="D440" s="19"/>
       <c r="E440" s="19"/>
       <c r="F440" s="20"/>
-      <c r="G440" s="20"/>
+      <c r="G440" s="55"/>
       <c r="H440" s="21"/>
       <c r="I440" s="21"/>
       <c r="J440" s="22"/>
@@ -11821,7 +11855,7 @@
       <c r="D441" s="19"/>
       <c r="E441" s="19"/>
       <c r="F441" s="20"/>
-      <c r="G441" s="20"/>
+      <c r="G441" s="55"/>
       <c r="H441" s="21"/>
       <c r="I441" s="21"/>
       <c r="J441" s="22"/>
@@ -11843,7 +11877,7 @@
       <c r="D442" s="19"/>
       <c r="E442" s="19"/>
       <c r="F442" s="20"/>
-      <c r="G442" s="20"/>
+      <c r="G442" s="55"/>
       <c r="H442" s="21"/>
       <c r="I442" s="21"/>
       <c r="J442" s="22"/>
@@ -11865,7 +11899,7 @@
       <c r="D443" s="19"/>
       <c r="E443" s="19"/>
       <c r="F443" s="20"/>
-      <c r="G443" s="20"/>
+      <c r="G443" s="55"/>
       <c r="H443" s="21"/>
       <c r="I443" s="21"/>
       <c r="J443" s="22"/>
@@ -11887,7 +11921,7 @@
       <c r="D444" s="19"/>
       <c r="E444" s="19"/>
       <c r="F444" s="20"/>
-      <c r="G444" s="20"/>
+      <c r="G444" s="55"/>
       <c r="H444" s="21"/>
       <c r="I444" s="21"/>
       <c r="J444" s="22"/>
@@ -11909,7 +11943,7 @@
       <c r="D445" s="19"/>
       <c r="E445" s="19"/>
       <c r="F445" s="20"/>
-      <c r="G445" s="20"/>
+      <c r="G445" s="55"/>
       <c r="H445" s="21"/>
       <c r="I445" s="21"/>
       <c r="J445" s="22"/>
@@ -11931,7 +11965,7 @@
       <c r="D446" s="19"/>
       <c r="E446" s="19"/>
       <c r="F446" s="20"/>
-      <c r="G446" s="20"/>
+      <c r="G446" s="55"/>
       <c r="H446" s="21"/>
       <c r="I446" s="21"/>
       <c r="J446" s="22"/>
@@ -11953,7 +11987,7 @@
       <c r="D447" s="19"/>
       <c r="E447" s="19"/>
       <c r="F447" s="20"/>
-      <c r="G447" s="20"/>
+      <c r="G447" s="55"/>
       <c r="H447" s="21"/>
       <c r="I447" s="21"/>
       <c r="J447" s="22"/>
@@ -11975,7 +12009,7 @@
       <c r="D448" s="19"/>
       <c r="E448" s="19"/>
       <c r="F448" s="20"/>
-      <c r="G448" s="20"/>
+      <c r="G448" s="55"/>
       <c r="H448" s="21"/>
       <c r="I448" s="21"/>
       <c r="J448" s="22"/>
@@ -11997,7 +12031,7 @@
       <c r="D449" s="19"/>
       <c r="E449" s="19"/>
       <c r="F449" s="20"/>
-      <c r="G449" s="20"/>
+      <c r="G449" s="55"/>
       <c r="H449" s="21"/>
       <c r="I449" s="21"/>
       <c r="J449" s="22"/>
@@ -12019,7 +12053,7 @@
       <c r="D450" s="19"/>
       <c r="E450" s="19"/>
       <c r="F450" s="20"/>
-      <c r="G450" s="20"/>
+      <c r="G450" s="55"/>
       <c r="H450" s="21"/>
       <c r="I450" s="21"/>
       <c r="J450" s="22"/>
@@ -12041,7 +12075,7 @@
       <c r="D451" s="19"/>
       <c r="E451" s="19"/>
       <c r="F451" s="20"/>
-      <c r="G451" s="20"/>
+      <c r="G451" s="55"/>
       <c r="H451" s="21"/>
       <c r="I451" s="21"/>
       <c r="J451" s="22"/>
@@ -12063,7 +12097,7 @@
       <c r="D452" s="19"/>
       <c r="E452" s="19"/>
       <c r="F452" s="20"/>
-      <c r="G452" s="20"/>
+      <c r="G452" s="55"/>
       <c r="H452" s="21"/>
       <c r="I452" s="21"/>
       <c r="J452" s="22"/>
@@ -12085,7 +12119,7 @@
       <c r="D453" s="19"/>
       <c r="E453" s="19"/>
       <c r="F453" s="20"/>
-      <c r="G453" s="20"/>
+      <c r="G453" s="55"/>
       <c r="H453" s="21"/>
       <c r="I453" s="21"/>
       <c r="J453" s="22"/>
@@ -12107,7 +12141,7 @@
       <c r="D454" s="19"/>
       <c r="E454" s="19"/>
       <c r="F454" s="20"/>
-      <c r="G454" s="20"/>
+      <c r="G454" s="55"/>
       <c r="H454" s="21"/>
       <c r="I454" s="21"/>
       <c r="J454" s="22"/>
@@ -12129,7 +12163,7 @@
       <c r="D455" s="19"/>
       <c r="E455" s="19"/>
       <c r="F455" s="20"/>
-      <c r="G455" s="20"/>
+      <c r="G455" s="55"/>
       <c r="H455" s="21"/>
       <c r="I455" s="21"/>
       <c r="J455" s="22"/>
@@ -12151,7 +12185,7 @@
       <c r="D456" s="19"/>
       <c r="E456" s="19"/>
       <c r="F456" s="20"/>
-      <c r="G456" s="20"/>
+      <c r="G456" s="55"/>
       <c r="H456" s="21"/>
       <c r="I456" s="21"/>
       <c r="J456" s="22"/>
@@ -12173,7 +12207,7 @@
       <c r="D457" s="19"/>
       <c r="E457" s="19"/>
       <c r="F457" s="20"/>
-      <c r="G457" s="20"/>
+      <c r="G457" s="55"/>
       <c r="H457" s="21"/>
       <c r="I457" s="21"/>
       <c r="J457" s="22"/>
@@ -12195,7 +12229,7 @@
       <c r="D458" s="19"/>
       <c r="E458" s="19"/>
       <c r="F458" s="20"/>
-      <c r="G458" s="20"/>
+      <c r="G458" s="55"/>
       <c r="H458" s="21"/>
       <c r="I458" s="21"/>
       <c r="J458" s="22"/>
@@ -12217,7 +12251,7 @@
       <c r="D459" s="19"/>
       <c r="E459" s="19"/>
       <c r="F459" s="20"/>
-      <c r="G459" s="20"/>
+      <c r="G459" s="55"/>
       <c r="H459" s="21"/>
       <c r="I459" s="21"/>
       <c r="J459" s="22"/>
@@ -12239,7 +12273,7 @@
       <c r="D460" s="19"/>
       <c r="E460" s="19"/>
       <c r="F460" s="20"/>
-      <c r="G460" s="20"/>
+      <c r="G460" s="55"/>
       <c r="H460" s="21"/>
       <c r="I460" s="21"/>
       <c r="J460" s="22"/>
@@ -12261,7 +12295,7 @@
       <c r="D461" s="19"/>
       <c r="E461" s="19"/>
       <c r="F461" s="20"/>
-      <c r="G461" s="20"/>
+      <c r="G461" s="55"/>
       <c r="H461" s="21"/>
       <c r="I461" s="21"/>
       <c r="J461" s="22"/>
@@ -12283,7 +12317,7 @@
       <c r="D462" s="19"/>
       <c r="E462" s="19"/>
       <c r="F462" s="20"/>
-      <c r="G462" s="20"/>
+      <c r="G462" s="55"/>
       <c r="H462" s="21"/>
       <c r="I462" s="21"/>
       <c r="J462" s="22"/>
@@ -12305,7 +12339,7 @@
       <c r="D463" s="19"/>
       <c r="E463" s="19"/>
       <c r="F463" s="20"/>
-      <c r="G463" s="20"/>
+      <c r="G463" s="55"/>
       <c r="H463" s="21"/>
       <c r="I463" s="21"/>
       <c r="J463" s="22"/>
@@ -12327,7 +12361,7 @@
       <c r="D464" s="19"/>
       <c r="E464" s="19"/>
       <c r="F464" s="20"/>
-      <c r="G464" s="20"/>
+      <c r="G464" s="55"/>
       <c r="H464" s="21"/>
       <c r="I464" s="21"/>
       <c r="J464" s="22"/>
@@ -12349,7 +12383,7 @@
       <c r="D465" s="19"/>
       <c r="E465" s="19"/>
       <c r="F465" s="20"/>
-      <c r="G465" s="20"/>
+      <c r="G465" s="55"/>
       <c r="H465" s="21"/>
       <c r="I465" s="21"/>
       <c r="J465" s="22"/>
@@ -12371,7 +12405,7 @@
       <c r="D466" s="19"/>
       <c r="E466" s="19"/>
       <c r="F466" s="20"/>
-      <c r="G466" s="20"/>
+      <c r="G466" s="55"/>
       <c r="H466" s="21"/>
       <c r="I466" s="21"/>
       <c r="J466" s="22"/>
@@ -12393,7 +12427,7 @@
       <c r="D467" s="19"/>
       <c r="E467" s="19"/>
       <c r="F467" s="20"/>
-      <c r="G467" s="20"/>
+      <c r="G467" s="55"/>
       <c r="H467" s="21"/>
       <c r="I467" s="21"/>
       <c r="J467" s="22"/>
@@ -12415,7 +12449,7 @@
       <c r="D468" s="19"/>
       <c r="E468" s="19"/>
       <c r="F468" s="20"/>
-      <c r="G468" s="20"/>
+      <c r="G468" s="55"/>
       <c r="H468" s="21"/>
       <c r="I468" s="21"/>
       <c r="J468" s="22"/>
@@ -12437,7 +12471,7 @@
       <c r="D469" s="19"/>
       <c r="E469" s="19"/>
       <c r="F469" s="20"/>
-      <c r="G469" s="20"/>
+      <c r="G469" s="55"/>
       <c r="H469" s="21"/>
       <c r="I469" s="21"/>
       <c r="J469" s="22"/>
@@ -12459,7 +12493,7 @@
       <c r="D470" s="19"/>
       <c r="E470" s="19"/>
       <c r="F470" s="20"/>
-      <c r="G470" s="20"/>
+      <c r="G470" s="55"/>
       <c r="H470" s="21"/>
       <c r="I470" s="21"/>
       <c r="J470" s="22"/>
@@ -12481,7 +12515,7 @@
       <c r="D471" s="19"/>
       <c r="E471" s="19"/>
       <c r="F471" s="20"/>
-      <c r="G471" s="20"/>
+      <c r="G471" s="55"/>
       <c r="H471" s="21"/>
       <c r="I471" s="21"/>
       <c r="J471" s="22"/>
@@ -12503,7 +12537,7 @@
       <c r="D472" s="19"/>
       <c r="E472" s="19"/>
       <c r="F472" s="20"/>
-      <c r="G472" s="20"/>
+      <c r="G472" s="55"/>
       <c r="H472" s="21"/>
       <c r="I472" s="21"/>
       <c r="J472" s="22"/>
@@ -12525,7 +12559,7 @@
       <c r="D473" s="19"/>
       <c r="E473" s="19"/>
       <c r="F473" s="20"/>
-      <c r="G473" s="20"/>
+      <c r="G473" s="55"/>
       <c r="H473" s="21"/>
       <c r="I473" s="21"/>
       <c r="J473" s="22"/>
@@ -12547,7 +12581,7 @@
       <c r="D474" s="19"/>
       <c r="E474" s="19"/>
       <c r="F474" s="20"/>
-      <c r="G474" s="20"/>
+      <c r="G474" s="55"/>
       <c r="H474" s="21"/>
       <c r="I474" s="21"/>
       <c r="J474" s="22"/>
@@ -12569,7 +12603,7 @@
       <c r="D475" s="19"/>
       <c r="E475" s="19"/>
       <c r="F475" s="20"/>
-      <c r="G475" s="20"/>
+      <c r="G475" s="55"/>
       <c r="H475" s="21"/>
       <c r="I475" s="21"/>
       <c r="J475" s="22"/>
@@ -12591,7 +12625,7 @@
       <c r="D476" s="19"/>
       <c r="E476" s="19"/>
       <c r="F476" s="20"/>
-      <c r="G476" s="20"/>
+      <c r="G476" s="55"/>
       <c r="H476" s="21"/>
       <c r="I476" s="21"/>
       <c r="J476" s="22"/>
@@ -12613,7 +12647,7 @@
       <c r="D477" s="19"/>
       <c r="E477" s="19"/>
       <c r="F477" s="20"/>
-      <c r="G477" s="20"/>
+      <c r="G477" s="55"/>
       <c r="H477" s="21"/>
       <c r="I477" s="21"/>
       <c r="J477" s="22"/>
@@ -12635,7 +12669,7 @@
       <c r="D478" s="19"/>
       <c r="E478" s="19"/>
       <c r="F478" s="20"/>
-      <c r="G478" s="20"/>
+      <c r="G478" s="55"/>
       <c r="H478" s="21"/>
       <c r="I478" s="21"/>
       <c r="J478" s="22"/>
@@ -12657,7 +12691,7 @@
       <c r="D479" s="19"/>
       <c r="E479" s="19"/>
       <c r="F479" s="20"/>
-      <c r="G479" s="20"/>
+      <c r="G479" s="55"/>
       <c r="H479" s="21"/>
       <c r="I479" s="21"/>
       <c r="J479" s="22"/>
@@ -12679,7 +12713,7 @@
       <c r="D480" s="19"/>
       <c r="E480" s="19"/>
       <c r="F480" s="20"/>
-      <c r="G480" s="20"/>
+      <c r="G480" s="55"/>
       <c r="H480" s="21"/>
       <c r="I480" s="21"/>
       <c r="J480" s="22"/>
@@ -12701,7 +12735,7 @@
       <c r="D481" s="19"/>
       <c r="E481" s="19"/>
       <c r="F481" s="20"/>
-      <c r="G481" s="20"/>
+      <c r="G481" s="55"/>
       <c r="H481" s="21"/>
       <c r="I481" s="21"/>
       <c r="J481" s="22"/>
@@ -12723,7 +12757,7 @@
       <c r="D482" s="19"/>
       <c r="E482" s="19"/>
       <c r="F482" s="20"/>
-      <c r="G482" s="20"/>
+      <c r="G482" s="55"/>
       <c r="H482" s="21"/>
       <c r="I482" s="21"/>
       <c r="J482" s="22"/>
@@ -12745,7 +12779,7 @@
       <c r="D483" s="19"/>
       <c r="E483" s="19"/>
       <c r="F483" s="20"/>
-      <c r="G483" s="20"/>
+      <c r="G483" s="55"/>
       <c r="H483" s="21"/>
       <c r="I483" s="21"/>
       <c r="J483" s="22"/>
@@ -12767,7 +12801,7 @@
       <c r="D484" s="19"/>
       <c r="E484" s="19"/>
       <c r="F484" s="20"/>
-      <c r="G484" s="20"/>
+      <c r="G484" s="55"/>
       <c r="H484" s="21"/>
       <c r="I484" s="21"/>
       <c r="J484" s="22"/>
@@ -12789,7 +12823,7 @@
       <c r="D485" s="19"/>
       <c r="E485" s="19"/>
       <c r="F485" s="20"/>
-      <c r="G485" s="20"/>
+      <c r="G485" s="55"/>
       <c r="H485" s="21"/>
       <c r="I485" s="21"/>
       <c r="J485" s="22"/>
@@ -12811,7 +12845,7 @@
       <c r="D486" s="19"/>
       <c r="E486" s="19"/>
       <c r="F486" s="20"/>
-      <c r="G486" s="20"/>
+      <c r="G486" s="55"/>
       <c r="H486" s="21"/>
       <c r="I486" s="21"/>
       <c r="J486" s="22"/>
@@ -12833,7 +12867,7 @@
       <c r="D487" s="19"/>
       <c r="E487" s="19"/>
       <c r="F487" s="20"/>
-      <c r="G487" s="20"/>
+      <c r="G487" s="55"/>
       <c r="H487" s="21"/>
       <c r="I487" s="21"/>
       <c r="J487" s="22"/>
@@ -12855,7 +12889,7 @@
       <c r="D488" s="19"/>
       <c r="E488" s="19"/>
       <c r="F488" s="20"/>
-      <c r="G488" s="20"/>
+      <c r="G488" s="55"/>
       <c r="H488" s="21"/>
       <c r="I488" s="21"/>
       <c r="J488" s="22"/>
@@ -12877,7 +12911,7 @@
       <c r="D489" s="19"/>
       <c r="E489" s="19"/>
       <c r="F489" s="20"/>
-      <c r="G489" s="20"/>
+      <c r="G489" s="55"/>
       <c r="H489" s="21"/>
       <c r="I489" s="21"/>
       <c r="J489" s="22"/>
@@ -12899,7 +12933,7 @@
       <c r="D490" s="19"/>
       <c r="E490" s="19"/>
       <c r="F490" s="20"/>
-      <c r="G490" s="20"/>
+      <c r="G490" s="55"/>
       <c r="H490" s="21"/>
       <c r="I490" s="21"/>
       <c r="J490" s="22"/>
@@ -12921,7 +12955,7 @@
       <c r="D491" s="19"/>
       <c r="E491" s="19"/>
       <c r="F491" s="20"/>
-      <c r="G491" s="20"/>
+      <c r="G491" s="55"/>
       <c r="H491" s="21"/>
       <c r="I491" s="21"/>
       <c r="J491" s="22"/>
@@ -12943,7 +12977,7 @@
       <c r="D492" s="19"/>
       <c r="E492" s="19"/>
       <c r="F492" s="20"/>
-      <c r="G492" s="20"/>
+      <c r="G492" s="55"/>
       <c r="H492" s="21"/>
       <c r="I492" s="21"/>
       <c r="J492" s="22"/>
@@ -12965,7 +12999,7 @@
       <c r="D493" s="19"/>
       <c r="E493" s="19"/>
       <c r="F493" s="20"/>
-      <c r="G493" s="20"/>
+      <c r="G493" s="55"/>
       <c r="H493" s="21"/>
       <c r="I493" s="21"/>
       <c r="J493" s="22"/>
@@ -12987,7 +13021,7 @@
       <c r="D494" s="19"/>
       <c r="E494" s="19"/>
       <c r="F494" s="20"/>
-      <c r="G494" s="20"/>
+      <c r="G494" s="55"/>
       <c r="H494" s="21"/>
       <c r="I494" s="21"/>
       <c r="J494" s="22"/>
@@ -13009,7 +13043,7 @@
       <c r="D495" s="19"/>
       <c r="E495" s="19"/>
       <c r="F495" s="20"/>
-      <c r="G495" s="20"/>
+      <c r="G495" s="55"/>
       <c r="H495" s="21"/>
       <c r="I495" s="21"/>
       <c r="J495" s="22"/>
@@ -13031,7 +13065,7 @@
       <c r="D496" s="19"/>
       <c r="E496" s="19"/>
       <c r="F496" s="20"/>
-      <c r="G496" s="20"/>
+      <c r="G496" s="55"/>
       <c r="H496" s="21"/>
       <c r="I496" s="21"/>
       <c r="J496" s="22"/>
@@ -13053,7 +13087,7 @@
       <c r="D497" s="19"/>
       <c r="E497" s="19"/>
       <c r="F497" s="20"/>
-      <c r="G497" s="20"/>
+      <c r="G497" s="55"/>
       <c r="H497" s="21"/>
       <c r="I497" s="21"/>
       <c r="J497" s="22"/>
@@ -13075,7 +13109,7 @@
       <c r="D498" s="19"/>
       <c r="E498" s="19"/>
       <c r="F498" s="20"/>
-      <c r="G498" s="20"/>
+      <c r="G498" s="55"/>
       <c r="H498" s="21"/>
       <c r="I498" s="21"/>
       <c r="J498" s="22"/>
@@ -13097,7 +13131,7 @@
       <c r="D499" s="19"/>
       <c r="E499" s="19"/>
       <c r="F499" s="20"/>
-      <c r="G499" s="20"/>
+      <c r="G499" s="55"/>
       <c r="H499" s="21"/>
       <c r="I499" s="21"/>
       <c r="J499" s="22"/>
@@ -13119,7 +13153,7 @@
       <c r="D500" s="19"/>
       <c r="E500" s="19"/>
       <c r="F500" s="20"/>
-      <c r="G500" s="20"/>
+      <c r="G500" s="55"/>
       <c r="H500" s="21"/>
       <c r="I500" s="21"/>
       <c r="J500" s="22"/>
@@ -13141,7 +13175,7 @@
       <c r="D501" s="19"/>
       <c r="E501" s="19"/>
       <c r="F501" s="20"/>
-      <c r="G501" s="20"/>
+      <c r="G501" s="55"/>
       <c r="H501" s="21"/>
       <c r="I501" s="21"/>
       <c r="J501" s="22"/>
@@ -13163,7 +13197,7 @@
       <c r="D502" s="19"/>
       <c r="E502" s="19"/>
       <c r="F502" s="20"/>
-      <c r="G502" s="20"/>
+      <c r="G502" s="55"/>
       <c r="H502" s="21"/>
       <c r="I502" s="21"/>
       <c r="J502" s="22"/>
@@ -13185,7 +13219,7 @@
       <c r="D503" s="19"/>
       <c r="E503" s="19"/>
       <c r="F503" s="20"/>
-      <c r="G503" s="20"/>
+      <c r="G503" s="55"/>
       <c r="H503" s="21"/>
       <c r="I503" s="21"/>
       <c r="J503" s="22"/>
@@ -13207,7 +13241,7 @@
       <c r="D504" s="19"/>
       <c r="E504" s="19"/>
       <c r="F504" s="20"/>
-      <c r="G504" s="20"/>
+      <c r="G504" s="55"/>
       <c r="H504" s="21"/>
       <c r="I504" s="21"/>
       <c r="J504" s="22"/>
@@ -13229,7 +13263,7 @@
       <c r="D505" s="19"/>
       <c r="E505" s="19"/>
       <c r="F505" s="20"/>
-      <c r="G505" s="20"/>
+      <c r="G505" s="55"/>
       <c r="H505" s="21"/>
       <c r="I505" s="21"/>
       <c r="J505" s="22"/>
@@ -13251,7 +13285,7 @@
       <c r="D506" s="19"/>
       <c r="E506" s="19"/>
       <c r="F506" s="20"/>
-      <c r="G506" s="20"/>
+      <c r="G506" s="55"/>
       <c r="H506" s="21"/>
       <c r="I506" s="21"/>
       <c r="J506" s="22"/>
@@ -13273,7 +13307,7 @@
       <c r="D507" s="19"/>
       <c r="E507" s="19"/>
       <c r="F507" s="20"/>
-      <c r="G507" s="20"/>
+      <c r="G507" s="55"/>
       <c r="H507" s="21"/>
       <c r="I507" s="21"/>
       <c r="J507" s="22"/>
@@ -13295,7 +13329,7 @@
       <c r="D508" s="19"/>
       <c r="E508" s="19"/>
       <c r="F508" s="20"/>
-      <c r="G508" s="20"/>
+      <c r="G508" s="55"/>
       <c r="H508" s="21"/>
       <c r="I508" s="21"/>
       <c r="J508" s="22"/>
@@ -13317,7 +13351,7 @@
       <c r="D509" s="19"/>
       <c r="E509" s="19"/>
       <c r="F509" s="20"/>
-      <c r="G509" s="20"/>
+      <c r="G509" s="55"/>
       <c r="H509" s="21"/>
       <c r="I509" s="21"/>
       <c r="J509" s="22"/>
@@ -13339,7 +13373,7 @@
       <c r="D510" s="19"/>
       <c r="E510" s="19"/>
       <c r="F510" s="20"/>
-      <c r="G510" s="20"/>
+      <c r="G510" s="55"/>
       <c r="H510" s="21"/>
       <c r="I510" s="21"/>
       <c r="J510" s="22"/>
@@ -13361,7 +13395,7 @@
       <c r="D511" s="19"/>
       <c r="E511" s="19"/>
       <c r="F511" s="20"/>
-      <c r="G511" s="20"/>
+      <c r="G511" s="55"/>
       <c r="H511" s="21"/>
       <c r="I511" s="21"/>
       <c r="J511" s="22"/>
@@ -13383,7 +13417,7 @@
       <c r="D512" s="19"/>
       <c r="E512" s="19"/>
       <c r="F512" s="20"/>
-      <c r="G512" s="20"/>
+      <c r="G512" s="55"/>
       <c r="H512" s="21"/>
       <c r="I512" s="21"/>
       <c r="J512" s="22"/>
@@ -13405,7 +13439,7 @@
       <c r="D513" s="19"/>
       <c r="E513" s="19"/>
       <c r="F513" s="20"/>
-      <c r="G513" s="20"/>
+      <c r="G513" s="55"/>
       <c r="H513" s="21"/>
       <c r="I513" s="21"/>
       <c r="J513" s="22"/>
@@ -13427,7 +13461,7 @@
       <c r="D514" s="19"/>
       <c r="E514" s="19"/>
       <c r="F514" s="20"/>
-      <c r="G514" s="20"/>
+      <c r="G514" s="55"/>
       <c r="H514" s="21"/>
       <c r="I514" s="21"/>
       <c r="J514" s="22"/>
@@ -13449,7 +13483,7 @@
       <c r="D515" s="19"/>
       <c r="E515" s="19"/>
       <c r="F515" s="20"/>
-      <c r="G515" s="20"/>
+      <c r="G515" s="55"/>
       <c r="H515" s="21"/>
       <c r="I515" s="21"/>
       <c r="J515" s="22"/>
@@ -13471,7 +13505,7 @@
       <c r="D516" s="19"/>
       <c r="E516" s="19"/>
       <c r="F516" s="20"/>
-      <c r="G516" s="20"/>
+      <c r="G516" s="55"/>
       <c r="H516" s="21"/>
       <c r="I516" s="21"/>
       <c r="J516" s="22"/>
@@ -13493,7 +13527,7 @@
       <c r="D517" s="19"/>
       <c r="E517" s="19"/>
       <c r="F517" s="20"/>
-      <c r="G517" s="20"/>
+      <c r="G517" s="55"/>
       <c r="H517" s="21"/>
       <c r="I517" s="21"/>
       <c r="J517" s="22"/>
@@ -13515,7 +13549,7 @@
       <c r="D518" s="19"/>
       <c r="E518" s="19"/>
       <c r="F518" s="20"/>
-      <c r="G518" s="20"/>
+      <c r="G518" s="55"/>
       <c r="H518" s="21"/>
       <c r="I518" s="21"/>
       <c r="J518" s="22"/>
@@ -13537,7 +13571,7 @@
       <c r="D519" s="19"/>
       <c r="E519" s="19"/>
       <c r="F519" s="20"/>
-      <c r="G519" s="20"/>
+      <c r="G519" s="55"/>
       <c r="H519" s="21"/>
       <c r="I519" s="21"/>
       <c r="J519" s="22"/>
@@ -13559,7 +13593,7 @@
       <c r="D520" s="19"/>
       <c r="E520" s="19"/>
       <c r="F520" s="20"/>
-      <c r="G520" s="20"/>
+      <c r="G520" s="55"/>
       <c r="H520" s="21"/>
       <c r="I520" s="21"/>
       <c r="J520" s="22"/>
@@ -13581,7 +13615,7 @@
       <c r="D521" s="19"/>
       <c r="E521" s="19"/>
       <c r="F521" s="20"/>
-      <c r="G521" s="20"/>
+      <c r="G521" s="55"/>
       <c r="H521" s="21"/>
       <c r="I521" s="21"/>
       <c r="J521" s="22"/>
@@ -13603,7 +13637,7 @@
       <c r="D522" s="19"/>
       <c r="E522" s="19"/>
       <c r="F522" s="20"/>
-      <c r="G522" s="20"/>
+      <c r="G522" s="55"/>
       <c r="H522" s="21"/>
       <c r="I522" s="21"/>
       <c r="J522" s="22"/>
@@ -13625,7 +13659,7 @@
       <c r="D523" s="19"/>
       <c r="E523" s="19"/>
       <c r="F523" s="20"/>
-      <c r="G523" s="20"/>
+      <c r="G523" s="55"/>
       <c r="H523" s="21"/>
       <c r="I523" s="21"/>
       <c r="J523" s="22"/>
@@ -13647,7 +13681,7 @@
       <c r="D524" s="19"/>
       <c r="E524" s="19"/>
       <c r="F524" s="20"/>
-      <c r="G524" s="20"/>
+      <c r="G524" s="55"/>
       <c r="H524" s="21"/>
       <c r="I524" s="21"/>
       <c r="J524" s="22"/>
@@ -13669,7 +13703,7 @@
       <c r="D525" s="19"/>
       <c r="E525" s="19"/>
       <c r="F525" s="20"/>
-      <c r="G525" s="20"/>
+      <c r="G525" s="55"/>
       <c r="H525" s="21"/>
       <c r="I525" s="21"/>
       <c r="J525" s="22"/>
@@ -13691,7 +13725,7 @@
       <c r="D526" s="19"/>
       <c r="E526" s="19"/>
       <c r="F526" s="20"/>
-      <c r="G526" s="20"/>
+      <c r="G526" s="55"/>
       <c r="H526" s="21"/>
       <c r="I526" s="21"/>
       <c r="J526" s="22"/>
@@ -13713,7 +13747,7 @@
       <c r="D527" s="19"/>
       <c r="E527" s="19"/>
       <c r="F527" s="20"/>
-      <c r="G527" s="20"/>
+      <c r="G527" s="55"/>
       <c r="H527" s="21"/>
       <c r="I527" s="21"/>
       <c r="J527" s="22"/>
@@ -13735,7 +13769,7 @@
       <c r="D528" s="19"/>
       <c r="E528" s="19"/>
       <c r="F528" s="20"/>
-      <c r="G528" s="20"/>
+      <c r="G528" s="55"/>
       <c r="H528" s="21"/>
       <c r="I528" s="21"/>
       <c r="J528" s="22"/>
@@ -13757,7 +13791,7 @@
       <c r="D529" s="19"/>
       <c r="E529" s="19"/>
       <c r="F529" s="20"/>
-      <c r="G529" s="20"/>
+      <c r="G529" s="55"/>
       <c r="H529" s="21"/>
       <c r="I529" s="21"/>
       <c r="J529" s="22"/>
@@ -13779,7 +13813,7 @@
       <c r="D530" s="19"/>
       <c r="E530" s="19"/>
       <c r="F530" s="20"/>
-      <c r="G530" s="20"/>
+      <c r="G530" s="55"/>
       <c r="H530" s="21"/>
       <c r="I530" s="21"/>
       <c r="J530" s="22"/>
@@ -13801,7 +13835,7 @@
       <c r="D531" s="19"/>
       <c r="E531" s="19"/>
       <c r="F531" s="20"/>
-      <c r="G531" s="20"/>
+      <c r="G531" s="55"/>
       <c r="H531" s="21"/>
       <c r="I531" s="21"/>
       <c r="J531" s="22"/>
@@ -13823,7 +13857,7 @@
       <c r="D532" s="19"/>
       <c r="E532" s="19"/>
       <c r="F532" s="20"/>
-      <c r="G532" s="20"/>
+      <c r="G532" s="55"/>
       <c r="H532" s="21"/>
       <c r="I532" s="21"/>
       <c r="J532" s="22"/>
@@ -13845,7 +13879,7 @@
       <c r="D533" s="19"/>
       <c r="E533" s="19"/>
       <c r="F533" s="20"/>
-      <c r="G533" s="20"/>
+      <c r="G533" s="55"/>
       <c r="H533" s="21"/>
       <c r="I533" s="21"/>
       <c r="J533" s="22"/>
@@ -13867,7 +13901,7 @@
       <c r="D534" s="19"/>
       <c r="E534" s="19"/>
       <c r="F534" s="20"/>
-      <c r="G534" s="20"/>
+      <c r="G534" s="55"/>
       <c r="H534" s="21"/>
       <c r="I534" s="21"/>
       <c r="J534" s="22"/>
@@ -13889,7 +13923,7 @@
       <c r="D535" s="19"/>
       <c r="E535" s="19"/>
       <c r="F535" s="20"/>
-      <c r="G535" s="20"/>
+      <c r="G535" s="55"/>
       <c r="H535" s="21"/>
       <c r="I535" s="21"/>
       <c r="J535" s="22"/>
@@ -13911,7 +13945,7 @@
       <c r="D536" s="19"/>
       <c r="E536" s="19"/>
       <c r="F536" s="20"/>
-      <c r="G536" s="20"/>
+      <c r="G536" s="55"/>
       <c r="H536" s="21"/>
       <c r="I536" s="21"/>
       <c r="J536" s="22"/>
@@ -13933,7 +13967,7 @@
       <c r="D537" s="19"/>
       <c r="E537" s="19"/>
       <c r="F537" s="20"/>
-      <c r="G537" s="20"/>
+      <c r="G537" s="55"/>
       <c r="H537" s="21"/>
       <c r="I537" s="21"/>
       <c r="J537" s="22"/>
@@ -13955,7 +13989,7 @@
       <c r="D538" s="19"/>
       <c r="E538" s="19"/>
       <c r="F538" s="20"/>
-      <c r="G538" s="20"/>
+      <c r="G538" s="55"/>
       <c r="H538" s="21"/>
       <c r="I538" s="21"/>
       <c r="J538" s="22"/>
@@ -13977,7 +14011,7 @@
       <c r="D539" s="19"/>
       <c r="E539" s="19"/>
       <c r="F539" s="20"/>
-      <c r="G539" s="20"/>
+      <c r="G539" s="55"/>
       <c r="H539" s="21"/>
       <c r="I539" s="21"/>
       <c r="J539" s="22"/>
@@ -13999,7 +14033,7 @@
       <c r="D540" s="19"/>
       <c r="E540" s="19"/>
       <c r="F540" s="20"/>
-      <c r="G540" s="20"/>
+      <c r="G540" s="55"/>
       <c r="H540" s="21"/>
       <c r="I540" s="21"/>
       <c r="J540" s="22"/>
@@ -14021,7 +14055,7 @@
       <c r="D541" s="19"/>
       <c r="E541" s="19"/>
       <c r="F541" s="20"/>
-      <c r="G541" s="20"/>
+      <c r="G541" s="55"/>
       <c r="H541" s="21"/>
       <c r="I541" s="21"/>
       <c r="J541" s="22"/>
@@ -14043,7 +14077,7 @@
       <c r="D542" s="19"/>
       <c r="E542" s="19"/>
       <c r="F542" s="20"/>
-      <c r="G542" s="20"/>
+      <c r="G542" s="55"/>
       <c r="H542" s="21"/>
       <c r="I542" s="21"/>
       <c r="J542" s="22"/>
@@ -14065,7 +14099,7 @@
       <c r="D543" s="19"/>
       <c r="E543" s="19"/>
       <c r="F543" s="20"/>
-      <c r="G543" s="20"/>
+      <c r="G543" s="55"/>
       <c r="H543" s="21"/>
       <c r="I543" s="21"/>
       <c r="J543" s="22"/>
@@ -14087,7 +14121,7 @@
       <c r="D544" s="19"/>
       <c r="E544" s="19"/>
       <c r="F544" s="20"/>
-      <c r="G544" s="20"/>
+      <c r="G544" s="55"/>
       <c r="H544" s="21"/>
       <c r="I544" s="21"/>
       <c r="J544" s="22"/>
@@ -14109,7 +14143,7 @@
       <c r="D545" s="19"/>
       <c r="E545" s="19"/>
       <c r="F545" s="20"/>
-      <c r="G545" s="20"/>
+      <c r="G545" s="55"/>
       <c r="H545" s="21"/>
       <c r="I545" s="21"/>
       <c r="J545" s="22"/>
@@ -14131,7 +14165,7 @@
       <c r="D546" s="19"/>
       <c r="E546" s="19"/>
       <c r="F546" s="20"/>
-      <c r="G546" s="20"/>
+      <c r="G546" s="55"/>
       <c r="H546" s="21"/>
       <c r="I546" s="21"/>
       <c r="J546" s="22"/>
@@ -14153,7 +14187,7 @@
       <c r="D547" s="19"/>
       <c r="E547" s="19"/>
       <c r="F547" s="20"/>
-      <c r="G547" s="20"/>
+      <c r="G547" s="55"/>
       <c r="H547" s="21"/>
       <c r="I547" s="21"/>
       <c r="J547" s="22"/>
@@ -14175,7 +14209,7 @@
       <c r="D548" s="19"/>
       <c r="E548" s="19"/>
       <c r="F548" s="20"/>
-      <c r="G548" s="20"/>
+      <c r="G548" s="55"/>
       <c r="H548" s="21"/>
       <c r="I548" s="21"/>
       <c r="J548" s="22"/>
@@ -14197,7 +14231,7 @@
       <c r="D549" s="19"/>
       <c r="E549" s="19"/>
       <c r="F549" s="20"/>
-      <c r="G549" s="20"/>
+      <c r="G549" s="55"/>
       <c r="H549" s="21"/>
       <c r="I549" s="21"/>
       <c r="J549" s="22"/>
@@ -14219,7 +14253,7 @@
       <c r="D550" s="19"/>
       <c r="E550" s="19"/>
       <c r="F550" s="20"/>
-      <c r="G550" s="20"/>
+      <c r="G550" s="55"/>
       <c r="H550" s="21"/>
       <c r="I550" s="21"/>
       <c r="J550" s="22"/>
@@ -14241,7 +14275,7 @@
       <c r="D551" s="19"/>
       <c r="E551" s="19"/>
       <c r="F551" s="20"/>
-      <c r="G551" s="20"/>
+      <c r="G551" s="55"/>
       <c r="H551" s="21"/>
       <c r="I551" s="21"/>
       <c r="J551" s="22"/>
@@ -14263,7 +14297,7 @@
       <c r="D552" s="19"/>
       <c r="E552" s="19"/>
       <c r="F552" s="20"/>
-      <c r="G552" s="20"/>
+      <c r="G552" s="55"/>
       <c r="H552" s="21"/>
       <c r="I552" s="21"/>
       <c r="J552" s="22"/>
@@ -14285,7 +14319,7 @@
       <c r="D553" s="19"/>
       <c r="E553" s="19"/>
       <c r="F553" s="20"/>
-      <c r="G553" s="20"/>
+      <c r="G553" s="55"/>
       <c r="H553" s="21"/>
       <c r="I553" s="21"/>
       <c r="J553" s="22"/>
@@ -14307,7 +14341,7 @@
       <c r="D554" s="19"/>
       <c r="E554" s="19"/>
       <c r="F554" s="20"/>
-      <c r="G554" s="20"/>
+      <c r="G554" s="55"/>
       <c r="H554" s="21"/>
       <c r="I554" s="21"/>
       <c r="J554" s="22"/>
@@ -14329,7 +14363,7 @@
       <c r="D555" s="19"/>
       <c r="E555" s="19"/>
       <c r="F555" s="20"/>
-      <c r="G555" s="20"/>
+      <c r="G555" s="55"/>
       <c r="H555" s="21"/>
       <c r="I555" s="21"/>
       <c r="J555" s="22"/>
@@ -14351,7 +14385,7 @@
       <c r="D556" s="19"/>
       <c r="E556" s="19"/>
       <c r="F556" s="20"/>
-      <c r="G556" s="20"/>
+      <c r="G556" s="55"/>
       <c r="H556" s="21"/>
       <c r="I556" s="21"/>
       <c r="J556" s="22"/>
@@ -14373,7 +14407,7 @@
       <c r="D557" s="19"/>
       <c r="E557" s="19"/>
       <c r="F557" s="20"/>
-      <c r="G557" s="20"/>
+      <c r="G557" s="55"/>
       <c r="H557" s="21"/>
       <c r="I557" s="21"/>
       <c r="J557" s="22"/>
@@ -14395,7 +14429,7 @@
       <c r="D558" s="19"/>
       <c r="E558" s="19"/>
       <c r="F558" s="20"/>
-      <c r="G558" s="20"/>
+      <c r="G558" s="55"/>
       <c r="H558" s="21"/>
       <c r="I558" s="21"/>
       <c r="J558" s="22"/>
@@ -14417,7 +14451,7 @@
       <c r="D559" s="19"/>
       <c r="E559" s="19"/>
       <c r="F559" s="20"/>
-      <c r="G559" s="20"/>
+      <c r="G559" s="55"/>
       <c r="H559" s="21"/>
       <c r="I559" s="21"/>
       <c r="J559" s="22"/>
@@ -14439,7 +14473,7 @@
       <c r="D560" s="19"/>
       <c r="E560" s="19"/>
       <c r="F560" s="20"/>
-      <c r="G560" s="20"/>
+      <c r="G560" s="55"/>
       <c r="H560" s="21"/>
       <c r="I560" s="21"/>
       <c r="J560" s="22"/>
@@ -14461,7 +14495,7 @@
       <c r="D561" s="19"/>
       <c r="E561" s="19"/>
       <c r="F561" s="20"/>
-      <c r="G561" s="20"/>
+      <c r="G561" s="55"/>
       <c r="H561" s="21"/>
       <c r="I561" s="21"/>
       <c r="J561" s="22"/>
@@ -14483,7 +14517,7 @@
       <c r="D562" s="19"/>
       <c r="E562" s="19"/>
       <c r="F562" s="20"/>
-      <c r="G562" s="20"/>
+      <c r="G562" s="55"/>
       <c r="H562" s="21"/>
       <c r="I562" s="21"/>
       <c r="J562" s="22"/>
@@ -14505,7 +14539,7 @@
       <c r="D563" s="19"/>
       <c r="E563" s="19"/>
       <c r="F563" s="20"/>
-      <c r="G563" s="20"/>
+      <c r="G563" s="55"/>
       <c r="H563" s="21"/>
       <c r="I563" s="21"/>
       <c r="J563" s="22"/>
@@ -14527,7 +14561,7 @@
       <c r="D564" s="19"/>
       <c r="E564" s="19"/>
       <c r="F564" s="20"/>
-      <c r="G564" s="20"/>
+      <c r="G564" s="55"/>
       <c r="H564" s="21"/>
       <c r="I564" s="21"/>
       <c r="J564" s="22"/>
@@ -14549,7 +14583,7 @@
       <c r="D565" s="19"/>
       <c r="E565" s="19"/>
       <c r="F565" s="20"/>
-      <c r="G565" s="20"/>
+      <c r="G565" s="55"/>
       <c r="H565" s="21"/>
       <c r="I565" s="21"/>
       <c r="J565" s="22"/>
@@ -14571,7 +14605,7 @@
       <c r="D566" s="19"/>
       <c r="E566" s="19"/>
       <c r="F566" s="20"/>
-      <c r="G566" s="20"/>
+      <c r="G566" s="55"/>
       <c r="H566" s="21"/>
       <c r="I566" s="21"/>
       <c r="J566" s="22"/>
@@ -14593,7 +14627,7 @@
       <c r="D567" s="19"/>
       <c r="E567" s="19"/>
       <c r="F567" s="20"/>
-      <c r="G567" s="20"/>
+      <c r="G567" s="55"/>
       <c r="H567" s="21"/>
       <c r="I567" s="21"/>
       <c r="J567" s="22"/>
@@ -14615,7 +14649,7 @@
       <c r="D568" s="19"/>
       <c r="E568" s="19"/>
       <c r="F568" s="20"/>
-      <c r="G568" s="20"/>
+      <c r="G568" s="55"/>
       <c r="H568" s="21"/>
       <c r="I568" s="21"/>
       <c r="J568" s="22"/>
@@ -14637,7 +14671,7 @@
       <c r="D569" s="19"/>
       <c r="E569" s="19"/>
       <c r="F569" s="20"/>
-      <c r="G569" s="20"/>
+      <c r="G569" s="55"/>
       <c r="H569" s="21"/>
       <c r="I569" s="21"/>
       <c r="J569" s="22"/>
@@ -14659,7 +14693,7 @@
       <c r="D570" s="19"/>
       <c r="E570" s="19"/>
       <c r="F570" s="20"/>
-      <c r="G570" s="20"/>
+      <c r="G570" s="55"/>
       <c r="H570" s="21"/>
       <c r="I570" s="21"/>
       <c r="J570" s="22"/>
@@ -14681,7 +14715,7 @@
       <c r="D571" s="19"/>
       <c r="E571" s="19"/>
       <c r="F571" s="20"/>
-      <c r="G571" s="20"/>
+      <c r="G571" s="55"/>
       <c r="H571" s="21"/>
       <c r="I571" s="21"/>
       <c r="J571" s="22"/>
@@ -14703,7 +14737,7 @@
       <c r="D572" s="19"/>
       <c r="E572" s="19"/>
       <c r="F572" s="20"/>
-      <c r="G572" s="20"/>
+      <c r="G572" s="55"/>
       <c r="H572" s="21"/>
       <c r="I572" s="21"/>
       <c r="J572" s="22"/>
@@ -14725,7 +14759,7 @@
       <c r="D573" s="19"/>
       <c r="E573" s="19"/>
       <c r="F573" s="20"/>
-      <c r="G573" s="20"/>
+      <c r="G573" s="55"/>
       <c r="H573" s="21"/>
       <c r="I573" s="21"/>
       <c r="J573" s="22"/>
@@ -14747,7 +14781,7 @@
       <c r="D574" s="19"/>
       <c r="E574" s="19"/>
       <c r="F574" s="20"/>
-      <c r="G574" s="20"/>
+      <c r="G574" s="55"/>
       <c r="H574" s="21"/>
       <c r="I574" s="21"/>
       <c r="J574" s="22"/>
@@ -14769,7 +14803,7 @@
       <c r="D575" s="19"/>
       <c r="E575" s="19"/>
       <c r="F575" s="20"/>
-      <c r="G575" s="20"/>
+      <c r="G575" s="55"/>
       <c r="H575" s="21"/>
       <c r="I575" s="21"/>
       <c r="J575" s="22"/>
@@ -14791,7 +14825,7 @@
       <c r="D576" s="19"/>
       <c r="E576" s="19"/>
       <c r="F576" s="20"/>
-      <c r="G576" s="20"/>
+      <c r="G576" s="55"/>
       <c r="H576" s="21"/>
       <c r="I576" s="21"/>
       <c r="J576" s="22"/>
@@ -14813,7 +14847,7 @@
       <c r="D577" s="19"/>
       <c r="E577" s="19"/>
       <c r="F577" s="20"/>
-      <c r="G577" s="20"/>
+      <c r="G577" s="55"/>
       <c r="H577" s="21"/>
       <c r="I577" s="21"/>
       <c r="J577" s="22"/>
@@ -14835,7 +14869,7 @@
       <c r="D578" s="19"/>
       <c r="E578" s="19"/>
       <c r="F578" s="20"/>
-      <c r="G578" s="20"/>
+      <c r="G578" s="55"/>
       <c r="H578" s="21"/>
       <c r="I578" s="21"/>
       <c r="J578" s="22"/>
@@ -14857,7 +14891,7 @@
       <c r="D579" s="19"/>
       <c r="E579" s="19"/>
       <c r="F579" s="20"/>
-      <c r="G579" s="20"/>
+      <c r="G579" s="55"/>
       <c r="H579" s="21"/>
       <c r="I579" s="21"/>
       <c r="J579" s="22"/>
@@ -14879,7 +14913,7 @@
       <c r="D580" s="19"/>
       <c r="E580" s="19"/>
       <c r="F580" s="20"/>
-      <c r="G580" s="20"/>
+      <c r="G580" s="55"/>
       <c r="H580" s="21"/>
       <c r="I580" s="21"/>
       <c r="J580" s="22"/>
@@ -14901,7 +14935,7 @@
       <c r="D581" s="19"/>
       <c r="E581" s="19"/>
       <c r="F581" s="20"/>
-      <c r="G581" s="20"/>
+      <c r="G581" s="55"/>
       <c r="H581" s="21"/>
       <c r="I581" s="21"/>
       <c r="J581" s="22"/>
@@ -14923,7 +14957,7 @@
       <c r="D582" s="19"/>
       <c r="E582" s="19"/>
       <c r="F582" s="20"/>
-      <c r="G582" s="20"/>
+      <c r="G582" s="55"/>
       <c r="H582" s="21"/>
       <c r="I582" s="21"/>
       <c r="J582" s="22"/>
@@ -14945,7 +14979,7 @@
       <c r="D583" s="19"/>
       <c r="E583" s="19"/>
       <c r="F583" s="20"/>
-      <c r="G583" s="20"/>
+      <c r="G583" s="55"/>
       <c r="H583" s="21"/>
       <c r="I583" s="21"/>
       <c r="J583" s="22"/>
@@ -14967,7 +15001,7 @@
       <c r="D584" s="19"/>
       <c r="E584" s="19"/>
       <c r="F584" s="20"/>
-      <c r="G584" s="20"/>
+      <c r="G584" s="55"/>
       <c r="H584" s="21"/>
       <c r="I584" s="21"/>
       <c r="J584" s="22"/>
@@ -14989,7 +15023,7 @@
       <c r="D585" s="19"/>
       <c r="E585" s="19"/>
       <c r="F585" s="20"/>
-      <c r="G585" s="20"/>
+      <c r="G585" s="55"/>
       <c r="H585" s="21"/>
       <c r="I585" s="21"/>
       <c r="J585" s="22"/>
@@ -15011,7 +15045,7 @@
       <c r="D586" s="19"/>
       <c r="E586" s="19"/>
       <c r="F586" s="20"/>
-      <c r="G586" s="20"/>
+      <c r="G586" s="55"/>
       <c r="H586" s="21"/>
       <c r="I586" s="21"/>
       <c r="J586" s="22"/>
@@ -15033,7 +15067,7 @@
       <c r="D587" s="19"/>
       <c r="E587" s="19"/>
       <c r="F587" s="20"/>
-      <c r="G587" s="20"/>
+      <c r="G587" s="55"/>
       <c r="H587" s="21"/>
       <c r="I587" s="21"/>
       <c r="J587" s="22"/>
@@ -15055,7 +15089,7 @@
       <c r="D588" s="19"/>
       <c r="E588" s="19"/>
       <c r="F588" s="20"/>
-      <c r="G588" s="20"/>
+      <c r="G588" s="55"/>
       <c r="H588" s="21"/>
       <c r="I588" s="21"/>
       <c r="J588" s="22"/>
@@ -15077,7 +15111,7 @@
       <c r="D589" s="19"/>
       <c r="E589" s="19"/>
       <c r="F589" s="20"/>
-      <c r="G589" s="20"/>
+      <c r="G589" s="55"/>
       <c r="H589" s="21"/>
       <c r="I589" s="21"/>
       <c r="J589" s="22"/>
@@ -15099,7 +15133,7 @@
       <c r="D590" s="19"/>
       <c r="E590" s="19"/>
       <c r="F590" s="20"/>
-      <c r="G590" s="20"/>
+      <c r="G590" s="55"/>
       <c r="H590" s="21"/>
       <c r="I590" s="21"/>
       <c r="J590" s="22"/>
@@ -15121,7 +15155,7 @@
       <c r="D591" s="19"/>
       <c r="E591" s="19"/>
       <c r="F591" s="20"/>
-      <c r="G591" s="20"/>
+      <c r="G591" s="55"/>
       <c r="H591" s="21"/>
       <c r="I591" s="21"/>
       <c r="J591" s="22"/>
@@ -15143,7 +15177,7 @@
       <c r="D592" s="19"/>
       <c r="E592" s="19"/>
       <c r="F592" s="20"/>
-      <c r="G592" s="20"/>
+      <c r="G592" s="55"/>
       <c r="H592" s="21"/>
       <c r="I592" s="21"/>
       <c r="J592" s="22"/>
@@ -15165,7 +15199,7 @@
       <c r="D593" s="19"/>
       <c r="E593" s="19"/>
       <c r="F593" s="20"/>
-      <c r="G593" s="20"/>
+      <c r="G593" s="55"/>
       <c r="H593" s="21"/>
       <c r="I593" s="21"/>
       <c r="J593" s="22"/>
@@ -15187,7 +15221,7 @@
       <c r="D594" s="19"/>
       <c r="E594" s="19"/>
       <c r="F594" s="20"/>
-      <c r="G594" s="20"/>
+      <c r="G594" s="55"/>
       <c r="H594" s="21"/>
       <c r="I594" s="21"/>
       <c r="J594" s="22"/>
@@ -15209,7 +15243,7 @@
       <c r="D595" s="19"/>
       <c r="E595" s="19"/>
       <c r="F595" s="20"/>
-      <c r="G595" s="20"/>
+      <c r="G595" s="55"/>
       <c r="H595" s="21"/>
       <c r="I595" s="21"/>
       <c r="J595" s="22"/>
@@ -15231,7 +15265,7 @@
       <c r="D596" s="19"/>
       <c r="E596" s="19"/>
       <c r="F596" s="20"/>
-      <c r="G596" s="20"/>
+      <c r="G596" s="55"/>
       <c r="H596" s="21"/>
       <c r="I596" s="21"/>
       <c r="J596" s="22"/>
@@ -15253,7 +15287,7 @@
       <c r="D597" s="19"/>
       <c r="E597" s="19"/>
       <c r="F597" s="20"/>
-      <c r="G597" s="20"/>
+      <c r="G597" s="55"/>
       <c r="H597" s="21"/>
       <c r="I597" s="21"/>
       <c r="J597" s="22"/>
@@ -15275,7 +15309,7 @@
       <c r="D598" s="19"/>
       <c r="E598" s="19"/>
       <c r="F598" s="20"/>
-      <c r="G598" s="20"/>
+      <c r="G598" s="55"/>
       <c r="H598" s="21"/>
       <c r="I598" s="21"/>
       <c r="J598" s="22"/>
@@ -15297,7 +15331,7 @@
       <c r="D599" s="19"/>
       <c r="E599" s="19"/>
       <c r="F599" s="20"/>
-      <c r="G599" s="20"/>
+      <c r="G599" s="55"/>
       <c r="H599" s="21"/>
       <c r="I599" s="21"/>
       <c r="J599" s="22"/>
@@ -15319,7 +15353,7 @@
       <c r="D600" s="19"/>
       <c r="E600" s="19"/>
       <c r="F600" s="20"/>
-      <c r="G600" s="20"/>
+      <c r="G600" s="55"/>
       <c r="H600" s="21"/>
       <c r="I600" s="21"/>
       <c r="J600" s="22"/>
@@ -15341,7 +15375,7 @@
       <c r="D601" s="19"/>
       <c r="E601" s="19"/>
       <c r="F601" s="20"/>
-      <c r="G601" s="20"/>
+      <c r="G601" s="55"/>
       <c r="H601" s="21"/>
       <c r="I601" s="21"/>
       <c r="J601" s="22"/>
@@ -15363,7 +15397,7 @@
       <c r="D602" s="19"/>
       <c r="E602" s="19"/>
       <c r="F602" s="20"/>
-      <c r="G602" s="20"/>
+      <c r="G602" s="55"/>
       <c r="H602" s="21"/>
       <c r="I602" s="21"/>
       <c r="J602" s="22"/>
@@ -15385,7 +15419,7 @@
       <c r="D603" s="19"/>
       <c r="E603" s="19"/>
       <c r="F603" s="20"/>
-      <c r="G603" s="20"/>
+      <c r="G603" s="55"/>
       <c r="H603" s="21"/>
       <c r="I603" s="21"/>
       <c r="J603" s="22"/>
@@ -15407,7 +15441,7 @@
       <c r="D604" s="19"/>
       <c r="E604" s="19"/>
       <c r="F604" s="20"/>
-      <c r="G604" s="20"/>
+      <c r="G604" s="55"/>
       <c r="H604" s="21"/>
       <c r="I604" s="21"/>
       <c r="J604" s="22"/>
@@ -15429,7 +15463,7 @@
       <c r="D605" s="19"/>
       <c r="E605" s="19"/>
       <c r="F605" s="20"/>
-      <c r="G605" s="20"/>
+      <c r="G605" s="55"/>
       <c r="H605" s="21"/>
       <c r="I605" s="21"/>
       <c r="J605" s="22"/>
@@ -15451,7 +15485,7 @@
       <c r="D606" s="19"/>
       <c r="E606" s="19"/>
       <c r="F606" s="20"/>
-      <c r="G606" s="20"/>
+      <c r="G606" s="55"/>
       <c r="H606" s="21"/>
       <c r="I606" s="21"/>
       <c r="J606" s="22"/>
@@ -15473,7 +15507,7 @@
       <c r="D607" s="19"/>
       <c r="E607" s="19"/>
       <c r="F607" s="20"/>
-      <c r="G607" s="20"/>
+      <c r="G607" s="55"/>
       <c r="H607" s="21"/>
       <c r="I607" s="21"/>
       <c r="J607" s="22"/>
@@ -15495,7 +15529,7 @@
       <c r="D608" s="19"/>
       <c r="E608" s="19"/>
       <c r="F608" s="20"/>
-      <c r="G608" s="20"/>
+      <c r="G608" s="55"/>
       <c r="H608" s="21"/>
       <c r="I608" s="21"/>
       <c r="J608" s="22"/>
@@ -15517,7 +15551,7 @@
       <c r="D609" s="19"/>
       <c r="E609" s="19"/>
       <c r="F609" s="20"/>
-      <c r="G609" s="20"/>
+      <c r="G609" s="55"/>
       <c r="H609" s="21"/>
       <c r="I609" s="21"/>
       <c r="J609" s="22"/>
@@ -15539,7 +15573,7 @@
       <c r="D610" s="19"/>
       <c r="E610" s="19"/>
       <c r="F610" s="20"/>
-      <c r="G610" s="20"/>
+      <c r="G610" s="55"/>
       <c r="H610" s="21"/>
       <c r="I610" s="21"/>
       <c r="J610" s="22"/>
@@ -15561,7 +15595,7 @@
       <c r="D611" s="19"/>
       <c r="E611" s="19"/>
       <c r="F611" s="20"/>
-      <c r="G611" s="20"/>
+      <c r="G611" s="55"/>
       <c r="H611" s="21"/>
       <c r="I611" s="21"/>
       <c r="J611" s="22"/>
@@ -15583,7 +15617,7 @@
       <c r="D612" s="19"/>
       <c r="E612" s="19"/>
       <c r="F612" s="20"/>
-      <c r="G612" s="20"/>
+      <c r="G612" s="55"/>
       <c r="H612" s="21"/>
       <c r="I612" s="21"/>
       <c r="J612" s="22"/>
@@ -15605,7 +15639,7 @@
       <c r="D613" s="19"/>
       <c r="E613" s="19"/>
       <c r="F613" s="20"/>
-      <c r="G613" s="20"/>
+      <c r="G613" s="55"/>
       <c r="H613" s="21"/>
       <c r="I613" s="21"/>
       <c r="J613" s="22"/>
@@ -15627,7 +15661,7 @@
       <c r="D614" s="19"/>
       <c r="E614" s="19"/>
       <c r="F614" s="20"/>
-      <c r="G614" s="20"/>
+      <c r="G614" s="55"/>
       <c r="H614" s="21"/>
       <c r="I614" s="21"/>
       <c r="J614" s="22"/>
@@ -15649,7 +15683,7 @@
       <c r="D615" s="19"/>
       <c r="E615" s="19"/>
       <c r="F615" s="20"/>
-      <c r="G615" s="20"/>
+      <c r="G615" s="55"/>
       <c r="H615" s="21"/>
       <c r="I615" s="21"/>
       <c r="J615" s="22"/>
@@ -15671,7 +15705,7 @@
       <c r="D616" s="19"/>
       <c r="E616" s="19"/>
       <c r="F616" s="20"/>
-      <c r="G616" s="20"/>
+      <c r="G616" s="55"/>
       <c r="H616" s="21"/>
       <c r="I616" s="21"/>
       <c r="J616" s="22"/>
@@ -15693,7 +15727,7 @@
       <c r="D617" s="19"/>
       <c r="E617" s="19"/>
       <c r="F617" s="20"/>
-      <c r="G617" s="20"/>
+      <c r="G617" s="55"/>
       <c r="H617" s="21"/>
       <c r="I617" s="21"/>
       <c r="J617" s="22"/>
@@ -15715,7 +15749,7 @@
       <c r="D618" s="19"/>
       <c r="E618" s="19"/>
       <c r="F618" s="20"/>
-      <c r="G618" s="20"/>
+      <c r="G618" s="55"/>
       <c r="H618" s="21"/>
       <c r="I618" s="21"/>
       <c r="J618" s="22"/>
@@ -15737,7 +15771,7 @@
       <c r="D619" s="19"/>
       <c r="E619" s="19"/>
       <c r="F619" s="20"/>
-      <c r="G619" s="20"/>
+      <c r="G619" s="55"/>
       <c r="H619" s="21"/>
       <c r="I619" s="21"/>
       <c r="J619" s="22"/>
@@ -15759,7 +15793,7 @@
       <c r="D620" s="19"/>
       <c r="E620" s="19"/>
       <c r="F620" s="20"/>
-      <c r="G620" s="20"/>
+      <c r="G620" s="55"/>
       <c r="H620" s="21"/>
       <c r="I620" s="21"/>
       <c r="J620" s="22"/>
@@ -15781,7 +15815,7 @@
       <c r="D621" s="19"/>
       <c r="E621" s="19"/>
       <c r="F621" s="20"/>
-      <c r="G621" s="20"/>
+      <c r="G621" s="55"/>
       <c r="H621" s="21"/>
       <c r="I621" s="21"/>
       <c r="J621" s="22"/>
@@ -15803,7 +15837,7 @@
       <c r="D622" s="19"/>
       <c r="E622" s="19"/>
       <c r="F622" s="20"/>
-      <c r="G622" s="20"/>
+      <c r="G622" s="55"/>
       <c r="H622" s="21"/>
       <c r="I622" s="21"/>
       <c r="J622" s="22"/>
@@ -15825,7 +15859,7 @@
       <c r="D623" s="19"/>
       <c r="E623" s="19"/>
       <c r="F623" s="20"/>
-      <c r="G623" s="20"/>
+      <c r="G623" s="55"/>
       <c r="H623" s="21"/>
       <c r="I623" s="21"/>
       <c r="J623" s="22"/>
@@ -15847,7 +15881,7 @@
       <c r="D624" s="19"/>
       <c r="E624" s="19"/>
       <c r="F624" s="20"/>
-      <c r="G624" s="20"/>
+      <c r="G624" s="55"/>
       <c r="H624" s="21"/>
       <c r="I624" s="21"/>
       <c r="J624" s="22"/>
@@ -15869,7 +15903,7 @@
       <c r="D625" s="19"/>
       <c r="E625" s="19"/>
       <c r="F625" s="20"/>
-      <c r="G625" s="20"/>
+      <c r="G625" s="55"/>
       <c r="H625" s="21"/>
       <c r="I625" s="21"/>
       <c r="J625" s="22"/>
@@ -15891,7 +15925,7 @@
       <c r="D626" s="19"/>
       <c r="E626" s="19"/>
       <c r="F626" s="20"/>
-      <c r="G626" s="20"/>
+      <c r="G626" s="55"/>
       <c r="H626" s="21"/>
       <c r="I626" s="21"/>
       <c r="J626" s="22"/>
@@ -15913,7 +15947,7 @@
       <c r="D627" s="19"/>
       <c r="E627" s="19"/>
       <c r="F627" s="20"/>
-      <c r="G627" s="20"/>
+      <c r="G627" s="55"/>
       <c r="H627" s="21"/>
       <c r="I627" s="21"/>
       <c r="J627" s="22"/>
@@ -15935,7 +15969,7 @@
       <c r="D628" s="19"/>
       <c r="E628" s="19"/>
       <c r="F628" s="20"/>
-      <c r="G628" s="20"/>
+      <c r="G628" s="55"/>
       <c r="H628" s="21"/>
       <c r="I628" s="21"/>
       <c r="J628" s="22"/>
@@ -15957,7 +15991,7 @@
       <c r="D629" s="19"/>
       <c r="E629" s="19"/>
       <c r="F629" s="20"/>
-      <c r="G629" s="20"/>
+      <c r="G629" s="55"/>
       <c r="H629" s="21"/>
       <c r="I629" s="21"/>
       <c r="J629" s="22"/>
@@ -15979,7 +16013,7 @@
       <c r="D630" s="19"/>
       <c r="E630" s="19"/>
       <c r="F630" s="20"/>
-      <c r="G630" s="20"/>
+      <c r="G630" s="55"/>
       <c r="H630" s="21"/>
       <c r="I630" s="21"/>
       <c r="J630" s="22"/>
@@ -16001,7 +16035,7 @@
       <c r="D631" s="19"/>
       <c r="E631" s="19"/>
       <c r="F631" s="20"/>
-      <c r="G631" s="20"/>
+      <c r="G631" s="55"/>
       <c r="H631" s="21"/>
       <c r="I631" s="21"/>
       <c r="J631" s="22"/>
@@ -16023,7 +16057,7 @@
       <c r="D632" s="19"/>
       <c r="E632" s="19"/>
       <c r="F632" s="20"/>
-      <c r="G632" s="20"/>
+      <c r="G632" s="55"/>
       <c r="H632" s="21"/>
       <c r="I632" s="21"/>
       <c r="J632" s="22"/>
@@ -16045,7 +16079,7 @@
       <c r="D633" s="19"/>
       <c r="E633" s="19"/>
       <c r="F633" s="20"/>
-      <c r="G633" s="20"/>
+      <c r="G633" s="55"/>
       <c r="H633" s="21"/>
       <c r="I633" s="21"/>
       <c r="J633" s="22"/>
@@ -16067,7 +16101,7 @@
       <c r="D634" s="19"/>
       <c r="E634" s="19"/>
       <c r="F634" s="20"/>
-      <c r="G634" s="20"/>
+      <c r="G634" s="55"/>
       <c r="H634" s="21"/>
       <c r="I634" s="21"/>
       <c r="J634" s="22"/>
@@ -16089,7 +16123,7 @@
       <c r="D635" s="19"/>
       <c r="E635" s="19"/>
       <c r="F635" s="20"/>
-      <c r="G635" s="20"/>
+      <c r="G635" s="55"/>
       <c r="H635" s="21"/>
       <c r="I635" s="21"/>
       <c r="J635" s="22"/>
@@ -16111,7 +16145,7 @@
       <c r="D636" s="19"/>
       <c r="E636" s="19"/>
       <c r="F636" s="20"/>
-      <c r="G636" s="20"/>
+      <c r="G636" s="55"/>
       <c r="H636" s="21"/>
       <c r="I636" s="21"/>
       <c r="J636" s="22"/>
@@ -16133,7 +16167,7 @@
       <c r="D637" s="19"/>
       <c r="E637" s="19"/>
       <c r="F637" s="20"/>
-      <c r="G637" s="20"/>
+      <c r="G637" s="55"/>
       <c r="H637" s="21"/>
       <c r="I637" s="21"/>
       <c r="J637" s="22"/>
@@ -16155,7 +16189,7 @@
       <c r="D638" s="19"/>
       <c r="E638" s="19"/>
       <c r="F638" s="20"/>
-      <c r="G638" s="20"/>
+      <c r="G638" s="55"/>
       <c r="H638" s="21"/>
       <c r="I638" s="21"/>
       <c r="J638" s="22"/>
@@ -16177,7 +16211,7 @@
       <c r="D639" s="19"/>
       <c r="E639" s="19"/>
       <c r="F639" s="20"/>
-      <c r="G639" s="20"/>
+      <c r="G639" s="55"/>
       <c r="H639" s="21"/>
       <c r="I639" s="21"/>
       <c r="J639" s="22"/>
@@ -16199,7 +16233,7 @@
       <c r="D640" s="19"/>
       <c r="E640" s="19"/>
       <c r="F640" s="20"/>
-      <c r="G640" s="20"/>
+      <c r="G640" s="55"/>
       <c r="H640" s="21"/>
       <c r="I640" s="21"/>
       <c r="J640" s="22"/>
@@ -16221,7 +16255,7 @@
       <c r="D641" s="19"/>
       <c r="E641" s="19"/>
       <c r="F641" s="20"/>
-      <c r="G641" s="20"/>
+      <c r="G641" s="55"/>
       <c r="H641" s="21"/>
       <c r="I641" s="21"/>
       <c r="J641" s="22"/>
@@ -16243,7 +16277,7 @@
       <c r="D642" s="19"/>
       <c r="E642" s="19"/>
       <c r="F642" s="20"/>
-      <c r="G642" s="20"/>
+      <c r="G642" s="55"/>
       <c r="H642" s="21"/>
       <c r="I642" s="21"/>
       <c r="J642" s="22"/>
@@ -16265,7 +16299,7 @@
       <c r="D643" s="19"/>
       <c r="E643" s="19"/>
       <c r="F643" s="20"/>
-      <c r="G643" s="20"/>
+      <c r="G643" s="55"/>
       <c r="H643" s="21"/>
       <c r="I643" s="21"/>
       <c r="J643" s="22"/>
@@ -16287,7 +16321,7 @@
       <c r="D644" s="19"/>
       <c r="E644" s="19"/>
       <c r="F644" s="20"/>
-      <c r="G644" s="20"/>
+      <c r="G644" s="55"/>
       <c r="H644" s="21"/>
       <c r="I644" s="21"/>
       <c r="J644" s="22"/>
@@ -16309,7 +16343,7 @@
       <c r="D645" s="19"/>
       <c r="E645" s="19"/>
       <c r="F645" s="20"/>
-      <c r="G645" s="20"/>
+      <c r="G645" s="55"/>
       <c r="H645" s="21"/>
       <c r="I645" s="21"/>
       <c r="J645" s="22"/>
@@ -16331,7 +16365,7 @@
       <c r="D646" s="19"/>
       <c r="E646" s="19"/>
       <c r="F646" s="20"/>
-      <c r="G646" s="20"/>
+      <c r="G646" s="55"/>
       <c r="H646" s="21"/>
       <c r="I646" s="21"/>
       <c r="J646" s="22"/>
@@ -16353,7 +16387,7 @@
       <c r="D647" s="19"/>
       <c r="E647" s="19"/>
       <c r="F647" s="20"/>
-      <c r="G647" s="20"/>
+      <c r="G647" s="55"/>
       <c r="H647" s="21"/>
       <c r="I647" s="21"/>
       <c r="J647" s="22"/>
@@ -16375,7 +16409,7 @@
       <c r="D648" s="19"/>
       <c r="E648" s="19"/>
       <c r="F648" s="20"/>
-      <c r="G648" s="20"/>
+      <c r="G648" s="55"/>
       <c r="H648" s="21"/>
       <c r="I648" s="21"/>
       <c r="J648" s="22"/>
@@ -16397,7 +16431,7 @@
       <c r="D649" s="19"/>
       <c r="E649" s="19"/>
       <c r="F649" s="20"/>
-      <c r="G649" s="20"/>
+      <c r="G649" s="55"/>
       <c r="H649" s="21"/>
       <c r="I649" s="21"/>
       <c r="J649" s="22"/>
@@ -16419,7 +16453,7 @@
       <c r="D650" s="19"/>
       <c r="E650" s="19"/>
       <c r="F650" s="20"/>
-      <c r="G650" s="20"/>
+      <c r="G650" s="55"/>
       <c r="H650" s="21"/>
       <c r="I650" s="21"/>
       <c r="J650" s="22"/>
@@ -16441,7 +16475,7 @@
       <c r="D651" s="19"/>
       <c r="E651" s="19"/>
       <c r="F651" s="20"/>
-      <c r="G651" s="20"/>
+      <c r="G651" s="55"/>
       <c r="H651" s="21"/>
       <c r="I651" s="21"/>
       <c r="J651" s="22"/>
@@ -16463,7 +16497,7 @@
       <c r="D652" s="19"/>
       <c r="E652" s="19"/>
       <c r="F652" s="20"/>
-      <c r="G652" s="20"/>
+      <c r="G652" s="55"/>
       <c r="H652" s="21"/>
       <c r="I652" s="21"/>
       <c r="J652" s="22"/>
@@ -16485,7 +16519,7 @@
       <c r="D653" s="19"/>
       <c r="E653" s="19"/>
       <c r="F653" s="20"/>
-      <c r="G653" s="20"/>
+      <c r="G653" s="55"/>
       <c r="H653" s="21"/>
       <c r="I653" s="21"/>
       <c r="J653" s="22"/>
@@ -16507,7 +16541,7 @@
       <c r="D654" s="19"/>
       <c r="E654" s="19"/>
       <c r="F654" s="20"/>
-      <c r="G654" s="20"/>
+      <c r="G654" s="55"/>
       <c r="H654" s="21"/>
       <c r="I654" s="21"/>
       <c r="J654" s="22"/>
@@ -16529,7 +16563,7 @@
       <c r="D655" s="19"/>
       <c r="E655" s="19"/>
       <c r="F655" s="20"/>
-      <c r="G655" s="20"/>
+      <c r="G655" s="55"/>
       <c r="H655" s="21"/>
       <c r="I655" s="21"/>
       <c r="J655" s="22"/>
@@ -16551,7 +16585,7 @@
       <c r="D656" s="19"/>
       <c r="E656" s="19"/>
       <c r="F656" s="20"/>
-      <c r="G656" s="20"/>
+      <c r="G656" s="55"/>
       <c r="H656" s="21"/>
       <c r="I656" s="21"/>
       <c r="J656" s="22"/>
@@ -16573,7 +16607,7 @@
       <c r="D657" s="19"/>
       <c r="E657" s="19"/>
       <c r="F657" s="20"/>
-      <c r="G657" s="20"/>
+      <c r="G657" s="55"/>
       <c r="H657" s="21"/>
       <c r="I657" s="21"/>
       <c r="J657" s="22"/>
@@ -16595,7 +16629,7 @@
       <c r="D658" s="19"/>
       <c r="E658" s="19"/>
       <c r="F658" s="20"/>
-      <c r="G658" s="20"/>
+      <c r="G658" s="55"/>
       <c r="H658" s="21"/>
       <c r="I658" s="21"/>
       <c r="J658" s="22"/>
@@ -16617,7 +16651,7 @@
       <c r="D659" s="19"/>
       <c r="E659" s="19"/>
       <c r="F659" s="20"/>
-      <c r="G659" s="20"/>
+      <c r="G659" s="55"/>
       <c r="H659" s="21"/>
       <c r="I659" s="21"/>
       <c r="J659" s="22"/>
@@ -16639,7 +16673,7 @@
       <c r="D660" s="19"/>
       <c r="E660" s="19"/>
       <c r="F660" s="20"/>
-      <c r="G660" s="20"/>
+      <c r="G660" s="55"/>
       <c r="H660" s="21"/>
       <c r="I660" s="21"/>
       <c r="J660" s="22"/>
@@ -16661,7 +16695,7 @@
       <c r="D661" s="19"/>
       <c r="E661" s="19"/>
       <c r="F661" s="20"/>
-      <c r="G661" s="20"/>
+      <c r="G661" s="55"/>
       <c r="H661" s="21"/>
       <c r="I661" s="21"/>
       <c r="J661" s="22"/>
@@ -16683,7 +16717,7 @@
       <c r="D662" s="19"/>
       <c r="E662" s="19"/>
       <c r="F662" s="20"/>
-      <c r="G662" s="20"/>
+      <c r="G662" s="55"/>
       <c r="H662" s="21"/>
       <c r="I662" s="21"/>
       <c r="J662" s="22"/>
@@ -16705,7 +16739,7 @@
       <c r="D663" s="19"/>
       <c r="E663" s="19"/>
       <c r="F663" s="20"/>
-      <c r="G663" s="20"/>
+      <c r="G663" s="55"/>
       <c r="H663" s="21"/>
       <c r="I663" s="21"/>
       <c r="J663" s="22"/>
@@ -16727,7 +16761,7 @@
       <c r="D664" s="19"/>
       <c r="E664" s="19"/>
       <c r="F664" s="20"/>
-      <c r="G664" s="20"/>
+      <c r="G664" s="55"/>
       <c r="H664" s="21"/>
       <c r="I664" s="21"/>
       <c r="J664" s="22"/>
@@ -16749,7 +16783,7 @@
       <c r="D665" s="19"/>
       <c r="E665" s="19"/>
       <c r="F665" s="20"/>
-      <c r="G665" s="20"/>
+      <c r="G665" s="55"/>
       <c r="H665" s="21"/>
       <c r="I665" s="21"/>
       <c r="J665" s="22"/>
@@ -16771,7 +16805,7 @@
       <c r="D666" s="19"/>
       <c r="E666" s="19"/>
       <c r="F666" s="20"/>
-      <c r="G666" s="20"/>
+      <c r="G666" s="55"/>
       <c r="H666" s="21"/>
       <c r="I666" s="21"/>
       <c r="J666" s="22"/>
@@ -16793,7 +16827,7 @@
       <c r="D667" s="19"/>
       <c r="E667" s="19"/>
       <c r="F667" s="20"/>
-      <c r="G667" s="20"/>
+      <c r="G667" s="55"/>
       <c r="H667" s="21"/>
       <c r="I667" s="21"/>
       <c r="J667" s="22"/>
@@ -16815,7 +16849,7 @@
       <c r="D668" s="19"/>
       <c r="E668" s="19"/>
       <c r="F668" s="20"/>
-      <c r="G668" s="20"/>
+      <c r="G668" s="55"/>
       <c r="H668" s="21"/>
       <c r="I668" s="21"/>
       <c r="J668" s="22"/>
@@ -16837,7 +16871,7 @@
       <c r="D669" s="19"/>
       <c r="E669" s="19"/>
       <c r="F669" s="20"/>
-      <c r="G669" s="20"/>
+      <c r="G669" s="55"/>
       <c r="H669" s="21"/>
       <c r="I669" s="21"/>
       <c r="J669" s="22"/>
@@ -16859,7 +16893,7 @@
       <c r="D670" s="19"/>
       <c r="E670" s="19"/>
       <c r="F670" s="20"/>
-      <c r="G670" s="20"/>
+      <c r="G670" s="55"/>
       <c r="H670" s="21"/>
       <c r="I670" s="21"/>
       <c r="J670" s="22"/>
@@ -16881,7 +16915,7 @@
       <c r="D671" s="19"/>
       <c r="E671" s="19"/>
       <c r="F671" s="20"/>
-      <c r="G671" s="20"/>
+      <c r="G671" s="55"/>
       <c r="H671" s="21"/>
       <c r="I671" s="21"/>
       <c r="J671" s="22"/>
@@ -16903,7 +16937,7 @@
       <c r="D672" s="19"/>
       <c r="E672" s="19"/>
       <c r="F672" s="20"/>
-      <c r="G672" s="20"/>
+      <c r="G672" s="55"/>
       <c r="H672" s="21"/>
       <c r="I672" s="21"/>
       <c r="J672" s="22"/>
@@ -16925,7 +16959,7 @@
       <c r="D673" s="19"/>
       <c r="E673" s="19"/>
       <c r="F673" s="20"/>
-      <c r="G673" s="20"/>
+      <c r="G673" s="55"/>
       <c r="H673" s="21"/>
       <c r="I673" s="21"/>
       <c r="J673" s="22"/>
@@ -16947,7 +16981,7 @@
       <c r="D674" s="19"/>
       <c r="E674" s="19"/>
       <c r="F674" s="20"/>
-      <c r="G674" s="20"/>
+      <c r="G674" s="55"/>
       <c r="H674" s="21"/>
       <c r="I674" s="21"/>
       <c r="J674" s="22"/>
@@ -16969,7 +17003,7 @@
       <c r="D675" s="19"/>
       <c r="E675" s="19"/>
       <c r="F675" s="20"/>
-      <c r="G675" s="20"/>
+      <c r="G675" s="55"/>
       <c r="H675" s="21"/>
       <c r="I675" s="21"/>
       <c r="J675" s="22"/>
@@ -16991,7 +17025,7 @@
       <c r="D676" s="19"/>
       <c r="E676" s="19"/>
       <c r="F676" s="20"/>
-      <c r="G676" s="20"/>
+      <c r="G676" s="55"/>
       <c r="H676" s="21"/>
       <c r="I676" s="21"/>
       <c r="J676" s="22"/>
@@ -17013,7 +17047,7 @@
       <c r="D677" s="19"/>
       <c r="E677" s="19"/>
       <c r="F677" s="20"/>
-      <c r="G677" s="20"/>
+      <c r="G677" s="55"/>
       <c r="H677" s="21"/>
       <c r="I677" s="21"/>
       <c r="J677" s="22"/>
@@ -17035,7 +17069,7 @@
       <c r="D678" s="19"/>
       <c r="E678" s="19"/>
       <c r="F678" s="20"/>
-      <c r="G678" s="20"/>
+      <c r="G678" s="55"/>
       <c r="H678" s="21"/>
       <c r="I678" s="21"/>
       <c r="J678" s="22"/>
@@ -17057,7 +17091,7 @@
       <c r="D679" s="19"/>
       <c r="E679" s="19"/>
       <c r="F679" s="20"/>
-      <c r="G679" s="20"/>
+      <c r="G679" s="55"/>
       <c r="H679" s="21"/>
       <c r="I679" s="21"/>
       <c r="J679" s="22"/>
@@ -17079,7 +17113,7 @@
       <c r="D680" s="19"/>
       <c r="E680" s="19"/>
       <c r="F680" s="20"/>
-      <c r="G680" s="20"/>
+      <c r="G680" s="55"/>
       <c r="H680" s="21"/>
       <c r="I680" s="21"/>
       <c r="J680" s="22"/>
@@ -17101,7 +17135,7 @@
       <c r="D681" s="19"/>
       <c r="E681" s="19"/>
       <c r="F681" s="20"/>
-      <c r="G681" s="20"/>
+      <c r="G681" s="55"/>
       <c r="H681" s="21"/>
       <c r="I681" s="21"/>
       <c r="J681" s="22"/>
@@ -17123,7 +17157,7 @@
       <c r="D682" s="19"/>
       <c r="E682" s="19"/>
       <c r="F682" s="20"/>
-      <c r="G682" s="20"/>
+      <c r="G682" s="55"/>
       <c r="H682" s="21"/>
       <c r="I682" s="21"/>
       <c r="J682" s="22"/>
@@ -17145,7 +17179,7 @@
       <c r="D683" s="19"/>
       <c r="E683" s="19"/>
       <c r="F683" s="20"/>
-      <c r="G683" s="20"/>
+      <c r="G683" s="55"/>
       <c r="H683" s="21"/>
       <c r="I683" s="21"/>
       <c r="J683" s="22"/>
@@ -17167,7 +17201,7 @@
       <c r="D684" s="19"/>
       <c r="E684" s="19"/>
       <c r="F684" s="20"/>
-      <c r="G684" s="20"/>
+      <c r="G684" s="55"/>
       <c r="H684" s="21"/>
       <c r="I684" s="21"/>
       <c r="J684" s="22"/>
@@ -17189,7 +17223,7 @@
       <c r="D685" s="19"/>
       <c r="E685" s="19"/>
       <c r="F685" s="20"/>
-      <c r="G685" s="20"/>
+      <c r="G685" s="55"/>
       <c r="H685" s="21"/>
       <c r="I685" s="21"/>
       <c r="J685" s="22"/>
@@ -17211,7 +17245,7 @@
       <c r="D686" s="19"/>
       <c r="E686" s="19"/>
       <c r="F686" s="20"/>
-      <c r="G686" s="20"/>
+      <c r="G686" s="55"/>
       <c r="H686" s="21"/>
       <c r="I686" s="21"/>
       <c r="J686" s="22"/>
@@ -17233,7 +17267,7 @@
       <c r="D687" s="19"/>
       <c r="E687" s="19"/>
       <c r="F687" s="20"/>
-      <c r="G687" s="20"/>
+      <c r="G687" s="55"/>
       <c r="H687" s="21"/>
       <c r="I687" s="21"/>
       <c r="J687" s="22"/>
@@ -17255,7 +17289,7 @@
       <c r="D688" s="19"/>
       <c r="E688" s="19"/>
       <c r="F688" s="20"/>
-      <c r="G688" s="20"/>
+      <c r="G688" s="55"/>
       <c r="H688" s="21"/>
       <c r="I688" s="21"/>
       <c r="J688" s="22"/>
@@ -17277,7 +17311,7 @@
       <c r="D689" s="19"/>
       <c r="E689" s="19"/>
       <c r="F689" s="20"/>
-      <c r="G689" s="20"/>
+      <c r="G689" s="55"/>
       <c r="H689" s="21"/>
       <c r="I689" s="21"/>
       <c r="J689" s="22"/>
@@ -17299,7 +17333,7 @@
       <c r="D690" s="19"/>
       <c r="E690" s="19"/>
       <c r="F690" s="20"/>
-      <c r="G690" s="20"/>
+      <c r="G690" s="55"/>
       <c r="H690" s="21"/>
       <c r="I690" s="21"/>
       <c r="J690" s="22"/>
@@ -17321,7 +17355,7 @@
       <c r="D691" s="19"/>
       <c r="E691" s="19"/>
       <c r="F691" s="20"/>
-      <c r="G691" s="20"/>
+      <c r="G691" s="55"/>
       <c r="H691" s="21"/>
       <c r="I691" s="21"/>
       <c r="J691" s="22"/>
@@ -17343,7 +17377,7 @@
       <c r="D692" s="19"/>
       <c r="E692" s="19"/>
       <c r="F692" s="20"/>
-      <c r="G692" s="20"/>
+      <c r="G692" s="55"/>
       <c r="H692" s="21"/>
       <c r="I692" s="21"/>
       <c r="J692" s="22"/>
@@ -17365,7 +17399,7 @@
       <c r="D693" s="19"/>
       <c r="E693" s="19"/>
       <c r="F693" s="20"/>
-      <c r="G693" s="20"/>
+      <c r="G693" s="55"/>
       <c r="H693" s="21"/>
       <c r="I693" s="21"/>
       <c r="J693" s="22"/>
@@ -17387,7 +17421,7 @@
       <c r="D694" s="19"/>
       <c r="E694" s="19"/>
       <c r="F694" s="20"/>
-      <c r="G694" s="20"/>
+      <c r="G694" s="55"/>
       <c r="H694" s="21"/>
       <c r="I694" s="21"/>
       <c r="J694" s="22"/>
@@ -17409,7 +17443,7 @@
       <c r="D695" s="19"/>
       <c r="E695" s="19"/>
       <c r="F695" s="20"/>
-      <c r="G695" s="20"/>
+      <c r="G695" s="55"/>
       <c r="H695" s="21"/>
       <c r="I695" s="21"/>
       <c r="J695" s="22"/>
@@ -17431,7 +17465,7 @@
       <c r="D696" s="19"/>
       <c r="E696" s="19"/>
       <c r="F696" s="20"/>
-      <c r="G696" s="20"/>
+      <c r="G696" s="55"/>
       <c r="H696" s="21"/>
       <c r="I696" s="21"/>
       <c r="J696" s="22"/>
@@ -17453,7 +17487,7 @@
       <c r="D697" s="19"/>
       <c r="E697" s="19"/>
       <c r="F697" s="20"/>
-      <c r="G697" s="20"/>
+      <c r="G697" s="55"/>
       <c r="H697" s="21"/>
       <c r="I697" s="21"/>
       <c r="J697" s="22"/>
@@ -17475,7 +17509,7 @@
       <c r="D698" s="19"/>
       <c r="E698" s="19"/>
       <c r="F698" s="20"/>
-      <c r="G698" s="20"/>
+      <c r="G698" s="55"/>
       <c r="H698" s="21"/>
       <c r="I698" s="21"/>
       <c r="J698" s="22"/>
@@ -17497,7 +17531,7 @@
       <c r="D699" s="19"/>
       <c r="E699" s="19"/>
       <c r="F699" s="20"/>
-      <c r="G699" s="20"/>
+      <c r="G699" s="55"/>
       <c r="H699" s="21"/>
       <c r="I699" s="21"/>
       <c r="J699" s="22"/>
@@ -17519,7 +17553,7 @@
       <c r="D700" s="19"/>
       <c r="E700" s="19"/>
       <c r="F700" s="20"/>
-      <c r="G700" s="20"/>
+      <c r="G700" s="55"/>
       <c r="H700" s="21"/>
       <c r="I700" s="21"/>
       <c r="J700" s="22"/>
@@ -17541,7 +17575,7 @@
       <c r="D701" s="19"/>
       <c r="E701" s="19"/>
       <c r="F701" s="20"/>
-      <c r="G701" s="20"/>
+      <c r="G701" s="55"/>
       <c r="H701" s="21"/>
       <c r="I701" s="21"/>
       <c r="J701" s="22"/>
@@ -17563,7 +17597,7 @@
       <c r="D702" s="19"/>
       <c r="E702" s="19"/>
       <c r="F702" s="20"/>
-      <c r="G702" s="20"/>
+      <c r="G702" s="55"/>
       <c r="H702" s="21"/>
       <c r="I702" s="21"/>
       <c r="J702" s="22"/>
@@ -17585,7 +17619,7 @@
       <c r="D703" s="19"/>
       <c r="E703" s="19"/>
       <c r="F703" s="20"/>
-      <c r="G703" s="20"/>
+      <c r="G703" s="55"/>
       <c r="H703" s="21"/>
       <c r="I703" s="21"/>
       <c r="J703" s="22"/>
@@ -17607,7 +17641,7 @@
       <c r="D704" s="19"/>
       <c r="E704" s="19"/>
       <c r="F704" s="20"/>
-      <c r="G704" s="20"/>
+      <c r="G704" s="55"/>
       <c r="H704" s="21"/>
       <c r="I704" s="21"/>
       <c r="J704" s="22"/>
@@ -17629,7 +17663,7 @@
       <c r="D705" s="19"/>
       <c r="E705" s="19"/>
       <c r="F705" s="20"/>
-      <c r="G705" s="20"/>
+      <c r="G705" s="55"/>
       <c r="H705" s="21"/>
       <c r="I705" s="21"/>
       <c r="J705" s="22"/>
@@ -17651,7 +17685,7 @@
       <c r="D706" s="19"/>
       <c r="E706" s="19"/>
       <c r="F706" s="20"/>
-      <c r="G706" s="20"/>
+      <c r="G706" s="55"/>
       <c r="H706" s="21"/>
       <c r="I706" s="21"/>
       <c r="J706" s="22"/>
@@ -17673,7 +17707,7 @@
       <c r="D707" s="19"/>
       <c r="E707" s="19"/>
       <c r="F707" s="20"/>
-      <c r="G707" s="20"/>
+      <c r="G707" s="55"/>
       <c r="H707" s="21"/>
       <c r="I707" s="21"/>
       <c r="J707" s="22"/>
